--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denys\Desktop\War Cup 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\wc2018\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BD8BAE-E0E3-409C-859D-0E18AF66D258}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="1" activeTab="2" xr2:uid="{06679F38-40B3-4A34-860F-690D3A58D83C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="T">T!$1:$1048576</definedName>
     <definedName name="teams">Settings!$I$17:$I$48</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7786,16 +7785,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode=";;;"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode=";;;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7809,7 +7808,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7828,7 +7827,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -7865,7 +7864,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7878,7 +7877,7 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -7901,14 +7900,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7924,6 +7923,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -8913,7 +8919,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8952,7 +8958,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -8976,7 +8982,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -9080,7 +9086,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -9096,7 +9102,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -9124,35 +9130,35 @@
       <alignment horizontal="right" vertical="center" indent="3" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -9307,7 +9313,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -9476,9 +9482,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="100">
     <dxf>
@@ -15146,7 +15152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15441,7 +15447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7841E7F-AE8F-44BD-B850-8391483B98A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15451,12 +15457,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -15590,7 +15596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>2074</v>
       </c>
@@ -15724,7 +15730,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>44</v>
       </c>
@@ -15858,7 +15864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>86</v>
       </c>
@@ -15992,7 +15998,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
         <v>129</v>
       </c>
@@ -16126,7 +16132,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>170</v>
       </c>
@@ -16260,7 +16266,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>209</v>
       </c>
@@ -16394,7 +16400,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
         <v>251</v>
       </c>
@@ -16528,7 +16534,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
         <v>276</v>
       </c>
@@ -16662,7 +16668,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
         <v>306</v>
       </c>
@@ -16796,7 +16802,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
         <v>337</v>
       </c>
@@ -16930,7 +16936,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>361</v>
       </c>
@@ -17064,7 +17070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="81" t="s">
         <v>307</v>
       </c>
@@ -17198,7 +17204,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="81" t="s">
         <v>401</v>
       </c>
@@ -17332,7 +17338,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>441</v>
       </c>
@@ -17466,7 +17472,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>470</v>
       </c>
@@ -17600,7 +17606,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
         <v>501</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
         <v>533</v>
       </c>
@@ -17868,7 +17874,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="81" t="s">
         <v>567</v>
       </c>
@@ -18002,7 +18008,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
         <v>601</v>
       </c>
@@ -18136,7 +18142,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>635</v>
       </c>
@@ -18270,7 +18276,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>668</v>
       </c>
@@ -18404,7 +18410,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="81" t="s">
         <v>700</v>
       </c>
@@ -18538,7 +18544,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>726</v>
       </c>
@@ -18672,7 +18678,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="81" t="s">
         <v>534</v>
       </c>
@@ -18806,7 +18812,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="81" t="s">
         <v>770</v>
       </c>
@@ -18940,7 +18946,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="81" t="s">
         <v>794</v>
       </c>
@@ -19074,7 +19080,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="81" t="s">
         <v>819</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="81" t="s">
         <v>848</v>
       </c>
@@ -19342,7 +19348,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="81" t="s">
         <v>876</v>
       </c>
@@ -19476,7 +19482,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="81" t="s">
         <v>903</v>
       </c>
@@ -19610,7 +19616,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="81" t="s">
         <v>928</v>
       </c>
@@ -19744,7 +19750,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="81" t="s">
         <v>952</v>
       </c>
@@ -19878,7 +19884,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="81" t="s">
         <v>977</v>
       </c>
@@ -20012,7 +20018,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>1004</v>
       </c>
@@ -20146,7 +20152,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="81" t="s">
         <v>1039</v>
       </c>
@@ -20280,7 +20286,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="81" t="s">
         <v>1075</v>
       </c>
@@ -20414,7 +20420,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
         <v>1100</v>
       </c>
@@ -20548,7 +20554,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
         <v>1120</v>
       </c>
@@ -20682,7 +20688,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="81" t="s">
         <v>1151</v>
       </c>
@@ -20816,7 +20822,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="81" t="s">
         <v>1172</v>
       </c>
@@ -20950,7 +20956,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="81" t="s">
         <v>1195</v>
       </c>
@@ -21084,7 +21090,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>2171</v>
       </c>
@@ -21218,7 +21224,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="81" t="s">
         <v>1232</v>
       </c>
@@ -21352,7 +21358,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="81" t="s">
         <v>2167</v>
       </c>
@@ -21486,7 +21492,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="81" t="s">
         <v>2164</v>
       </c>
@@ -21620,7 +21626,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="81" t="s">
         <v>1263</v>
       </c>
@@ -21754,7 +21760,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="81" t="s">
         <v>1294</v>
       </c>
@@ -21888,7 +21894,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="81" t="s">
         <v>1329</v>
       </c>
@@ -22022,7 +22028,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="81" t="s">
         <v>1359</v>
       </c>
@@ -22156,7 +22162,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="81" t="s">
         <v>2165</v>
       </c>
@@ -22290,7 +22296,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="81" t="s">
         <v>2168</v>
       </c>
@@ -22424,7 +22430,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="81" t="s">
         <v>1385</v>
       </c>
@@ -22558,7 +22564,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="81" t="s">
         <v>1407</v>
       </c>
@@ -22692,7 +22698,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="81" t="s">
         <v>2166</v>
       </c>
@@ -22826,7 +22832,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="81" t="s">
         <v>2172</v>
       </c>
@@ -22960,7 +22966,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="81" t="s">
         <v>2170</v>
       </c>
@@ -23094,7 +23100,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="81" t="s">
         <v>2162</v>
       </c>
@@ -23228,7 +23234,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="81" t="s">
         <v>1436</v>
       </c>
@@ -23362,7 +23368,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="81" t="s">
         <v>1455</v>
       </c>
@@ -23496,7 +23502,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" s="81" t="s">
         <v>1485</v>
       </c>
@@ -23630,7 +23636,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" s="81" t="s">
         <v>2163</v>
       </c>
@@ -23764,7 +23770,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="81" t="s">
         <v>1514</v>
       </c>
@@ -23898,7 +23904,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="81" t="s">
         <v>1539</v>
       </c>
@@ -24032,7 +24038,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="81" t="s">
         <v>1575</v>
       </c>
@@ -24166,7 +24172,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" s="81" t="s">
         <v>2169</v>
       </c>
@@ -24300,7 +24306,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="81" t="s">
         <v>2161</v>
       </c>
@@ -24434,7 +24440,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" s="81" t="s">
         <v>1612</v>
       </c>
@@ -24568,7 +24574,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" s="81" t="s">
         <v>1618</v>
       </c>
@@ -24702,7 +24708,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" s="81" t="s">
         <v>1624</v>
       </c>
@@ -24836,7 +24842,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" s="81" t="s">
         <v>1630</v>
       </c>
@@ -24970,7 +24976,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A74" s="81" t="s">
         <v>1636</v>
       </c>
@@ -25104,7 +25110,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A75" s="81" t="s">
         <v>1644</v>
       </c>
@@ -25238,7 +25244,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A76" s="81" t="s">
         <v>1652</v>
       </c>
@@ -25372,7 +25378,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A77" s="81" t="s">
         <v>1659</v>
       </c>
@@ -25506,7 +25512,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A78" s="81" t="s">
         <v>1666</v>
       </c>
@@ -25640,7 +25646,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A79" s="81" t="s">
         <v>1673</v>
       </c>
@@ -25774,7 +25780,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A80" s="81" t="s">
         <v>1680</v>
       </c>
@@ -25908,7 +25914,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A81" s="81" t="s">
         <v>1687</v>
       </c>
@@ -26042,7 +26048,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A82" s="81" t="s">
         <v>1694</v>
       </c>
@@ -26176,7 +26182,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A83" s="81" t="s">
         <v>1702</v>
       </c>
@@ -26310,7 +26316,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A84" s="81" t="s">
         <v>1710</v>
       </c>
@@ -26444,7 +26450,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A85" s="81" t="s">
         <v>1717</v>
       </c>
@@ -26578,7 +26584,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A86" s="81" t="s">
         <v>1723</v>
       </c>
@@ -26712,7 +26718,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A87" s="81" t="s">
         <v>1743</v>
       </c>
@@ -26846,7 +26852,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A88" s="81" t="s">
         <v>1763</v>
       </c>
@@ -26980,7 +26986,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A89" s="81" t="s">
         <v>1783</v>
       </c>
@@ -27114,7 +27120,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A90" s="81" t="s">
         <v>1803</v>
       </c>
@@ -27248,7 +27254,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A91" s="81" t="s">
         <v>1823</v>
       </c>
@@ -27382,7 +27388,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A92" s="81" t="s">
         <v>1843</v>
       </c>
@@ -27516,7 +27522,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A93" s="81" t="s">
         <v>1863</v>
       </c>
@@ -27650,7 +27656,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A94" s="81" t="s">
         <v>1883</v>
       </c>
@@ -27784,7 +27790,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A95" s="81" t="s">
         <v>1903</v>
       </c>
@@ -27918,7 +27924,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A96" s="81" t="s">
         <v>1923</v>
       </c>
@@ -28052,7 +28058,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A97" s="81" t="s">
         <v>1943</v>
       </c>
@@ -28186,7 +28192,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A98" s="81" t="s">
         <v>1963</v>
       </c>
@@ -28320,7 +28326,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A99" s="81" t="s">
         <v>1983</v>
       </c>
@@ -28454,7 +28460,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A100" s="81" t="s">
         <v>1973</v>
       </c>
@@ -28588,7 +28594,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A101" s="81" t="s">
         <v>1993</v>
       </c>
@@ -28722,7 +28728,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A102" s="81" t="s">
         <v>2185</v>
       </c>
@@ -28856,43 +28862,43 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A103" s="82"/>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A104" s="82"/>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A105" s="82"/>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A106" s="82"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A107" s="82"/>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A108" s="82"/>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A109" s="82"/>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A110" s="82"/>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A111" s="82"/>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A112" s="82"/>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A113" s="82"/>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A114" s="82"/>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A115" s="81" t="s">
         <v>2032</v>
       </c>
@@ -29024,35 +29030,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6F2527-19E5-4875-93D2-CFC0AC718D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="11"/>
-    <col min="5" max="5" width="1.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="11"/>
-    <col min="7" max="7" width="27.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="1.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="11"/>
+    <col min="5" max="5" width="1.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="11"/>
+    <col min="7" max="7" width="27.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="1.125" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="83" t="s">
         <v>2114</v>
       </c>
@@ -29064,7 +29071,7 @@
       <c r="G2" s="84"/>
       <c r="H2" s="85"/>
     </row>
-    <row r="3" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="86"/>
       <c r="C3" s="87"/>
       <c r="D3" s="88"/>
@@ -29072,7 +29079,7 @@
       <c r="G3" s="87"/>
       <c r="H3" s="88"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="98" t="s">
         <v>2116</v>
       </c>
@@ -29084,7 +29091,7 @@
       <c r="G4" s="89"/>
       <c r="H4" s="88"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="86"/>
       <c r="C5" s="87"/>
       <c r="D5" s="88"/>
@@ -29096,7 +29103,7 @@
       </c>
       <c r="H5" s="88"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="98" t="s">
         <v>2119</v>
       </c>
@@ -29112,7 +29119,7 @@
       </c>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="86"/>
       <c r="C7" s="87"/>
       <c r="D7" s="88"/>
@@ -29124,7 +29131,7 @@
       </c>
       <c r="H7" s="88"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="98" t="s">
         <v>2124</v>
       </c>
@@ -29140,7 +29147,7 @@
       </c>
       <c r="H8" s="88"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
       <c r="D9" s="88"/>
@@ -29152,7 +29159,7 @@
       </c>
       <c r="H9" s="88"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="98" t="s">
         <v>2130</v>
       </c>
@@ -29164,7 +29171,7 @@
       <c r="G10" s="94"/>
       <c r="H10" s="88"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
@@ -29172,7 +29179,7 @@
       <c r="G11" s="96"/>
       <c r="H11" s="97"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="98" t="s">
         <v>2184</v>
       </c>
@@ -29181,13 +29188,13 @@
       </c>
       <c r="D12" s="88"/>
     </row>
-    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
     </row>
-    <row r="14" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="99"/>
       <c r="C15" s="100"/>
       <c r="D15" s="101"/>
@@ -29204,7 +29211,7 @@
         <v>Argentina</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="86"/>
       <c r="C16" s="102" t="s">
         <v>2129</v>
@@ -29220,7 +29227,7 @@
       <c r="H16" s="108"/>
       <c r="I16" s="108"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="103" t="str">
         <f>VLOOKUP("Germany",T,lang,FALSE)</f>
         <v>Germany</v>
@@ -29236,7 +29243,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="103" t="str">
         <f>VLOOKUP("Brazil",T,lang,FALSE)</f>
         <v>Brazil</v>
@@ -29256,7 +29263,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="103" t="str">
         <f>VLOOKUP("Portugal",T,lang,FALSE)</f>
         <v>Portugal</v>
@@ -29276,7 +29283,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="103" t="str">
         <f>VLOOKUP("Argentina",T,lang,FALSE)</f>
         <v>Argentina</v>
@@ -29296,7 +29303,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="103" t="str">
         <f>VLOOKUP("Belgium",T,lang,FALSE)</f>
         <v>Belgium</v>
@@ -29316,7 +29323,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="103" t="str">
         <f>VLOOKUP("Spain",T,lang,FALSE)</f>
         <v>Spain</v>
@@ -29336,7 +29343,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="103" t="str">
         <f>VLOOKUP("Poland",T,lang,FALSE)</f>
         <v>Poland</v>
@@ -29356,7 +29363,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="103" t="str">
         <f>VLOOKUP("Switzerland",T,lang,FALSE)</f>
         <v>Switzerland</v>
@@ -29376,7 +29383,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="103" t="str">
         <f>VLOOKUP("France",T,lang,FALSE)</f>
         <v>France</v>
@@ -29396,7 +29403,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="103" t="str">
         <f>VLOOKUP("Peru",T,lang,FALSE)</f>
         <v>Peru</v>
@@ -29416,7 +29423,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="103" t="str">
         <f>VLOOKUP("Denmark",T,lang,FALSE)</f>
         <v>Denmark</v>
@@ -29436,7 +29443,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="103" t="str">
         <f>VLOOKUP("Colombia",T,lang,FALSE)</f>
         <v>Colombia</v>
@@ -29456,7 +29463,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="103" t="str">
         <f>VLOOKUP("England",T,lang,FALSE)</f>
         <v>England</v>
@@ -29476,7 +29483,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="103" t="str">
         <f>VLOOKUP("Mexico",T,lang,FALSE)</f>
         <v>Mexico</v>
@@ -29496,7 +29503,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="103" t="str">
         <f>VLOOKUP("Croatia",T,lang,FALSE)</f>
         <v>Croatia</v>
@@ -29516,7 +29523,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="103" t="str">
         <f>VLOOKUP("Sweden",T,lang,FALSE)</f>
         <v>Sweden</v>
@@ -29536,7 +29543,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="103" t="str">
         <f>VLOOKUP("Uruguay",T,lang,FALSE)</f>
         <v>Uruguay</v>
@@ -29556,7 +29563,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="103" t="str">
         <f>VLOOKUP("Iceland",T,lang,FALSE)</f>
         <v>Iceland</v>
@@ -29576,7 +29583,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="103" t="str">
         <f>VLOOKUP("Senegal",T,lang,FALSE)</f>
         <v>Senegal</v>
@@ -29596,7 +29603,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="103" t="str">
         <f>VLOOKUP("Costa Rica",T,lang,FALSE)</f>
         <v>Costa Rica</v>
@@ -29616,7 +29623,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="103" t="str">
         <f>VLOOKUP("Tunisia",T,lang,FALSE)</f>
         <v>Tunisia</v>
@@ -29636,7 +29643,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="103" t="str">
         <f>VLOOKUP("Egypt",T,lang,FALSE)</f>
         <v>Egypt</v>
@@ -29656,7 +29663,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="103" t="str">
         <f>VLOOKUP("Iran",T,lang,FALSE)</f>
         <v>Iran</v>
@@ -29676,7 +29683,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="103" t="str">
         <f>VLOOKUP("Serbia",T,lang,FALSE)</f>
         <v>Serbia</v>
@@ -29696,7 +29703,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="103" t="str">
         <f>VLOOKUP("Australia",T,lang,FALSE)</f>
         <v>Australia</v>
@@ -29716,7 +29723,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="103" t="str">
         <f>VLOOKUP("Morocco",T,lang,FALSE)</f>
         <v>Morocco</v>
@@ -29732,7 +29739,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="103" t="str">
         <f>VLOOKUP("Nigeria",T,lang,FALSE)</f>
         <v>Nigeria</v>
@@ -29752,7 +29759,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="103" t="str">
         <f>VLOOKUP("Panama",T,lang,FALSE)</f>
         <v>Panama</v>
@@ -29772,7 +29779,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="103" t="str">
         <f>VLOOKUP("Japan",T,lang,FALSE)</f>
         <v>Japan</v>
@@ -29792,7 +29799,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="103" t="str">
         <f>VLOOKUP("Korea Republic",T,lang,FALSE)</f>
         <v>Korea Republic</v>
@@ -29812,7 +29819,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="103" t="str">
         <f>VLOOKUP("Saudi Arabia",T,lang,FALSE)</f>
         <v>Saudi Arabia</v>
@@ -29828,7 +29835,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="103" t="str">
         <f>VLOOKUP("Russia",T,lang,FALSE)</f>
         <v>Russia</v>
@@ -29849,7 +29856,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
@@ -29859,20 +29866,21 @@
   <sortState ref="I17:I48">
     <sortCondition ref="I17:I48"/>
   </sortState>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Language" prompt="Use drop-down List" sqref="C4" xr:uid="{0DBAD2C3-6A5E-43E5-9FC6-9E3CAE1C968A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Language" prompt="Use drop-down List" sqref="C4">
       <formula1>lang_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Summer Time" prompt="Use drop-down List" sqref="C6" xr:uid="{28AC6A07-581B-484E-B93A-3F6462423AE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Summer Time" prompt="Use drop-down List" sqref="C6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select GTM-time" prompt="Use drop-down List" sqref="C8" xr:uid="{EC83C832-B212-425C-9943-F17313271E59}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select GTM-time" prompt="Use drop-down List" sqref="C8">
       <formula1>$F$18:$F$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Minutes" prompt="Use drop-down List" sqref="C10" xr:uid="{C6794E40-584C-4822-8504-C53404E82E2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Minutes" prompt="Use drop-down List" sqref="C10">
       <formula1>$F$43:$F$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Your Favorite Team" prompt="Use drop-down List" sqref="C12" xr:uid="{5F5DA096-193C-403D-9698-1DEED542F9BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Your Favorite Team" prompt="Use drop-down List" sqref="C12">
       <formula1>teams</formula1>
     </dataValidation>
   </dataValidations>
@@ -29882,68 +29890,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCDAAD0-B7F9-4EC8-A89D-FA373AF4B5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="6" customWidth="1"/>
-    <col min="6" max="7" width="4.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="4.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="14" style="9" customWidth="1"/>
-    <col min="11" max="14" width="5.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="58" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="5.375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="10" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="10" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="58" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="16" style="65" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="5" style="59" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="6.140625" style="58" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="59" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="5.42578125" style="58" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="59" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="5.42578125" style="58" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="6.125" style="58" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="4.25" style="59" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.375" style="58" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="13.375" style="59" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="5.375" style="58" hidden="1" customWidth="1"/>
     <col min="34" max="36" width="6" style="58" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" style="58" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="5.375" style="58" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="6" style="58" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="7.140625" style="59" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="7.125" style="59" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="59" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" style="60" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="4.7109375" style="61" hidden="1" customWidth="1"/>
-    <col min="43" max="46" width="4.7109375" style="62" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="9.140625" style="63" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="64" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="3.28515625" style="3" customWidth="1"/>
-    <col min="52" max="52" width="19.7109375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="15.25" style="60" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="4.75" style="61" hidden="1" customWidth="1"/>
+    <col min="43" max="46" width="4.75" style="62" hidden="1" customWidth="1"/>
+    <col min="47" max="49" width="9.125" style="63" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="9.125" style="64" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="3.25" style="3" customWidth="1"/>
+    <col min="52" max="52" width="19.75" style="3" customWidth="1"/>
     <col min="53" max="54" width="3" style="3" customWidth="1"/>
     <col min="55" max="56" width="2" style="3" customWidth="1"/>
-    <col min="57" max="57" width="3.28515625" style="3" customWidth="1"/>
-    <col min="58" max="58" width="19.7109375" style="3" customWidth="1"/>
+    <col min="57" max="57" width="3.25" style="3" customWidth="1"/>
+    <col min="58" max="58" width="19.75" style="3" customWidth="1"/>
     <col min="59" max="60" width="3" style="3" customWidth="1"/>
     <col min="61" max="62" width="2" style="3" customWidth="1"/>
-    <col min="63" max="63" width="3.28515625" style="3" customWidth="1"/>
-    <col min="64" max="64" width="19.7109375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="3.25" style="3" customWidth="1"/>
+    <col min="64" max="64" width="19.75" style="3" customWidth="1"/>
     <col min="65" max="66" width="3" style="3" customWidth="1"/>
     <col min="67" max="68" width="2" style="3" customWidth="1"/>
-    <col min="69" max="69" width="3.28515625" style="3" customWidth="1"/>
-    <col min="70" max="70" width="19.7109375" style="3" customWidth="1"/>
+    <col min="69" max="69" width="3.25" style="3" customWidth="1"/>
+    <col min="70" max="70" width="19.75" style="3" customWidth="1"/>
     <col min="71" max="72" width="3" style="3" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="3"/>
+    <col min="73" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A1" s="136" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
@@ -29986,7 +29994,7 @@
       <c r="AS1" s="63"/>
       <c r="AT1" s="63"/>
     </row>
-    <row r="2" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S2" s="58"/>
       <c r="T2" s="58"/>
       <c r="U2" s="58"/>
@@ -30010,7 +30018,7 @@
       <c r="AS2" s="63"/>
       <c r="AT2" s="63"/>
     </row>
-    <row r="3" spans="1:72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -30053,8 +30061,8 @@
       <c r="AS3" s="63"/>
       <c r="AT3" s="63"/>
     </row>
-    <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="138" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
@@ -30076,7 +30084,7 @@
       <c r="O5" s="145"/>
       <c r="P5" s="146"/>
     </row>
-    <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="141"/>
       <c r="B6" s="142"/>
       <c r="C6" s="142"/>
@@ -30184,7 +30192,7 @@
       <c r="BS6" s="131"/>
       <c r="BT6" s="132"/>
     </row>
-    <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -30204,8 +30212,12 @@
         <f>AB8</f>
         <v>Russia</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="16">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
       <c r="H7" s="66" t="str">
         <f>AB9</f>
         <v>Saudi Arabia</v>
@@ -30216,11 +30228,11 @@
       </c>
       <c r="S7" s="65" t="str">
         <f t="shared" ref="S7:S54" si="2">IF(OR(F7="",G7=""),"",IF(F7&gt;G7,E7&amp;"_win",IF(F7&lt;G7,E7&amp;"_lose",E7&amp;"_draw")))</f>
-        <v/>
+        <v>Russia_win</v>
       </c>
       <c r="T7" s="65" t="str">
         <f t="shared" ref="T7:T54" si="3">IF(S7="","",IF(F7&lt;G7,H7&amp;"_win",IF(F7&gt;G7,H7&amp;"_lose",H7&amp;"_draw")))</f>
-        <v/>
+        <v>Saudi Arabia_lose</v>
       </c>
       <c r="U7" s="59">
         <f t="shared" ref="U7:U54" si="4">IF(S7="",0,IF(VLOOKUP(E7,$AB$8:$AK$53,7,FALSE)=VLOOKUP(H7,$AB$8:$AK$53,7,FALSE),1,0))</f>
@@ -30238,9 +30250,9 @@
         <f t="shared" ref="X7:X54" si="7">IF(OR(E7=my_team,H7=my_team),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="58" t="str">
+      <c r="Y7" s="58">
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AY7" s="133"/>
       <c r="AZ7" s="134"/>
@@ -30259,7 +30271,7 @@
       <c r="BS7" s="134"/>
       <c r="BT7" s="135"/>
     </row>
-    <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -30279,8 +30291,12 @@
         <f>AB10</f>
         <v>Egypt</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
       <c r="H8" s="67" t="str">
         <f>AB11</f>
         <v>Uruguay</v>
@@ -30319,11 +30335,11 @@
       </c>
       <c r="S8" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Egypt_lose</v>
       </c>
       <c r="T8" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Uruguay_win</v>
       </c>
       <c r="U8" s="59">
         <f t="shared" si="4"/>
@@ -30341,13 +30357,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="58" t="str">
+      <c r="Y8" s="58">
         <f t="shared" ref="Y8:Y54" si="9">IF(OR(F8="",G8=""),"",IF(F8&gt;G8,1,IF(F8&lt;G8,-1,0)))</f>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA8" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN8))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="59" t="str">
         <f>VLOOKUP("Russia",T,lang,FALSE)</f>
@@ -30355,7 +30371,7 @@
       </c>
       <c r="AC8" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB8 &amp; "_win")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB8 &amp; "_draw")</f>
@@ -30367,27 +30383,27 @@
       </c>
       <c r="AF8" s="58">
         <f>SUMIF($E$7:$E$54,$AB8,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB8,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG8" s="58">
         <f>SUMIF($E$7:$E$54,$AB8,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB8,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="58">
         <f>(AF8-AG8)+1</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI8" s="58">
         <f>AF8-AG8</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ8" s="58">
         <f>(AI8-AI13)/AI12</f>
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AK8" s="58">
         <f>AC8*3+AD8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL8" s="58">
         <f>AP8/AP12*1000+AQ8/AQ12*100+AT8/AT12*10+AR8/AR12</f>
@@ -30399,7 +30415,7 @@
       </c>
       <c r="AN8" s="59">
         <f>1000*AK8/AK12+100*AJ8+10*AF8/AF12+1*AL8/AL12+AM8</f>
-        <v>2.6699999999999998E-4</v>
+        <v>958.88915588888892</v>
       </c>
       <c r="AO8" s="60" t="str">
         <f>IF(SUM(AC8:AE11)=12,J9,INDEX(T,70,lang))</f>
@@ -30437,7 +30453,7 @@
       <c r="BS8" s="25"/>
       <c r="BT8" s="25"/>
     </row>
-    <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
@@ -30457,23 +30473,27 @@
         <f>AB14</f>
         <v>Portugal</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="23">
+        <v>3</v>
+      </c>
+      <c r="G9" s="24">
+        <v>3</v>
+      </c>
       <c r="H9" s="67" t="str">
         <f>AB15</f>
         <v>Spain</v>
       </c>
       <c r="J9" s="69" t="str">
         <f>VLOOKUP(1,AA8:AK11,2,FALSE)</f>
-        <v>Uruguay</v>
+        <v>Russia</v>
       </c>
       <c r="K9" s="70">
         <f>L9+M9+N9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="70">
         <f>VLOOKUP(1,AA8:AK11,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="70">
         <f>VLOOKUP(1,AA8:AK11,4,FALSE)</f>
@@ -30485,11 +30505,11 @@
       </c>
       <c r="O9" s="70" t="str">
         <f>VLOOKUP(1,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA8:AK11,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>8 - 1</v>
       </c>
       <c r="P9" s="71">
         <f>L9*3+M9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R9" s="58">
         <f>DATE(2018,6,15)+TIME(7,0,0)+gmt_delta</f>
@@ -30497,35 +30517,35 @@
       </c>
       <c r="S9" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Portugal_draw</v>
       </c>
       <c r="T9" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Spain_draw</v>
       </c>
       <c r="U9" s="59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" s="58">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="58" t="str">
+      <c r="Y9" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA9" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN9))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="59" t="str">
         <f>VLOOKUP("Saudi Arabia",T,lang,FALSE)</f>
@@ -30541,7 +30561,7 @@
       </c>
       <c r="AE9" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB9 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="58">
         <f>SUMIF($E$7:$E$54,$AB9,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB9,$G$7:$G$54)</f>
@@ -30549,15 +30569,15 @@
       </c>
       <c r="AG9" s="58">
         <f>SUMIF($E$7:$E$54,$AB9,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB9,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH9" s="58">
         <f>(AF9-AG9)+1</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="AI9" s="58">
         <f>AF9-AG9</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AJ9" s="58">
         <f>(AI9-AI13)/AI12</f>
@@ -30629,7 +30649,7 @@
       <c r="BS9" s="25"/>
       <c r="BT9" s="25"/>
     </row>
-    <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
@@ -30649,23 +30669,27 @@
         <f>AB16</f>
         <v>Morocco</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
       <c r="H10" s="67" t="str">
         <f>AB17</f>
         <v>Iran</v>
       </c>
       <c r="J10" s="72" t="str">
         <f>VLOOKUP(2,AA8:AK11,2,FALSE)</f>
-        <v>Egypt</v>
+        <v>Uruguay</v>
       </c>
       <c r="K10" s="27">
         <f>L10+M10+N10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="27">
         <f>VLOOKUP(2,AA8:AK11,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="27">
         <f>VLOOKUP(2,AA8:AK11,4,FALSE)</f>
@@ -30677,11 +30701,11 @@
       </c>
       <c r="O10" s="27" t="str">
         <f>VLOOKUP(2,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA8:AK11,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 0</v>
       </c>
       <c r="P10" s="73">
         <f>L10*3+M10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R10" s="58">
         <f>DATE(2018,6,15)+TIME(4,0,0)+gmt_delta</f>
@@ -30689,11 +30713,11 @@
       </c>
       <c r="S10" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Morocco_lose</v>
       </c>
       <c r="T10" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Iran_win</v>
       </c>
       <c r="U10" s="59">
         <f t="shared" si="4"/>
@@ -30711,13 +30735,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="58" t="str">
+      <c r="Y10" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA10" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN10))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB10" s="59" t="str">
         <f>VLOOKUP("Egypt",T,lang,FALSE)</f>
@@ -30733,27 +30757,27 @@
       </c>
       <c r="AE10" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB10 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="58">
         <f>SUMIF($E$7:$E$54,$AB10,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB10,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="58">
         <f>SUMIF($E$7:$E$54,$AB10,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB10,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH10" s="58">
         <f>(AF10-AG10)+1</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AI10" s="58">
         <f>AF10-AG10</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ10" s="58">
         <f>(AI10-AI13)/AI12</f>
-        <v>0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="AK10" s="58">
         <f>AC10*3+AD10</f>
@@ -30769,7 +30793,7 @@
       </c>
       <c r="AN10" s="59">
         <f>1000*AK10/AK12+100*AJ10+10*AF10/AF12+1*AL10/AL12+AM10</f>
-        <v>4.0250000000000003E-4</v>
+        <v>22.540085039682538</v>
       </c>
       <c r="AP10" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB10&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB10&amp;"_win")*($U$7:$U$54))</f>
@@ -30819,7 +30843,7 @@
       <c r="BS10" s="25"/>
       <c r="BT10" s="25"/>
     </row>
-    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>5</v>
       </c>
@@ -30839,19 +30863,23 @@
         <f>AB20</f>
         <v>France</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="23">
+        <v>2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
       <c r="H11" s="67" t="str">
         <f>AB21</f>
         <v>Australia</v>
       </c>
       <c r="J11" s="72" t="str">
         <f>VLOOKUP(3,AA8:AK11,2,FALSE)</f>
-        <v>Saudi Arabia</v>
+        <v>Egypt</v>
       </c>
       <c r="K11" s="27">
         <f>L11+M11+N11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="27">
         <f>VLOOKUP(3,AA8:AK11,3,FALSE)</f>
@@ -30863,11 +30891,11 @@
       </c>
       <c r="N11" s="27">
         <f>VLOOKUP(3,AA8:AK11,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="27" t="str">
         <f>VLOOKUP(3,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA8:AK11,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 4</v>
       </c>
       <c r="P11" s="73">
         <f>L11*3+M11</f>
@@ -30879,11 +30907,11 @@
       </c>
       <c r="S11" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>France_win</v>
       </c>
       <c r="T11" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Australia_lose</v>
       </c>
       <c r="U11" s="59">
         <f t="shared" si="4"/>
@@ -30901,13 +30929,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="58" t="str">
+      <c r="Y11" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA11" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN11))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="59" t="str">
         <f>VLOOKUP("Uruguay",T,lang,FALSE)</f>
@@ -30915,7 +30943,7 @@
       </c>
       <c r="AC11" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB11 &amp; "_win")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB11 &amp; "_draw")</f>
@@ -30927,7 +30955,7 @@
       </c>
       <c r="AF11" s="58">
         <f>SUMIF($E$7:$E$54,$AB11,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB11,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="58">
         <f>SUMIF($E$7:$E$54,$AB11,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB11,$F$7:$F$54)</f>
@@ -30935,19 +30963,19 @@
       </c>
       <c r="AH11" s="58">
         <f>(AF11-AG11)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="58">
         <f>AF11-AG11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="58">
         <f>(AI11-AI13)/AI12</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AK11" s="58">
         <f>AC11*3+AD11</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL11" s="58">
         <f>AP11/AP12*1000+AQ11/AQ12*100+AT11/AT12*10+AR11/AR12</f>
@@ -30959,7 +30987,7 @@
       </c>
       <c r="AN11" s="59">
         <f>1000*AK11/AK12+100*AJ11+10*AF11/AF12+1*AL11/AL12+AM11</f>
-        <v>4.6200000000000001E-4</v>
+        <v>916.50839850793636</v>
       </c>
       <c r="AP11" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB11&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB11&amp;"_win")*($U$7:$U$54))</f>
@@ -31010,7 +31038,7 @@
       <c r="BS11" s="25"/>
       <c r="BT11" s="25"/>
     </row>
-    <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>6</v>
       </c>
@@ -31030,19 +31058,23 @@
         <f>AB22</f>
         <v>Peru</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
       <c r="H12" s="67" t="str">
         <f>AB23</f>
         <v>Denmark</v>
       </c>
       <c r="J12" s="74" t="str">
         <f>VLOOKUP(4,AA8:AK11,2,FALSE)</f>
-        <v>Russia</v>
+        <v>Saudi Arabia</v>
       </c>
       <c r="K12" s="75">
         <f>L12+M12+N12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="75">
         <f>VLOOKUP(4,AA8:AK11,3,FALSE)</f>
@@ -31054,11 +31086,11 @@
       </c>
       <c r="N12" s="75">
         <f>VLOOKUP(4,AA8:AK11,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="75" t="str">
         <f>VLOOKUP(4,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA8:AK11,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 6</v>
       </c>
       <c r="P12" s="76">
         <f>L12*3+M12</f>
@@ -31070,11 +31102,11 @@
       </c>
       <c r="S12" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Peru_lose</v>
       </c>
       <c r="T12" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Denmark_win</v>
       </c>
       <c r="U12" s="59">
         <f t="shared" si="4"/>
@@ -31092,13 +31124,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="58" t="str">
+      <c r="Y12" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AC12" s="58">
         <f t="shared" ref="AC12:AL12" si="10">MAX(AC8:AC11)-MIN(AC8:AC11)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="58">
         <f t="shared" si="10"/>
@@ -31106,27 +31138,27 @@
       </c>
       <c r="AE12" s="58">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="58">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG12" s="58">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH12" s="58">
         <f>MAX(AH8:AH11)-AH13+1</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AI12" s="58">
         <f>MAX(AI8:AI11)-AI13+1</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AK12" s="58">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL12" s="58">
         <f t="shared" si="10"/>
@@ -31180,7 +31212,7 @@
       <c r="BS12" s="25"/>
       <c r="BT12" s="25"/>
     </row>
-    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>7</v>
       </c>
@@ -31200,8 +31232,12 @@
         <f>AB26</f>
         <v>Argentina</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
       <c r="H13" s="67" t="str">
         <f>AB27</f>
         <v>Iceland</v>
@@ -31219,11 +31255,11 @@
       </c>
       <c r="S13" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Argentina_draw</v>
       </c>
       <c r="T13" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Iceland_draw</v>
       </c>
       <c r="U13" s="59">
         <f t="shared" si="4"/>
@@ -31241,17 +31277,17 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="58" t="str">
+      <c r="Y13" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AH13" s="58">
         <f>MIN(AH8:AH11)</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="AI13" s="58">
         <f>MIN(AI8:AI11)</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AY13" s="25" t="str">
         <f>INDEX(T,24+MONTH(R59),lang) &amp; " " &amp; DAY(R59) &amp; ", " &amp; YEAR(R59) &amp; "   " &amp; (IF(HOUR(R59)&lt;10,0,"")&amp;HOUR(R59)) &amp; ":" &amp;  (IF(MINUTE(R59)&lt;10,0,"")&amp;MINUTE(R59))</f>
@@ -31282,7 +31318,7 @@
       <c r="BS13" s="25"/>
       <c r="BT13" s="25"/>
     </row>
-    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>8</v>
       </c>
@@ -31302,8 +31338,12 @@
         <f>AB28</f>
         <v>Croatia</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="23">
+        <v>2</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
       <c r="H14" s="67" t="str">
         <f>AB29</f>
         <v>Nigeria</v>
@@ -31342,11 +31382,11 @@
       </c>
       <c r="S14" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Croatia_win</v>
       </c>
       <c r="T14" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Nigeria_lose</v>
       </c>
       <c r="U14" s="59">
         <f t="shared" si="4"/>
@@ -31364,9 +31404,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="58" t="str">
+      <c r="Y14" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA14" s="58">
         <f>COUNTIF(AN14:AN17,CONCATENATE("&gt;=",AN14))</f>
@@ -31378,11 +31418,11 @@
       </c>
       <c r="AC14" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB14 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB14 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB14 &amp; "_lose")</f>
@@ -31390,31 +31430,31 @@
       </c>
       <c r="AF14" s="58">
         <f>SUMIF($E$7:$E$54,$AB14,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB14,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG14" s="58">
         <f>SUMIF($E$7:$E$54,$AB14,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB14,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="58">
         <f>(AF14-AG14)*100+AK14*10000+AF14</f>
-        <v>0</v>
+        <v>40104</v>
       </c>
       <c r="AI14" s="58">
         <f>AF14-AG14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="58">
         <f>(AI14-AI19)/AI18</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AK14" s="58">
         <f>AC14*3+AD14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL14" s="58">
         <f>AP14/AP18*1000+AQ14/AQ18*100+AT14/AT18*10+AR14/AR18</f>
-        <v>0</v>
+        <v>50.75</v>
       </c>
       <c r="AM14" s="58">
         <f>VLOOKUP(AB14,db_fifarank,2,FALSE)/2000000</f>
@@ -31422,7 +31462,7 @@
       </c>
       <c r="AN14" s="59">
         <f>1000*AK14/AK18+100*AJ14+10*AF14/AF18+1*AL14/AL18+AM14</f>
-        <v>6.7900000000000002E-4</v>
+        <v>883.98135532850245</v>
       </c>
       <c r="AO14" s="60" t="str">
         <f>IF(SUM(AC14:AE17)=12,J15,INDEX(T,72,lang))</f>
@@ -31434,15 +31474,15 @@
       </c>
       <c r="AQ14" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB14&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB14&amp;"_draw")*($U$7:$U$54))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB14)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB14)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS14" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB14)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB14)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT14" s="62">
         <f>AR14-AS14</f>
@@ -31476,7 +31516,7 @@
       <c r="BS14" s="25"/>
       <c r="BT14" s="25"/>
     </row>
-    <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>9</v>
       </c>
@@ -31496,8 +31536,12 @@
         <f>AB32</f>
         <v>Brazil</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="23">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
       <c r="H15" s="67" t="str">
         <f>AB33</f>
         <v>Switzerland</v>
@@ -31508,15 +31552,15 @@
       </c>
       <c r="K15" s="70">
         <f>L15+M15+N15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="70">
         <f>VLOOKUP(1,AA14:AK17,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="70">
         <f>VLOOKUP(1,AA14:AK17,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="70">
         <f>VLOOKUP(1,AA14:AK17,5,FALSE)</f>
@@ -31524,11 +31568,11 @@
       </c>
       <c r="O15" s="70" t="str">
         <f>VLOOKUP(1,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA14:AK17,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>4 - 3</v>
       </c>
       <c r="P15" s="71">
         <f>L15*3+M15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15" s="58">
         <f>DATE(2018,6,17)+TIME(7,0,0)+gmt_delta</f>
@@ -31536,11 +31580,11 @@
       </c>
       <c r="S15" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Brazil_draw</v>
       </c>
       <c r="T15" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Switzerland_draw</v>
       </c>
       <c r="U15" s="59">
         <f t="shared" si="4"/>
@@ -31558,9 +31602,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="58" t="str">
+      <c r="Y15" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA15" s="58">
         <f>COUNTIF(AN14:AN17,CONCATENATE("&gt;=",AN15))</f>
@@ -31572,11 +31616,11 @@
       </c>
       <c r="AC15" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB15 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB15 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB15 &amp; "_lose")</f>
@@ -31584,31 +31628,31 @@
       </c>
       <c r="AF15" s="58">
         <f>SUMIF($E$7:$E$54,$AB15,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB15,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="58">
         <f>SUMIF($E$7:$E$54,$AB15,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB15,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="58">
         <f>(AF15-AG15)*100+AK15*10000+AF15</f>
-        <v>0</v>
+        <v>40104</v>
       </c>
       <c r="AI15" s="58">
         <f>AF15-AG15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="58">
         <f>(AI15-AI19)/AI18</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AK15" s="58">
         <f>AC15*3+AD15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL15" s="58">
         <f>AP15/AP18*1000+AQ15/AQ18*100+AT15/AT18*10+AR15/AR18</f>
-        <v>0</v>
+        <v>50.75</v>
       </c>
       <c r="AM15" s="58">
         <f>VLOOKUP(AB15,db_fifarank,2,FALSE)/2000000</f>
@@ -31616,7 +31660,7 @@
       </c>
       <c r="AN15" s="59">
         <f>1000*AK15/AK18+100*AJ15+10*AF15/AF18+1*AL15/AL18+AM15</f>
-        <v>6.1550000000000005E-4</v>
+        <v>883.98129182850244</v>
       </c>
       <c r="AO15" s="60" t="str">
         <f>IF(SUM(AC14:AE17)=12,J16,INDEX(T,73,lang))</f>
@@ -31628,15 +31672,15 @@
       </c>
       <c r="AQ15" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB15&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB15&amp;"_draw")*($U$7:$U$54))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB15)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB15)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS15" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB15)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB15)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT15" s="62">
         <f>AR15-AS15</f>
@@ -31671,7 +31715,7 @@
       <c r="BS15" s="25"/>
       <c r="BT15" s="25"/>
     </row>
-    <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>10</v>
       </c>
@@ -31691,8 +31735,12 @@
         <f>AB34</f>
         <v>Costa Rica</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
       <c r="H16" s="67" t="str">
         <f>AB35</f>
         <v>Serbia</v>
@@ -31703,15 +31751,15 @@
       </c>
       <c r="K16" s="27">
         <f>L16+M16+N16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="27">
         <f>VLOOKUP(2,AA14:AK17,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="27">
         <f>VLOOKUP(2,AA14:AK17,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="27">
         <f>VLOOKUP(2,AA14:AK17,5,FALSE)</f>
@@ -31719,11 +31767,11 @@
       </c>
       <c r="O16" s="27" t="str">
         <f>VLOOKUP(2,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA14:AK17,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>4 - 3</v>
       </c>
       <c r="P16" s="73">
         <f>L16*3+M16</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16" s="58">
         <f>DATE(2018,6,17)+TIME(1,0,0)+gmt_delta</f>
@@ -31731,11 +31779,11 @@
       </c>
       <c r="S16" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Costa Rica_lose</v>
       </c>
       <c r="T16" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Serbia_win</v>
       </c>
       <c r="U16" s="59">
         <f t="shared" si="4"/>
@@ -31753,9 +31801,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="58" t="str">
+      <c r="Y16" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA16" s="58">
         <f>COUNTIF(AN14:AN17,CONCATENATE("&gt;=",AN16))</f>
@@ -31775,7 +31823,7 @@
       </c>
       <c r="AE16" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB16 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="58">
         <f>SUMIF($E$7:$E$54,$AB16,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB16,$G$7:$G$54)</f>
@@ -31783,15 +31831,15 @@
       </c>
       <c r="AG16" s="58">
         <f>SUMIF($E$7:$E$54,$AB16,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB16,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" s="58">
         <f>(AF16-AG16)*100+AK16*10000+AF16</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AI16" s="58">
         <f>AF16-AG16</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ16" s="58">
         <f>(AI16-AI19)/AI18</f>
@@ -31861,7 +31909,7 @@
       <c r="BS16" s="25"/>
       <c r="BT16" s="25"/>
     </row>
-    <row r="17" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>11</v>
       </c>
@@ -31881,8 +31929,12 @@
         <f>AB38</f>
         <v>Germany</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
       <c r="H17" s="67" t="str">
         <f>AB39</f>
         <v>Mexico</v>
@@ -31893,11 +31945,11 @@
       </c>
       <c r="K17" s="27">
         <f>L17+M17+N17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="27">
         <f>VLOOKUP(3,AA14:AK17,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="27">
         <f>VLOOKUP(3,AA14:AK17,4,FALSE)</f>
@@ -31905,15 +31957,15 @@
       </c>
       <c r="N17" s="27">
         <f>VLOOKUP(3,AA14:AK17,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="27" t="str">
         <f>VLOOKUP(3,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA14:AK17,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 1</v>
       </c>
       <c r="P17" s="73">
         <f>L17*3+M17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="58">
         <f>DATE(2018,6,17)+TIME(4,0,0)+gmt_delta</f>
@@ -31921,11 +31973,11 @@
       </c>
       <c r="S17" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Germany_lose</v>
       </c>
       <c r="T17" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Mexico_win</v>
       </c>
       <c r="U17" s="59">
         <f t="shared" si="4"/>
@@ -31943,9 +31995,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="58" t="str">
+      <c r="Y17" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA17" s="58">
         <f>COUNTIF(AN14:AN17,CONCATENATE("&gt;=",AN17))</f>
@@ -31957,7 +32009,7 @@
       </c>
       <c r="AC17" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB17 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB17 &amp; "_draw")</f>
@@ -31965,19 +32017,19 @@
       </c>
       <c r="AE17" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB17 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="58">
         <f>SUMIF($E$7:$E$54,$AB17,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB17,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="58">
         <f>SUMIF($E$7:$E$54,$AB17,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB17,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="58">
         <f>(AF17-AG17)*100+AK17*10000+AF17</f>
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="AI17" s="58">
         <f>AF17-AG17</f>
@@ -31985,11 +32037,11 @@
       </c>
       <c r="AJ17" s="58">
         <f>(AI17-AI19)/AI18</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK17" s="58">
         <f>AC17*3+AD17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL17" s="58">
         <f>AP17/AP18*1000+AQ17/AQ18*100+AT17/AT18*10+AR17/AR18</f>
@@ -32001,7 +32053,7 @@
       </c>
       <c r="AN17" s="59">
         <f>1000*AK17/AK18+100*AJ17+10*AF17/AF18+1*AL17/AL18+AM17</f>
-        <v>3.9899999999999999E-4</v>
+        <v>652.00039900000002</v>
       </c>
       <c r="AP17" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB17&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB17&amp;"_win")*($U$7:$U$54))</f>
@@ -32052,7 +32104,7 @@
       <c r="BS17" s="25"/>
       <c r="BT17" s="25"/>
     </row>
-    <row r="18" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>12</v>
       </c>
@@ -32072,8 +32124,12 @@
         <f>AB40</f>
         <v>Sweden</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
       <c r="H18" s="67" t="str">
         <f>AB41</f>
         <v>Korea Republic</v>
@@ -32084,7 +32140,7 @@
       </c>
       <c r="K18" s="75">
         <f>L18+M18+N18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="75">
         <f>VLOOKUP(4,AA14:AK17,3,FALSE)</f>
@@ -32096,11 +32152,11 @@
       </c>
       <c r="N18" s="75">
         <f>VLOOKUP(4,AA14:AK17,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="75" t="str">
         <f>VLOOKUP(4,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA14:AK17,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 2</v>
       </c>
       <c r="P18" s="76">
         <f>L18*3+M18</f>
@@ -32112,11 +32168,11 @@
       </c>
       <c r="S18" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Sweden_win</v>
       </c>
       <c r="T18" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Korea Republic_lose</v>
       </c>
       <c r="U18" s="59">
         <f t="shared" si="4"/>
@@ -32134,45 +32190,45 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="58" t="str">
+      <c r="Y18" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC18" s="58">
         <f t="shared" ref="AC18:AL18" si="11">MAX(AC14:AC17)-MIN(AC14:AC17)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="58">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="58">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="58">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="58">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="58">
         <f>MAX(AH14:AH17)-AH19+1</f>
-        <v>1</v>
+        <v>40305</v>
       </c>
       <c r="AI18" s="58">
         <f>MAX(AI14:AI17)-AI19+1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="58">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="58">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>51.75</v>
       </c>
       <c r="AP18" s="58">
         <f>MAX(AP14:AP17)-MIN(AP14:AP17)+1</f>
@@ -32180,15 +32236,15 @@
       </c>
       <c r="AQ18" s="58">
         <f>MAX(AQ14:AQ17)-MIN(AQ14:AQ17)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR18" s="58">
         <f>MAX(AR14:AR17)-MIN(AR14:AR17)+1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS18" s="58">
         <f>MAX(AS14:AS17)-MIN(AS14:AS17)+1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT18" s="58">
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
@@ -32222,7 +32278,7 @@
       <c r="BS18" s="25"/>
       <c r="BT18" s="25"/>
     </row>
-    <row r="19" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>13</v>
       </c>
@@ -32242,8 +32298,12 @@
         <f>AB44</f>
         <v>Belgium</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="23">
+        <v>3</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
       <c r="H19" s="67" t="str">
         <f>AB45</f>
         <v>Panama</v>
@@ -32261,11 +32321,11 @@
       </c>
       <c r="S19" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Belgium_win</v>
       </c>
       <c r="T19" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Panama_lose</v>
       </c>
       <c r="U19" s="59">
         <f t="shared" si="4"/>
@@ -32283,17 +32343,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="58" t="str">
+      <c r="Y19" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AH19" s="58">
         <f>MIN(AH14:AH17)</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AI19" s="58">
         <f>MIN(AI14:AI17)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AY19" s="119"/>
       <c r="AZ19" s="31" t="str">
@@ -32324,7 +32384,7 @@
       <c r="BS19" s="25"/>
       <c r="BT19" s="25"/>
     </row>
-    <row r="20" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>14</v>
       </c>
@@ -32344,8 +32404,12 @@
         <f>AB46</f>
         <v>Tunisia</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>2</v>
+      </c>
       <c r="H20" s="67" t="str">
         <f>AB47</f>
         <v>England</v>
@@ -32384,11 +32448,11 @@
       </c>
       <c r="S20" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Tunisia_lose</v>
       </c>
       <c r="T20" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>England_win</v>
       </c>
       <c r="U20" s="59">
         <f t="shared" si="4"/>
@@ -32406,9 +32470,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="58" t="str">
+      <c r="Y20" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA20" s="58">
         <f>COUNTIF(AN20:AN23,CONCATENATE("&gt;=",AN20))</f>
@@ -32420,7 +32484,7 @@
       </c>
       <c r="AC20" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB20 &amp; "_win")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB20 &amp; "_draw")</f>
@@ -32432,27 +32496,27 @@
       </c>
       <c r="AF20" s="58">
         <f>SUMIF($E$7:$E$54,$AB20,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB20,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="58">
         <f>SUMIF($E$7:$E$54,$AB20,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB20,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="58">
         <f>(AF20-AG20)*100+AK20*10000+AF20</f>
-        <v>0</v>
+        <v>60203</v>
       </c>
       <c r="AI20" s="58">
         <f>AF20-AG20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="58">
         <f>(AI20-AI25)/AI24</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AK20" s="58">
         <f>AC20*3+AD20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL20" s="58">
         <f>AP20/AP24*1000+AQ20/AQ24*100+AT20/AT24*10+AR20/AR24</f>
@@ -32464,7 +32528,7 @@
       </c>
       <c r="AN20" s="59">
         <f>1000*AK20/AK24+100*AJ20+10*AF20/AF24+1*AL20/AL24+AM20</f>
-        <v>5.9150000000000001E-4</v>
+        <v>944.64344864285715</v>
       </c>
       <c r="AO20" s="60" t="str">
         <f>IF(SUM(AC20:AE23)=12,J21,INDEX(T,74,lang))</f>
@@ -32518,7 +32582,7 @@
       <c r="BS20" s="25"/>
       <c r="BT20" s="25"/>
     </row>
-    <row r="21" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>15</v>
       </c>
@@ -32538,8 +32602,12 @@
         <f>AB50</f>
         <v>Poland</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24">
+        <v>2</v>
+      </c>
       <c r="H21" s="67" t="str">
         <f>AB51</f>
         <v>Senegal</v>
@@ -32550,11 +32618,11 @@
       </c>
       <c r="K21" s="70">
         <f>L21+M21+N21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="70">
         <f>VLOOKUP(1,AA20:AK23,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="70">
         <f>VLOOKUP(1,AA20:AK23,4,FALSE)</f>
@@ -32566,11 +32634,11 @@
       </c>
       <c r="O21" s="70" t="str">
         <f>VLOOKUP(1,AA20:AK23,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA20:AK23,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>3 - 1</v>
       </c>
       <c r="P21" s="71">
         <f>L21*3+M21</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R21" s="58">
         <f>DATE(2018,6,19)+TIME(4,0,0)+gmt_delta</f>
@@ -32578,11 +32646,11 @@
       </c>
       <c r="S21" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Poland_lose</v>
       </c>
       <c r="T21" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Senegal_win</v>
       </c>
       <c r="U21" s="59">
         <f t="shared" si="4"/>
@@ -32600,13 +32668,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="58" t="str">
+      <c r="Y21" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA21" s="58">
         <f>COUNTIF(AN20:AN23,CONCATENATE("&gt;=",AN21))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="59" t="str">
         <f>VLOOKUP("Australia",T,lang,FALSE)</f>
@@ -32618,35 +32686,35 @@
       </c>
       <c r="AD21" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB21 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB21 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="58">
         <f>SUMIF($E$7:$E$54,$AB21,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB21,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="58">
         <f>SUMIF($E$7:$E$54,$AB21,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB21,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="58">
         <f>(AF21-AG21)*100+AK21*10000+AF21</f>
-        <v>0</v>
+        <v>9902</v>
       </c>
       <c r="AI21" s="58">
         <f>AF21-AG21</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ21" s="58">
         <f>(AI21-AI25)/AI24</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AK21" s="58">
         <f>AC21*3+AD21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="58">
         <f>AP21/AP24*1000+AQ21/AQ24*100+AT21/AT24*10+AR21/AR24</f>
@@ -32658,7 +32726,7 @@
       </c>
       <c r="AN21" s="59">
         <f>1000*AK21/AK24+100*AJ21+10*AF21/AF24+1*AL21/AL24+AM21</f>
-        <v>3.7350000000000003E-4</v>
+        <v>167.85751635714286</v>
       </c>
       <c r="AO21" s="60" t="str">
         <f>IF(SUM(AC20:AE23)=12,J22,INDEX(T,75,lang))</f>
@@ -32713,7 +32781,7 @@
       <c r="BS21" s="25"/>
       <c r="BT21" s="25"/>
     </row>
-    <row r="22" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>16</v>
       </c>
@@ -32733,27 +32801,31 @@
         <f>AB52</f>
         <v>Colombia</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="23">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24">
+        <v>2</v>
+      </c>
       <c r="H22" s="67" t="str">
         <f>AB53</f>
         <v>Japan</v>
       </c>
       <c r="J22" s="72" t="str">
         <f>VLOOKUP(2,AA20:AK23,2,FALSE)</f>
-        <v>Peru</v>
+        <v>Denmark</v>
       </c>
       <c r="K22" s="27">
         <f>L22+M22+N22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" s="27">
         <f>VLOOKUP(2,AA20:AK23,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="27">
         <f>VLOOKUP(2,AA20:AK23,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="27">
         <f>VLOOKUP(2,AA20:AK23,5,FALSE)</f>
@@ -32761,11 +32833,11 @@
       </c>
       <c r="O22" s="27" t="str">
         <f>VLOOKUP(2,AA20:AK23,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA20:AK23,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 1</v>
       </c>
       <c r="P22" s="73">
         <f>L22*3+M22</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" s="58">
         <f>DATE(2018,6,19)+TIME(1,0,0)+gmt_delta</f>
@@ -32773,11 +32845,11 @@
       </c>
       <c r="S22" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Colombia_lose</v>
       </c>
       <c r="T22" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Japan_win</v>
       </c>
       <c r="U22" s="59">
         <f t="shared" si="4"/>
@@ -32795,13 +32867,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="58" t="str">
+      <c r="Y22" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA22" s="58">
         <f>COUNTIF(AN20:AN23,CONCATENATE("&gt;=",AN22))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB22" s="59" t="str">
         <f>VLOOKUP("Peru",T,lang,FALSE)</f>
@@ -32817,7 +32889,7 @@
       </c>
       <c r="AE22" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB22 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" s="58">
         <f>SUMIF($E$7:$E$54,$AB22,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB22,$G$7:$G$54)</f>
@@ -32825,15 +32897,15 @@
       </c>
       <c r="AG22" s="58">
         <f>SUMIF($E$7:$E$54,$AB22,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB22,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH22" s="58">
         <f>(AF22-AG22)*100+AK22*10000+AF22</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AI22" s="58">
         <f>AF22-AG22</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ22" s="58">
         <f>(AI22-AI25)/AI24</f>
@@ -32906,7 +32978,7 @@
       <c r="BS22" s="25"/>
       <c r="BT22" s="35"/>
     </row>
-    <row r="23" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>17</v>
       </c>
@@ -32926,19 +32998,23 @@
         <f>AB8</f>
         <v>Russia</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
       <c r="H23" s="67" t="str">
         <f>AB10</f>
         <v>Egypt</v>
       </c>
       <c r="J23" s="72" t="str">
         <f>VLOOKUP(3,AA20:AK23,2,FALSE)</f>
-        <v>Denmark</v>
+        <v>Australia</v>
       </c>
       <c r="K23" s="27">
         <f>L23+M23+N23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="27">
         <f>VLOOKUP(3,AA20:AK23,3,FALSE)</f>
@@ -32946,19 +33022,19 @@
       </c>
       <c r="M23" s="27">
         <f>VLOOKUP(3,AA20:AK23,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="27">
         <f>VLOOKUP(3,AA20:AK23,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="27" t="str">
         <f>VLOOKUP(3,AA20:AK23,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA20:AK23,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 3</v>
       </c>
       <c r="P23" s="73">
         <f>L23*3+M23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="58">
         <f>DATE(2018,6,19)+TIME(7,0,0)+gmt_delta</f>
@@ -32966,11 +33042,11 @@
       </c>
       <c r="S23" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Russia_win</v>
       </c>
       <c r="T23" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Egypt_lose</v>
       </c>
       <c r="U23" s="59">
         <f t="shared" si="4"/>
@@ -32988,13 +33064,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="58" t="str">
+      <c r="Y23" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA23" s="58">
         <f>COUNTIF(AN20:AN23,CONCATENATE("&gt;=",AN23))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="59" t="str">
         <f>VLOOKUP("Denmark",T,lang,FALSE)</f>
@@ -33002,11 +33078,11 @@
       </c>
       <c r="AC23" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB23 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB23 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB23 &amp; "_lose")</f>
@@ -33014,27 +33090,27 @@
       </c>
       <c r="AF23" s="58">
         <f>SUMIF($E$7:$E$54,$AB23,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB23,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23" s="58">
         <f>SUMIF($E$7:$E$54,$AB23,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB23,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="58">
         <f>(AF23-AG23)*100+AK23*10000+AF23</f>
-        <v>0</v>
+        <v>40102</v>
       </c>
       <c r="AI23" s="58">
         <f>AF23-AG23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="58">
         <f>(AI23-AI25)/AI24</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AK23" s="58">
         <f>AC23*3+AD23</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL23" s="58">
         <f>AP23/AP24*1000+AQ23/AQ24*100+AT23/AT24*10+AR23/AR24</f>
@@ -33046,7 +33122,7 @@
       </c>
       <c r="AN23" s="59">
         <f>1000*AK23/AK24+100*AJ23+10*AF23/AF24+1*AL23/AL24+AM23</f>
-        <v>5.4949999999999997E-4</v>
+        <v>636.42912092857148</v>
       </c>
       <c r="AP23" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB23&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB23&amp;"_win")*($U$7:$U$54))</f>
@@ -33099,7 +33175,7 @@
       <c r="BS23" s="29"/>
       <c r="BT23" s="30"/>
     </row>
-    <row r="24" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>18</v>
       </c>
@@ -33119,19 +33195,23 @@
         <f>AB11</f>
         <v>Uruguay</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0</v>
+      </c>
       <c r="H24" s="67" t="str">
         <f>AB9</f>
         <v>Saudi Arabia</v>
       </c>
       <c r="J24" s="74" t="str">
         <f>VLOOKUP(4,AA20:AK23,2,FALSE)</f>
-        <v>Australia</v>
+        <v>Peru</v>
       </c>
       <c r="K24" s="75">
         <f>L24+M24+N24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="75">
         <f>VLOOKUP(4,AA20:AK23,3,FALSE)</f>
@@ -33143,11 +33223,11 @@
       </c>
       <c r="N24" s="75">
         <f>VLOOKUP(4,AA20:AK23,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="75" t="str">
         <f>VLOOKUP(4,AA20:AK23,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA20:AK23,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 2</v>
       </c>
       <c r="P24" s="76">
         <f>L24*3+M24</f>
@@ -33159,11 +33239,11 @@
       </c>
       <c r="S24" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Uruguay_win</v>
       </c>
       <c r="T24" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Saudi Arabia_lose</v>
       </c>
       <c r="U24" s="59">
         <f t="shared" si="4"/>
@@ -33181,41 +33261,41 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="58" t="str">
+      <c r="Y24" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC24" s="58">
         <f t="shared" ref="AC24:AL24" si="12">MAX(AC20:AC23)-MIN(AC20:AC23)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD24" s="58">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" s="58">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF24" s="58">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG24" s="58">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH24" s="58">
         <f>MAX(AH20:AH23)-AH25+1</f>
-        <v>1</v>
+        <v>60404</v>
       </c>
       <c r="AI24" s="58">
         <f>MAX(AI20:AI23)-AI25+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK24" s="58">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL24" s="58">
         <f t="shared" si="12"/>
@@ -33266,7 +33346,7 @@
       <c r="BS24" s="32"/>
       <c r="BT24" s="33"/>
     </row>
-    <row r="25" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>19</v>
       </c>
@@ -33286,8 +33366,12 @@
         <f>AB14</f>
         <v>Portugal</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
       <c r="H25" s="67" t="str">
         <f>AB16</f>
         <v>Morocco</v>
@@ -33305,11 +33389,11 @@
       </c>
       <c r="S25" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Portugal_win</v>
       </c>
       <c r="T25" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Morocco_lose</v>
       </c>
       <c r="U25" s="59">
         <f t="shared" si="4"/>
@@ -33327,17 +33411,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="58" t="str">
+      <c r="Y25" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AH25" s="58">
         <f>MIN(AH20:AH23)</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AI25" s="58">
         <f>MIN(AI20:AI23)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AY25" s="25" t="str">
         <f>INDEX(T,24+MONTH(R60),lang) &amp; " " &amp; DAY(R60) &amp; ", " &amp; YEAR(R60) &amp; "   " &amp; (IF(HOUR(R60)&lt;10,0,"")&amp;HOUR(R60)) &amp; ":" &amp;  (IF(MINUTE(R60)&lt;10,0,"")&amp;MINUTE(R60))</f>
@@ -33365,7 +33449,7 @@
       <c r="BS25" s="25"/>
       <c r="BT25" s="25"/>
     </row>
-    <row r="26" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>20</v>
       </c>
@@ -33385,8 +33469,12 @@
         <f>AB17</f>
         <v>Iran</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="23">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1</v>
+      </c>
       <c r="H26" s="67" t="str">
         <f>AB15</f>
         <v>Spain</v>
@@ -33425,11 +33513,11 @@
       </c>
       <c r="S26" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Iran_lose</v>
       </c>
       <c r="T26" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Spain_win</v>
       </c>
       <c r="U26" s="59">
         <f t="shared" si="4"/>
@@ -33447,13 +33535,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="58" t="str">
+      <c r="Y26" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA26" s="58">
         <f>COUNTIF(AN26:AN29,CONCATENATE("&gt;=",AN26))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB26" s="59" t="str">
         <f>VLOOKUP("Argentina",T,lang,FALSE)</f>
@@ -33465,27 +33553,27 @@
       </c>
       <c r="AD26" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB26 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB26 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="58">
         <f>SUMIF($E$7:$E$54,$AB26,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB26,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="58">
         <f>SUMIF($E$7:$E$54,$AB26,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB26,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH26" s="58">
         <f>(AF26-AG26)*100+AK26*10000+AF26</f>
-        <v>0</v>
+        <v>9701</v>
       </c>
       <c r="AI26" s="58">
         <f>AF26-AG26</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ26" s="58">
         <f>(AI26-AI31)/AI30</f>
@@ -33493,7 +33581,7 @@
       </c>
       <c r="AK26" s="58">
         <f>AC26*3+AD26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="58">
         <f>AP26/AP30*1000+AQ26/AQ30*100+AT26/AT30*10+AR26/AR30</f>
@@ -33505,7 +33593,7 @@
       </c>
       <c r="AN26" s="59">
         <f>1000*AK26/AK30+100*AJ26+10*AF26/AF30+1*AL26/AL30+AM26</f>
-        <v>6.7400000000000001E-4</v>
+        <v>168.66734066666666</v>
       </c>
       <c r="AO26" s="60" t="str">
         <f>IF(SUM(AC26:AE29)=12,J27,INDEX(T,76,lang))</f>
@@ -33559,7 +33647,7 @@
       <c r="BS26" s="25"/>
       <c r="BT26" s="25"/>
     </row>
-    <row r="27" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>21</v>
       </c>
@@ -33579,23 +33667,27 @@
         <f>AB20</f>
         <v>France</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
       <c r="H27" s="67" t="str">
         <f>AB22</f>
         <v>Peru</v>
       </c>
       <c r="J27" s="69" t="str">
         <f>VLOOKUP(1,AA26:AK29,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Croatia</v>
       </c>
       <c r="K27" s="70">
         <f>L27+M27+N27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="70">
         <f>VLOOKUP(1,AA26:AK29,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="70">
         <f>VLOOKUP(1,AA26:AK29,4,FALSE)</f>
@@ -33607,11 +33699,11 @@
       </c>
       <c r="O27" s="70" t="str">
         <f>VLOOKUP(1,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA26:AK29,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>5 - 0</v>
       </c>
       <c r="P27" s="71">
         <f>L27*3+M27</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R27" s="58">
         <f>DATE(2018,6,21)+TIME(4,0,0)+gmt_delta</f>
@@ -33619,11 +33711,11 @@
       </c>
       <c r="S27" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>France_win</v>
       </c>
       <c r="T27" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Peru_lose</v>
       </c>
       <c r="U27" s="59">
         <f t="shared" si="4"/>
@@ -33641,9 +33733,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="58" t="str">
+      <c r="Y27" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA27" s="58">
         <f>COUNTIF(AN26:AN29,CONCATENATE("&gt;=",AN27))</f>
@@ -33659,35 +33751,35 @@
       </c>
       <c r="AD27" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB27 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB27 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="58">
         <f>SUMIF($E$7:$E$54,$AB27,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB27,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="58">
         <f>SUMIF($E$7:$E$54,$AB27,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB27,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH27" s="58">
         <f>(AF27-AG27)*100+AK27*10000+AF27</f>
-        <v>0</v>
+        <v>9801</v>
       </c>
       <c r="AI27" s="58">
         <f>AF27-AG27</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ27" s="58">
         <f>(AI27-AI31)/AI30</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AK27" s="58">
         <f>AC27*3+AD27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="58">
         <f>AP27/AP30*1000+AQ27/AQ30*100+AT27/AT30*10+AR27/AR30</f>
@@ -33699,7 +33791,7 @@
       </c>
       <c r="AN27" s="59">
         <f>1000*AK27/AK30+100*AJ27+10*AF27/AF30+1*AL27/AL30+AM27</f>
-        <v>4.55E-4</v>
+        <v>179.77823277777776</v>
       </c>
       <c r="AO27" s="60" t="str">
         <f>IF(SUM(AC26:AE29)=12,J28,INDEX(T,77,lang))</f>
@@ -33754,7 +33846,7 @@
       <c r="BS27" s="25"/>
       <c r="BT27" s="25"/>
     </row>
-    <row r="28" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>22</v>
       </c>
@@ -33774,23 +33866,27 @@
         <f>AB23</f>
         <v>Denmark</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="23">
+        <v>1</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1</v>
+      </c>
       <c r="H28" s="67" t="str">
         <f>AB21</f>
         <v>Australia</v>
       </c>
       <c r="J28" s="72" t="str">
         <f>VLOOKUP(2,AA26:AK29,2,FALSE)</f>
-        <v>Croatia</v>
+        <v>Nigeria</v>
       </c>
       <c r="K28" s="27">
         <f>L28+M28+N28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="27">
         <f>VLOOKUP(2,AA26:AK29,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="27">
         <f>VLOOKUP(2,AA26:AK29,4,FALSE)</f>
@@ -33798,15 +33894,15 @@
       </c>
       <c r="N28" s="27">
         <f>VLOOKUP(2,AA26:AK29,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="27" t="str">
         <f>VLOOKUP(2,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA26:AK29,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 2</v>
       </c>
       <c r="P28" s="73">
         <f>L28*3+M28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R28" s="58">
         <f>DATE(2018,6,21)+TIME(1,0,0)+gmt_delta</f>
@@ -33814,11 +33910,11 @@
       </c>
       <c r="S28" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Denmark_draw</v>
       </c>
       <c r="T28" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Australia_draw</v>
       </c>
       <c r="U28" s="59">
         <f t="shared" si="4"/>
@@ -33836,13 +33932,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="58" t="str">
+      <c r="Y28" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA28" s="58">
         <f>COUNTIF(AN26:AN29,CONCATENATE("&gt;=",AN28))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="59" t="str">
         <f>VLOOKUP("Croatia",T,lang,FALSE)</f>
@@ -33850,7 +33946,7 @@
       </c>
       <c r="AC28" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB28 &amp; "_win")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB28 &amp; "_draw")</f>
@@ -33862,7 +33958,7 @@
       </c>
       <c r="AF28" s="58">
         <f>SUMIF($E$7:$E$54,$AB28,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB28,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG28" s="58">
         <f>SUMIF($E$7:$E$54,$AB28,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB28,$F$7:$F$54)</f>
@@ -33870,19 +33966,19 @@
       </c>
       <c r="AH28" s="58">
         <f>(AF28-AG28)*100+AK28*10000+AF28</f>
-        <v>0</v>
+        <v>60505</v>
       </c>
       <c r="AI28" s="58">
         <f>AF28-AG28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ28" s="58">
         <f>(AI28-AI31)/AI30</f>
-        <v>0</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AK28" s="58">
         <f>AC28*3+AD28</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL28" s="58">
         <f>AP28/AP30*1000+AQ28/AQ30*100+AT28/AT30*10+AR28/AR30</f>
@@ -33894,7 +33990,7 @@
       </c>
       <c r="AN28" s="59">
         <f>1000*AK28/AK30+100*AJ28+10*AF28/AF30+1*AL28/AL30+AM28</f>
-        <v>5.0900000000000001E-4</v>
+        <v>1098.8893978888889</v>
       </c>
       <c r="AP28" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB28&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB28&amp;"_win")*($U$7:$U$54))</f>
@@ -33944,7 +34040,7 @@
       <c r="BS28" s="25"/>
       <c r="BT28" s="25"/>
     </row>
-    <row r="29" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>23</v>
       </c>
@@ -33964,8 +34060,12 @@
         <f>AB26</f>
         <v>Argentina</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <v>3</v>
+      </c>
       <c r="H29" s="67" t="str">
         <f>AB28</f>
         <v>Croatia</v>
@@ -33976,7 +34076,7 @@
       </c>
       <c r="K29" s="27">
         <f>L29+M29+N29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="27">
         <f>VLOOKUP(3,AA26:AK29,3,FALSE)</f>
@@ -33984,19 +34084,19 @@
       </c>
       <c r="M29" s="27">
         <f>VLOOKUP(3,AA26:AK29,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="27">
         <f>VLOOKUP(3,AA26:AK29,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="27" t="str">
         <f>VLOOKUP(3,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA26:AK29,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 3</v>
       </c>
       <c r="P29" s="73">
         <f>L29*3+M29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="58">
         <f>DATE(2018,6,21)+TIME(7,0,0)+gmt_delta</f>
@@ -34004,11 +34104,11 @@
       </c>
       <c r="S29" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Argentina_lose</v>
       </c>
       <c r="T29" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Croatia_win</v>
       </c>
       <c r="U29" s="59">
         <f t="shared" si="4"/>
@@ -34026,13 +34126,13 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y29" s="58" t="str">
+      <c r="Y29" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA29" s="58">
         <f>COUNTIF(AN26:AN29,CONCATENATE("&gt;=",AN29))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="59" t="str">
         <f>VLOOKUP("Nigeria",T,lang,FALSE)</f>
@@ -34040,7 +34140,7 @@
       </c>
       <c r="AC29" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB29 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB29 &amp; "_draw")</f>
@@ -34048,19 +34148,19 @@
       </c>
       <c r="AE29" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB29 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="58">
         <f>SUMIF($E$7:$E$54,$AB29,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB29,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG29" s="58">
         <f>SUMIF($E$7:$E$54,$AB29,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB29,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="58">
         <f>(AF29-AG29)*100+AK29*10000+AF29</f>
-        <v>0</v>
+        <v>30002</v>
       </c>
       <c r="AI29" s="58">
         <f>AF29-AG29</f>
@@ -34068,11 +34168,11 @@
       </c>
       <c r="AJ29" s="58">
         <f>(AI29-AI31)/AI30</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AK29" s="58">
         <f>AC29*3+AD29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL29" s="58">
         <f>AP29/AP30*1000+AQ29/AQ30*100+AT29/AT30*10+AR29/AR30</f>
@@ -34084,7 +34184,7 @@
       </c>
       <c r="AN29" s="59">
         <f>1000*AK29/AK30+100*AJ29+10*AF29/AF30+1*AL29/AL30+AM29</f>
-        <v>3.2000000000000003E-4</v>
+        <v>537.33365333333336</v>
       </c>
       <c r="AP29" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB29&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB29&amp;"_win")*($U$7:$U$54))</f>
@@ -34135,7 +34235,7 @@
       <c r="BS29" s="25"/>
       <c r="BT29" s="25"/>
     </row>
-    <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>24</v>
       </c>
@@ -34155,19 +34255,23 @@
         <f>AB29</f>
         <v>Nigeria</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="23">
+        <v>2</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
       <c r="H30" s="67" t="str">
         <f>AB27</f>
         <v>Iceland</v>
       </c>
       <c r="J30" s="74" t="str">
         <f>VLOOKUP(4,AA26:AK29,2,FALSE)</f>
-        <v>Nigeria</v>
+        <v>Argentina</v>
       </c>
       <c r="K30" s="75">
         <f>L30+M30+N30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="75">
         <f>VLOOKUP(4,AA26:AK29,3,FALSE)</f>
@@ -34175,19 +34279,19 @@
       </c>
       <c r="M30" s="75">
         <f>VLOOKUP(4,AA26:AK29,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="75">
         <f>VLOOKUP(4,AA26:AK29,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="75" t="str">
         <f>VLOOKUP(4,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA26:AK29,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 4</v>
       </c>
       <c r="P30" s="76">
         <f>L30*3+M30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="58">
         <f>DATE(2018,6,22)+TIME(4,0,0)+gmt_delta</f>
@@ -34195,11 +34299,11 @@
       </c>
       <c r="S30" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Nigeria_win</v>
       </c>
       <c r="T30" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Iceland_lose</v>
       </c>
       <c r="U30" s="59">
         <f t="shared" si="4"/>
@@ -34217,41 +34321,41 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="58" t="str">
+      <c r="Y30" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC30" s="58">
         <f t="shared" ref="AC30:AL30" si="13">MAX(AC26:AC29)-MIN(AC26:AC29)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD30" s="58">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="58">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF30" s="58">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG30" s="58">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH30" s="58">
         <f>MAX(AH26:AH29)-AH31+1</f>
-        <v>1</v>
+        <v>50805</v>
       </c>
       <c r="AI30" s="58">
         <f>MAX(AI26:AI29)-AI31+1</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK30" s="58">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL30" s="58">
         <f t="shared" si="13"/>
@@ -34305,7 +34409,7 @@
       <c r="BS30" s="25"/>
       <c r="BT30" s="25"/>
     </row>
-    <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>25</v>
       </c>
@@ -34325,8 +34429,12 @@
         <f>AB32</f>
         <v>Brazil</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="23">
+        <v>2</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
       <c r="H31" s="67" t="str">
         <f>AB34</f>
         <v>Costa Rica</v>
@@ -34337,11 +34445,11 @@
       </c>
       <c r="S31" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Brazil_win</v>
       </c>
       <c r="T31" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Costa Rica_lose</v>
       </c>
       <c r="U31" s="59">
         <f t="shared" si="4"/>
@@ -34359,17 +34467,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="58" t="str">
+      <c r="Y31" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AH31" s="58">
         <f>MIN(AH26:AH29)</f>
-        <v>0</v>
+        <v>9701</v>
       </c>
       <c r="AI31" s="58">
         <f>MIN(AI26:AI29)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AY31" s="119"/>
       <c r="AZ31" s="31" t="str">
@@ -34403,7 +34511,7 @@
       <c r="BS31" s="125"/>
       <c r="BT31" s="126"/>
     </row>
-    <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>26</v>
       </c>
@@ -34423,8 +34531,12 @@
         <f>AB35</f>
         <v>Serbia</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24">
+        <v>2</v>
+      </c>
       <c r="H32" s="67" t="str">
         <f>AB33</f>
         <v>Switzerland</v>
@@ -34463,11 +34575,11 @@
       </c>
       <c r="S32" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Serbia_lose</v>
       </c>
       <c r="T32" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Switzerland_win</v>
       </c>
       <c r="U32" s="59">
         <f t="shared" si="4"/>
@@ -34485,9 +34597,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="58" t="str">
+      <c r="Y32" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA32" s="58">
         <f>COUNTIF(AN32:AN35,CONCATENATE("&gt;=",AN32))</f>
@@ -34499,11 +34611,11 @@
       </c>
       <c r="AC32" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB32 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB32 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB32 &amp; "_lose")</f>
@@ -34511,27 +34623,27 @@
       </c>
       <c r="AF32" s="58">
         <f>SUMIF($E$7:$E$54,$AB32,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB32,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG32" s="58">
         <f>SUMIF($E$7:$E$54,$AB32,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB32,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="58">
         <f>(AF32-AG32)*100+AK32*10000+AF32</f>
-        <v>0</v>
+        <v>40203</v>
       </c>
       <c r="AI32" s="58">
         <f>AF32-AG32</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="58">
         <f>(AI32-AI37)/AI36</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AK32" s="58">
         <f>AC32*3+AD32</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL32" s="58">
         <f>AP32/AP36*1000+AQ32/AQ36*100+AT32/AT36*10+AR32/AR36</f>
@@ -34543,7 +34655,7 @@
       </c>
       <c r="AN32" s="59">
         <f>1000*AK32/AK36+100*AJ32+10*AF32/AF36+1*AL32/AL36+AM32</f>
-        <v>7.4149999999999997E-4</v>
+        <v>890.83407483333337</v>
       </c>
       <c r="AO32" s="60" t="str">
         <f>IF(SUM(AC32:AE35)=12,J33,INDEX(T,78,lang))</f>
@@ -34597,7 +34709,7 @@
       <c r="BS32" s="128"/>
       <c r="BT32" s="129"/>
     </row>
-    <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>27</v>
       </c>
@@ -34617,8 +34729,12 @@
         <f>AB38</f>
         <v>Germany</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="F33" s="23">
+        <v>2</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1</v>
+      </c>
       <c r="H33" s="67" t="str">
         <f>AB40</f>
         <v>Sweden</v>
@@ -34629,15 +34745,15 @@
       </c>
       <c r="K33" s="70">
         <f>L33+M33+N33</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" s="70">
         <f>VLOOKUP(1,AA32:AK35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="70">
         <f>VLOOKUP(1,AA32:AK35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="70">
         <f>VLOOKUP(1,AA32:AK35,5,FALSE)</f>
@@ -34645,11 +34761,11 @@
       </c>
       <c r="O33" s="70" t="str">
         <f>VLOOKUP(1,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA32:AK35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>3 - 1</v>
       </c>
       <c r="P33" s="71">
         <f>L33*3+M33</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R33" s="58">
         <f>DATE(2018,6,23)+TIME(7,0,0)+gmt_delta</f>
@@ -34657,31 +34773,31 @@
       </c>
       <c r="S33" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Germany_win</v>
       </c>
       <c r="T33" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Sweden_lose</v>
       </c>
       <c r="U33" s="59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33" s="58">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="58" t="str">
+      <c r="Y33" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA33" s="58">
         <f>COUNTIF(AN32:AN35,CONCATENATE("&gt;=",AN33))</f>
@@ -34693,11 +34809,11 @@
       </c>
       <c r="AC33" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB33 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB33 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB33 &amp; "_lose")</f>
@@ -34705,27 +34821,27 @@
       </c>
       <c r="AF33" s="58">
         <f>SUMIF($E$7:$E$54,$AB33,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB33,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG33" s="58">
         <f>SUMIF($E$7:$E$54,$AB33,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB33,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH33" s="58">
         <f>(AF33-AG33)*100+AK33*10000+AF33</f>
-        <v>0</v>
+        <v>40103</v>
       </c>
       <c r="AI33" s="58">
         <f>AF33-AG33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="58">
         <f>(AI33-AI37)/AI36</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AK33" s="58">
         <f>AC33*3+AD33</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL33" s="58">
         <f>AP33/AP36*1000+AQ33/AQ36*100+AT33/AT36*10+AR33/AR36</f>
@@ -34737,7 +34853,7 @@
       </c>
       <c r="AN33" s="59">
         <f>1000*AK33/AK36+100*AJ33+10*AF33/AF36+1*AL33/AL36+AM33</f>
-        <v>5.9500000000000004E-4</v>
+        <v>874.1672616666666</v>
       </c>
       <c r="AO33" s="60" t="str">
         <f>IF(SUM(AC32:AE35)=12,J34,INDEX(T,79,lang))</f>
@@ -34792,7 +34908,7 @@
       <c r="BS33" s="25"/>
       <c r="BT33" s="25"/>
     </row>
-    <row r="34" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>28</v>
       </c>
@@ -34812,8 +34928,12 @@
         <f>AB41</f>
         <v>Korea Republic</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="23">
+        <v>1</v>
+      </c>
+      <c r="G34" s="24">
+        <v>2</v>
+      </c>
       <c r="H34" s="67" t="str">
         <f>AB39</f>
         <v>Mexico</v>
@@ -34824,15 +34944,15 @@
       </c>
       <c r="K34" s="27">
         <f>L34+M34+N34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="27">
         <f>VLOOKUP(2,AA32:AK35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="27">
         <f>VLOOKUP(2,AA32:AK35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="27">
         <f>VLOOKUP(2,AA32:AK35,5,FALSE)</f>
@@ -34840,11 +34960,11 @@
       </c>
       <c r="O34" s="27" t="str">
         <f>VLOOKUP(2,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA32:AK35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>3 - 2</v>
       </c>
       <c r="P34" s="73">
         <f>L34*3+M34</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R34" s="58">
         <f>DATE(2018,6,23)+TIME(4,0,0)+gmt_delta</f>
@@ -34852,11 +34972,11 @@
       </c>
       <c r="S34" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Korea Republic_lose</v>
       </c>
       <c r="T34" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Mexico_win</v>
       </c>
       <c r="U34" s="59">
         <f t="shared" si="4"/>
@@ -34874,13 +34994,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="58" t="str">
+      <c r="Y34" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA34" s="58">
         <f>COUNTIF(AN32:AN35,CONCATENATE("&gt;=",AN34))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="59" t="str">
         <f>VLOOKUP("Costa Rica",T,lang,FALSE)</f>
@@ -34896,7 +35016,7 @@
       </c>
       <c r="AE34" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB34 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF34" s="58">
         <f>SUMIF($E$7:$E$54,$AB34,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB34,$G$7:$G$54)</f>
@@ -34904,15 +35024,15 @@
       </c>
       <c r="AG34" s="58">
         <f>SUMIF($E$7:$E$54,$AB34,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB34,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH34" s="58">
         <f>(AF34-AG34)*100+AK34*10000+AF34</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AI34" s="58">
         <f>AF34-AG34</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ34" s="58">
         <f>(AI34-AI37)/AI36</f>
@@ -34985,7 +35105,7 @@
       <c r="BS34" s="25"/>
       <c r="BT34" s="35"/>
     </row>
-    <row r="35" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>29</v>
       </c>
@@ -35005,23 +35125,27 @@
         <f>AB44</f>
         <v>Belgium</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="F35" s="23">
+        <v>5</v>
+      </c>
+      <c r="G35" s="24">
+        <v>2</v>
+      </c>
       <c r="H35" s="67" t="str">
         <f>AB46</f>
         <v>Tunisia</v>
       </c>
       <c r="J35" s="72" t="str">
         <f>VLOOKUP(3,AA32:AK35,2,FALSE)</f>
-        <v>Costa Rica</v>
+        <v>Serbia</v>
       </c>
       <c r="K35" s="27">
         <f>L35+M35+N35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="27">
         <f>VLOOKUP(3,AA32:AK35,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="27">
         <f>VLOOKUP(3,AA32:AK35,4,FALSE)</f>
@@ -35029,15 +35153,15 @@
       </c>
       <c r="N35" s="27">
         <f>VLOOKUP(3,AA32:AK35,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="27" t="str">
         <f>VLOOKUP(3,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA32:AK35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 2</v>
       </c>
       <c r="P35" s="73">
         <f>L35*3+M35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" s="58">
         <f>DATE(2018,6,23)+TIME(1,0,0)+gmt_delta</f>
@@ -35045,11 +35169,11 @@
       </c>
       <c r="S35" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Belgium_win</v>
       </c>
       <c r="T35" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Tunisia_lose</v>
       </c>
       <c r="U35" s="59">
         <f t="shared" si="4"/>
@@ -35067,13 +35191,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="58" t="str">
+      <c r="Y35" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA35" s="58">
         <f>COUNTIF(AN32:AN35,CONCATENATE("&gt;=",AN35))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB35" s="59" t="str">
         <f>VLOOKUP("Serbia",T,lang,FALSE)</f>
@@ -35081,7 +35205,7 @@
       </c>
       <c r="AC35" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB35 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB35 &amp; "_draw")</f>
@@ -35089,19 +35213,19 @@
       </c>
       <c r="AE35" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB35 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="58">
         <f>SUMIF($E$7:$E$54,$AB35,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB35,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG35" s="58">
         <f>SUMIF($E$7:$E$54,$AB35,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB35,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH35" s="58">
         <f>(AF35-AG35)*100+AK35*10000+AF35</f>
-        <v>0</v>
+        <v>30002</v>
       </c>
       <c r="AI35" s="58">
         <f>AF35-AG35</f>
@@ -35109,11 +35233,11 @@
       </c>
       <c r="AJ35" s="58">
         <f>(AI35-AI37)/AI36</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK35" s="58">
         <f>AC35*3+AD35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL35" s="58">
         <f>AP35/AP36*1000+AQ35/AQ36*100+AT35/AT36*10+AR35/AR36</f>
@@ -35125,7 +35249,7 @@
       </c>
       <c r="AN35" s="59">
         <f>1000*AK35/AK36+100*AJ35+10*AF35/AF36+1*AL35/AL36+AM35</f>
-        <v>3.7800000000000003E-4</v>
+        <v>655.00037799999996</v>
       </c>
       <c r="AP35" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB35&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB35&amp;"_win")*($U$7:$U$54))</f>
@@ -35181,7 +35305,7 @@
       <c r="BS35" s="29"/>
       <c r="BT35" s="30"/>
     </row>
-    <row r="36" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>30</v>
       </c>
@@ -35201,19 +35325,23 @@
         <f>AB47</f>
         <v>England</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="F36" s="23">
+        <v>6</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1</v>
+      </c>
       <c r="H36" s="67" t="str">
         <f>AB45</f>
         <v>Panama</v>
       </c>
       <c r="J36" s="74" t="str">
         <f>VLOOKUP(4,AA32:AK35,2,FALSE)</f>
-        <v>Serbia</v>
+        <v>Costa Rica</v>
       </c>
       <c r="K36" s="75">
         <f>L36+M36+N36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="75">
         <f>VLOOKUP(4,AA32:AK35,3,FALSE)</f>
@@ -35225,11 +35353,11 @@
       </c>
       <c r="N36" s="75">
         <f>VLOOKUP(4,AA32:AK35,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" s="75" t="str">
         <f>VLOOKUP(4,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA32:AK35,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 3</v>
       </c>
       <c r="P36" s="76">
         <f>L36*3+M36</f>
@@ -35241,11 +35369,11 @@
       </c>
       <c r="S36" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>England_win</v>
       </c>
       <c r="T36" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Panama_lose</v>
       </c>
       <c r="U36" s="59">
         <f t="shared" si="4"/>
@@ -35263,41 +35391,41 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="58" t="str">
+      <c r="Y36" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC36" s="58">
         <f t="shared" ref="AC36:AL36" si="14">MAX(AC32:AC35)-MIN(AC32:AC35)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD36" s="58">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="58">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF36" s="58">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG36" s="58">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH36" s="58">
         <f>MAX(AH32:AH35)-AH37+1</f>
-        <v>1</v>
+        <v>40504</v>
       </c>
       <c r="AI36" s="58">
         <f>MAX(AI32:AI35)-AI37+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AK36" s="58">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL36" s="58">
         <f t="shared" si="14"/>
@@ -35354,7 +35482,7 @@
       <c r="BS36" s="32"/>
       <c r="BT36" s="33"/>
     </row>
-    <row r="37" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>31</v>
       </c>
@@ -35414,11 +35542,11 @@
       </c>
       <c r="AH37" s="58">
         <f>MIN(AH32:AH35)</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AI37" s="58">
         <f>MIN(AI32:AI35)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AY37" s="25" t="str">
         <f>INDEX(T,24+MONTH(R65),lang) &amp; " " &amp; DAY(R65) &amp; ", " &amp; YEAR(R65) &amp; "   " &amp;  (IF(HOUR(R65)&lt;10,0,"")&amp;HOUR(R65)) &amp; ":" &amp;  (IF(MINUTE(R65)&lt;10,0,"")&amp;MINUTE(R65))</f>
@@ -35449,7 +35577,7 @@
       <c r="BS37" s="25"/>
       <c r="BT37" s="25"/>
     </row>
-    <row r="38" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>32</v>
       </c>
@@ -35469,8 +35597,12 @@
         <f>AB53</f>
         <v>Japan</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="F38" s="23">
+        <v>2</v>
+      </c>
+      <c r="G38" s="24">
+        <v>2</v>
+      </c>
       <c r="H38" s="67" t="str">
         <f>AB51</f>
         <v>Senegal</v>
@@ -35509,35 +35641,35 @@
       </c>
       <c r="S38" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Japan_draw</v>
       </c>
       <c r="T38" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Senegal_draw</v>
       </c>
       <c r="U38" s="59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W38" s="58">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X38" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="58" t="str">
+      <c r="Y38" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA38" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN38))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB38" s="59" t="str">
         <f>VLOOKUP("Germany",T,lang,FALSE)</f>
@@ -35545,7 +35677,7 @@
       </c>
       <c r="AC38" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB38 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB38 &amp; "_draw")</f>
@@ -35553,19 +35685,19 @@
       </c>
       <c r="AE38" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB38 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="58">
         <f>SUMIF($E$7:$E$54,$AB38,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB38,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="58">
         <f>SUMIF($E$7:$E$54,$AB38,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB38,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="58">
         <f>(AF38-AG38)*100+AK38*10000+AF38</f>
-        <v>0</v>
+        <v>30002</v>
       </c>
       <c r="AI38" s="58">
         <f>AF38-AG38</f>
@@ -35573,15 +35705,15 @@
       </c>
       <c r="AJ38" s="58">
         <f>(AI38-AI43)/AI42</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK38" s="58">
         <f>AC38*3+AD38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL38" s="58">
         <f>AP38/AP42*1000+AQ38/AQ42*100+AT38/AT42*10+AR38/AR42</f>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="AM38" s="58">
         <f>VLOOKUP(AB38,db_fifarank,2,FALSE)/2000000</f>
@@ -35589,7 +35721,7 @@
       </c>
       <c r="AN38" s="59">
         <f>1000*AK38/AK42+100*AJ38+10*AF38/AF42+1*AL38/AL42+AM38</f>
-        <v>8.0099999999999995E-4</v>
+        <v>476.23102222234724</v>
       </c>
       <c r="AO38" s="60" t="str">
         <f>IF(SUM(AC38:AE41)=12,J39,INDEX(T,80,lang))</f>
@@ -35597,7 +35729,7 @@
       </c>
       <c r="AP38" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB38&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB38&amp;"_win")*($U$7:$U$54))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB38&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB38&amp;"_draw")*($U$7:$U$54))</f>
@@ -35605,15 +35737,15 @@
       </c>
       <c r="AR38" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB38)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB38)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS38" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB38)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB38)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="62">
         <f>AR38-AS38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38" s="118">
         <v>56</v>
@@ -35639,7 +35771,7 @@
       <c r="BS38" s="25"/>
       <c r="BT38" s="25"/>
     </row>
-    <row r="39" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>33</v>
       </c>
@@ -35667,15 +35799,15 @@
       </c>
       <c r="J39" s="69" t="str">
         <f>VLOOKUP(1,AA38:AK41,2,FALSE)</f>
-        <v>Germany</v>
+        <v>Mexico</v>
       </c>
       <c r="K39" s="70">
         <f>L39+M39+N39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="70">
         <f>VLOOKUP(1,AA38:AK41,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="70">
         <f>VLOOKUP(1,AA38:AK41,4,FALSE)</f>
@@ -35687,11 +35819,11 @@
       </c>
       <c r="O39" s="70" t="str">
         <f>VLOOKUP(1,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA38:AK41,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>3 - 1</v>
       </c>
       <c r="P39" s="71">
         <f>L39*3+M39</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R39" s="58">
         <f>DATE(2018,6,25)+TIME(3,0,0)+gmt_delta</f>
@@ -35727,7 +35859,7 @@
       </c>
       <c r="AA39" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN39))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="59" t="str">
         <f>VLOOKUP("Mexico",T,lang,FALSE)</f>
@@ -35735,7 +35867,7 @@
       </c>
       <c r="AC39" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB39 &amp; "_win")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD39" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB39 &amp; "_draw")</f>
@@ -35747,27 +35879,27 @@
       </c>
       <c r="AF39" s="58">
         <f>SUMIF($E$7:$E$54,$AB39,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB39,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG39" s="58">
         <f>SUMIF($E$7:$E$54,$AB39,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB39,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="58">
         <f>(AF39-AG39)*100+AK39*10000+AF39</f>
-        <v>0</v>
+        <v>60203</v>
       </c>
       <c r="AI39" s="58">
         <f>AF39-AG39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ39" s="58">
         <f>(AI39-AI43)/AI42</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AK39" s="58">
         <f>AC39*3+AD39</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL39" s="58">
         <f>AP39/AP42*1000+AQ39/AQ42*100+AT39/AT42*10+AR39/AR42</f>
@@ -35779,7 +35911,7 @@
       </c>
       <c r="AN39" s="59">
         <f>1000*AK39/AK42+100*AJ39+10*AF39/AF42+1*AL39/AL42+AM39</f>
-        <v>5.1599999999999997E-4</v>
+        <v>947.14337314285706</v>
       </c>
       <c r="AO39" s="60" t="str">
         <f>IF(SUM(AC38:AE41)=12,J40,INDEX(T,81,lang))</f>
@@ -35825,7 +35957,7 @@
       <c r="BS39" s="25"/>
       <c r="BT39" s="25"/>
     </row>
-    <row r="40" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>34</v>
       </c>
@@ -35853,15 +35985,15 @@
       </c>
       <c r="J40" s="72" t="str">
         <f>VLOOKUP(2,AA38:AK41,2,FALSE)</f>
-        <v>Mexico</v>
+        <v>Germany</v>
       </c>
       <c r="K40" s="27">
         <f>L40+M40+N40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="27">
         <f>VLOOKUP(2,AA38:AK41,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="27">
         <f>VLOOKUP(2,AA38:AK41,4,FALSE)</f>
@@ -35869,15 +36001,15 @@
       </c>
       <c r="N40" s="27">
         <f>VLOOKUP(2,AA38:AK41,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="27" t="str">
         <f>VLOOKUP(2,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA38:AK41,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 2</v>
       </c>
       <c r="P40" s="73">
         <f>L40*3+M40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R40" s="58">
         <f>DATE(2018,6,25)+TIME(3,0,0)+gmt_delta</f>
@@ -35921,7 +36053,7 @@
       </c>
       <c r="AC40" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB40 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB40 &amp; "_draw")</f>
@@ -35929,19 +36061,19 @@
       </c>
       <c r="AE40" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB40 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" s="58">
         <f>SUMIF($E$7:$E$54,$AB40,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB40,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG40" s="58">
         <f>SUMIF($E$7:$E$54,$AB40,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB40,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH40" s="58">
         <f>(AF40-AG40)*100+AK40*10000+AF40</f>
-        <v>0</v>
+        <v>30002</v>
       </c>
       <c r="AI40" s="58">
         <f>AF40-AG40</f>
@@ -35949,15 +36081,15 @@
       </c>
       <c r="AJ40" s="58">
         <f>(AI40-AI43)/AI42</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK40" s="58">
         <f>AC40*3+AD40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL40" s="58">
         <f>AP40/AP42*1000+AQ40/AQ42*100+AT40/AT42*10+AR40/AR42</f>
-        <v>0</v>
+        <v>-2.9999999999999996</v>
       </c>
       <c r="AM40" s="58">
         <f>VLOOKUP(AB40,db_fifarank,2,FALSE)/2000000</f>
@@ -35965,7 +36097,7 @@
       </c>
       <c r="AN40" s="59">
         <f>1000*AK40/AK42+100*AJ40+10*AF40/AF42+1*AL40/AL42+AM40</f>
-        <v>4.9899999999999999E-4</v>
+        <v>475.23268872628421</v>
       </c>
       <c r="AP40" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB40&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB40&amp;"_win")*($U$7:$U$54))</f>
@@ -35977,18 +36109,18 @@
       </c>
       <c r="AR40" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB40)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB40)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS40" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB40)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB40)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT40" s="62">
         <f>AR40-AS40</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>35</v>
       </c>
@@ -36020,11 +36152,11 @@
       </c>
       <c r="K41" s="27">
         <f>L41+M41+N41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" s="27">
         <f>VLOOKUP(3,AA38:AK41,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="27">
         <f>VLOOKUP(3,AA38:AK41,4,FALSE)</f>
@@ -36032,15 +36164,15 @@
       </c>
       <c r="N41" s="27">
         <f>VLOOKUP(3,AA38:AK41,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="27" t="str">
         <f>VLOOKUP(3,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA38:AK41,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 2</v>
       </c>
       <c r="P41" s="73">
         <f>L41*3+M41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R41" s="58">
         <f>DATE(2018,6,25)+TIME(7,0,0)+gmt_delta</f>
@@ -36092,23 +36224,23 @@
       </c>
       <c r="AE41" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB41 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF41" s="58">
         <f>SUMIF($E$7:$E$54,$AB41,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB41,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="58">
         <f>SUMIF($E$7:$E$54,$AB41,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB41,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH41" s="58">
         <f>(AF41-AG41)*100+AK41*10000+AF41</f>
-        <v>0</v>
+        <v>-199</v>
       </c>
       <c r="AI41" s="58">
         <f>AF41-AG41</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ41" s="58">
         <f>(AI41-AI43)/AI42</f>
@@ -36128,7 +36260,7 @@
       </c>
       <c r="AN41" s="59">
         <f>1000*AK41/AK42+100*AJ41+10*AF41/AF42+1*AL41/AL42+AM41</f>
-        <v>2.8499999999999999E-4</v>
+        <v>3.3336183333333334</v>
       </c>
       <c r="AP41" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB41&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB41&amp;"_win")*($U$7:$U$54))</f>
@@ -36168,7 +36300,7 @@
       <c r="BS41" s="122"/>
       <c r="BT41" s="122"/>
     </row>
-    <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>36</v>
       </c>
@@ -36200,7 +36332,7 @@
       </c>
       <c r="K42" s="75">
         <f>L42+M42+N42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42" s="75">
         <f>VLOOKUP(4,AA38:AK41,3,FALSE)</f>
@@ -36212,11 +36344,11 @@
       </c>
       <c r="N42" s="75">
         <f>VLOOKUP(4,AA38:AK41,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" s="75" t="str">
         <f>VLOOKUP(4,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA38:AK41,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 3</v>
       </c>
       <c r="P42" s="76">
         <f>L42*3+M42</f>
@@ -36256,7 +36388,7 @@
       </c>
       <c r="AC42" s="58">
         <f t="shared" ref="AC42:AL42" si="15">MAX(AC38:AC41)-MIN(AC38:AC41)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD42" s="58">
         <f t="shared" si="15"/>
@@ -36264,35 +36396,35 @@
       </c>
       <c r="AE42" s="58">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF42" s="58">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG42" s="58">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH42" s="58">
         <f>MAX(AH38:AH41)-AH43+1</f>
-        <v>1</v>
+        <v>60403</v>
       </c>
       <c r="AI42" s="58">
         <f>MAX(AI38:AI41)-AI43+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK42" s="58">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL42" s="58">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>508</v>
       </c>
       <c r="AP42" s="58">
         <f>MAX(AP38:AP41)-MIN(AP38:AP41)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ42" s="58">
         <f>MAX(AQ38:AQ41)-MIN(AQ38:AQ41)+1</f>
@@ -36300,15 +36432,15 @@
       </c>
       <c r="AR42" s="58">
         <f>MAX(AR38:AR41)-MIN(AR38:AR41)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="58">
         <f>MAX(AS38:AS41)-MIN(AS38:AS41)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT42" s="58">
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ42" s="121"/>
       <c r="BK42" s="121"/>
@@ -36322,7 +36454,7 @@
       <c r="BS42" s="123"/>
       <c r="BT42" s="123"/>
     </row>
-    <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>37</v>
       </c>
@@ -36382,15 +36514,15 @@
       </c>
       <c r="AH43" s="58">
         <f>MIN(AH38:AH41)</f>
-        <v>0</v>
+        <v>-199</v>
       </c>
       <c r="AI43" s="58">
         <f>MIN(AI38:AI41)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AY43" s="80"/>
     </row>
-    <row r="44" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>38</v>
       </c>
@@ -36486,7 +36618,7 @@
       </c>
       <c r="AC44" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB44 &amp; "_win")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD44" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB44 &amp; "_draw")</f>
@@ -36498,27 +36630,27 @@
       </c>
       <c r="AF44" s="58">
         <f>SUMIF($E$7:$E$54,$AB44,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB44,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG44" s="58">
         <f>SUMIF($E$7:$E$54,$AB44,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB44,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH44" s="58">
         <f>(AF44-AG44)*100+AK44*10000+AF44</f>
-        <v>0</v>
+        <v>60608</v>
       </c>
       <c r="AI44" s="58">
         <f>AF44-AG44</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ44" s="58">
         <f>(AI44-AI49)/AI48</f>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AK44" s="58">
         <f>AC44*3+AD44</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL44" s="58">
         <f>AP44/AP48*1000+AQ44/AQ48*100+AT44/AT48*10+AR44/AR48</f>
@@ -36530,7 +36662,7 @@
       </c>
       <c r="AN44" s="59">
         <f>1000*AK44/AK48+100*AJ44+10*AF44/AF48+1*AL44/AL48+AM44</f>
-        <v>6.625E-4</v>
+        <v>960.47685297619046</v>
       </c>
       <c r="AO44" s="60" t="str">
         <f>IF(SUM(AC44:AE47)=12,J45,INDEX(T,82,lang))</f>
@@ -36557,7 +36689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>39</v>
       </c>
@@ -36589,11 +36721,11 @@
       </c>
       <c r="K45" s="70">
         <f>L45+M45+N45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="70">
         <f>VLOOKUP(1,AA44:AK47,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" s="70">
         <f>VLOOKUP(1,AA44:AK47,4,FALSE)</f>
@@ -36605,11 +36737,11 @@
       </c>
       <c r="O45" s="70" t="str">
         <f>VLOOKUP(1,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA44:AK47,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>8 - 2</v>
       </c>
       <c r="P45" s="71">
         <f>L45*3+M45</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R45" s="58">
         <f>DATE(2018,6,26)+TIME(7,0,0)+gmt_delta</f>
@@ -36661,23 +36793,23 @@
       </c>
       <c r="AE45" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB45 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF45" s="58">
         <f>SUMIF($E$7:$E$54,$AB45,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB45,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="58">
         <f>SUMIF($E$7:$E$54,$AB45,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB45,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH45" s="58">
         <f>(AF45-AG45)*100+AK45*10000+AF45</f>
-        <v>0</v>
+        <v>-799</v>
       </c>
       <c r="AI45" s="58">
         <f>AF45-AG45</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AJ45" s="58">
         <f>(AI45-AI49)/AI48</f>
@@ -36697,7 +36829,7 @@
       </c>
       <c r="AN45" s="59">
         <f>1000*AK45/AK48+100*AJ45+10*AF45/AF48+1*AL45/AL48+AM45</f>
-        <v>3.1050000000000001E-4</v>
+        <v>1.2503105000000001</v>
       </c>
       <c r="AO45" s="60" t="str">
         <f>IF(SUM(AC44:AE47)=12,J46,INDEX(T,83,lang))</f>
@@ -36724,7 +36856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>40</v>
       </c>
@@ -36756,11 +36888,11 @@
       </c>
       <c r="K46" s="27">
         <f>L46+M46+N46</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" s="27">
         <f>VLOOKUP(2,AA44:AK47,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" s="27">
         <f>VLOOKUP(2,AA44:AK47,4,FALSE)</f>
@@ -36772,11 +36904,11 @@
       </c>
       <c r="O46" s="27" t="str">
         <f>VLOOKUP(2,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA44:AK47,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>8 - 2</v>
       </c>
       <c r="P46" s="73">
         <f>L46*3+M46</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R46" s="58">
         <f>DATE(2018,6,26)+TIME(7,0,0)+gmt_delta</f>
@@ -36828,27 +36960,27 @@
       </c>
       <c r="AE46" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB46 &amp; "_lose")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF46" s="58">
         <f>SUMIF($E$7:$E$54,$AB46,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB46,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG46" s="58">
         <f>SUMIF($E$7:$E$54,$AB46,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB46,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH46" s="58">
         <f>(AF46-AG46)*100+AK46*10000+AF46</f>
-        <v>0</v>
+        <v>-397</v>
       </c>
       <c r="AI46" s="58">
         <f>AF46-AG46</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AJ46" s="58">
         <f>(AI46-AI49)/AI48</f>
-        <v>0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AK46" s="58">
         <f>AC46*3+AD46</f>
@@ -36864,7 +36996,7 @@
       </c>
       <c r="AN46" s="59">
         <f>1000*AK46/AK48+100*AJ46+10*AF46/AF48+1*AL46/AL48+AM46</f>
-        <v>4.1899999999999999E-4</v>
+        <v>30.417085666666669</v>
       </c>
       <c r="AP46" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB46&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB46&amp;"_win")*($U$7:$U$54))</f>
@@ -36893,7 +37025,7 @@
       <c r="BA46" s="110"/>
       <c r="BB46" s="111"/>
     </row>
-    <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>41</v>
       </c>
@@ -36925,7 +37057,7 @@
       </c>
       <c r="K47" s="27">
         <f>L47+M47+N47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" s="27">
         <f>VLOOKUP(3,AA44:AK47,3,FALSE)</f>
@@ -36937,11 +37069,11 @@
       </c>
       <c r="N47" s="27">
         <f>VLOOKUP(3,AA44:AK47,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" s="27" t="str">
         <f>VLOOKUP(3,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA44:AK47,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>3 - 7</v>
       </c>
       <c r="P47" s="73">
         <f>L47*3+M47</f>
@@ -36989,7 +37121,7 @@
       </c>
       <c r="AC47" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB47 &amp; "_win")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD47" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB47 &amp; "_draw")</f>
@@ -37001,27 +37133,27 @@
       </c>
       <c r="AF47" s="58">
         <f>SUMIF($E$7:$E$54,$AB47,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB47,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG47" s="58">
         <f>SUMIF($E$7:$E$54,$AB47,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB47,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH47" s="58">
         <f>(AF47-AG47)*100+AK47*10000+AF47</f>
-        <v>0</v>
+        <v>60608</v>
       </c>
       <c r="AI47" s="58">
         <f>AF47-AG47</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ47" s="58">
         <f>(AI47-AI49)/AI48</f>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AK47" s="58">
         <f>AC47*3+AD47</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL47" s="58">
         <f>AP47/AP48*1000+AQ47/AQ48*100+AT47/AT48*10+AR47/AR48</f>
@@ -37033,7 +37165,7 @@
       </c>
       <c r="AN47" s="59">
         <f>1000*AK47/AK48+100*AJ47+10*AF47/AF48+1*AL47/AL48+AM47</f>
-        <v>5.2349999999999999E-4</v>
+        <v>960.47671397619047</v>
       </c>
       <c r="AP47" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB47&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB47&amp;"_win")*($U$7:$U$54))</f>
@@ -37060,7 +37192,7 @@
       <c r="BA47" s="113"/>
       <c r="BB47" s="114"/>
     </row>
-    <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>42</v>
       </c>
@@ -37092,7 +37224,7 @@
       </c>
       <c r="K48" s="75">
         <f>L48+M48+N48</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" s="75">
         <f>VLOOKUP(4,AA44:AK47,3,FALSE)</f>
@@ -37104,11 +37236,11 @@
       </c>
       <c r="N48" s="75">
         <f>VLOOKUP(4,AA44:AK47,5,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O48" s="75" t="str">
         <f>VLOOKUP(4,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA44:AK47,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 9</v>
       </c>
       <c r="P48" s="76">
         <f>L48*3+M48</f>
@@ -37148,7 +37280,7 @@
       </c>
       <c r="AC48" s="58">
         <f t="shared" ref="AC48:AL48" si="16">MAX(AC44:AC47)-MIN(AC44:AC47)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD48" s="58">
         <f t="shared" si="16"/>
@@ -37156,27 +37288,27 @@
       </c>
       <c r="AE48" s="58">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF48" s="58">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG48" s="58">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH48" s="58">
         <f>MAX(AH44:AH47)-AH49+1</f>
-        <v>1</v>
+        <v>61408</v>
       </c>
       <c r="AI48" s="58">
         <f>MAX(AI44:AI47)-AI49+1</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK48" s="58">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL48" s="58">
         <f t="shared" si="16"/>
@@ -37207,7 +37339,7 @@
       <c r="BA48" s="113"/>
       <c r="BB48" s="114"/>
     </row>
-    <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>43</v>
       </c>
@@ -37267,18 +37399,18 @@
       </c>
       <c r="AH49" s="58">
         <f>MIN(AH44:AH47)</f>
-        <v>0</v>
+        <v>-799</v>
       </c>
       <c r="AI49" s="58">
         <f>MIN(AI44:AI47)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AY49" s="112"/>
       <c r="AZ49" s="113"/>
       <c r="BA49" s="113"/>
       <c r="BB49" s="114"/>
     </row>
-    <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>44</v>
       </c>
@@ -37366,7 +37498,7 @@
       </c>
       <c r="AA50" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN50))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB50" s="59" t="str">
         <f>VLOOKUP("Poland",T,lang,FALSE)</f>
@@ -37382,23 +37514,23 @@
       </c>
       <c r="AE50" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB50 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" s="58">
         <f>SUMIF($E$7:$E$54,$AB50,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB50,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" s="58">
         <f>SUMIF($E$7:$E$54,$AB50,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB50,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH50" s="58">
         <f>(AF50-AG50)*100+AK50*10000+AF50</f>
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="AI50" s="58">
         <f>AF50-AG50</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ50" s="58">
         <f>(AI50-AI55)/AI54</f>
@@ -37418,7 +37550,7 @@
       </c>
       <c r="AN50" s="59">
         <f>1000*AK50/AK54+100*AJ50+10*AF50/AF54+1*AL50/AL54+AM50</f>
-        <v>6.045E-4</v>
+        <v>2.5006045000000001</v>
       </c>
       <c r="AO50" s="60" t="str">
         <f>IF(SUM(AC50:AE53)=12,J51,INDEX(T,84,lang))</f>
@@ -37449,7 +37581,7 @@
       <c r="BA50" s="113"/>
       <c r="BB50" s="114"/>
     </row>
-    <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>45</v>
       </c>
@@ -37477,19 +37609,19 @@
       </c>
       <c r="J51" s="69" t="str">
         <f>VLOOKUP(1,AA50:AK53,2,FALSE)</f>
-        <v>Poland</v>
+        <v>Senegal</v>
       </c>
       <c r="K51" s="70">
         <f>L51+M51+N51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="70">
         <f>VLOOKUP(1,AA50:AK53,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="70">
         <f>VLOOKUP(1,AA50:AK53,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="70">
         <f>VLOOKUP(1,AA50:AK53,5,FALSE)</f>
@@ -37497,11 +37629,11 @@
       </c>
       <c r="O51" s="70" t="str">
         <f>VLOOKUP(1,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA50:AK53,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>4 - 3</v>
       </c>
       <c r="P51" s="71">
         <f>L51*3+M51</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R51" s="58">
         <f>DATE(2018,6,28)+TIME(7,0,0)+gmt_delta</f>
@@ -37537,7 +37669,7 @@
       </c>
       <c r="AA51" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN51))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB51" s="59" t="str">
         <f>VLOOKUP("Senegal",T,lang,FALSE)</f>
@@ -37545,11 +37677,11 @@
       </c>
       <c r="AC51" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB51 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB51 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE51" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB51 &amp; "_lose")</f>
@@ -37557,31 +37689,31 @@
       </c>
       <c r="AF51" s="58">
         <f>SUMIF($E$7:$E$54,$AB51,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB51,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG51" s="58">
         <f>SUMIF($E$7:$E$54,$AB51,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB51,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH51" s="58">
         <f>(AF51-AG51)*100+AK51*10000+AF51</f>
-        <v>0</v>
+        <v>40104</v>
       </c>
       <c r="AI51" s="58">
         <f>AF51-AG51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="58">
         <f>(AI51-AI55)/AI54</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AK51" s="58">
         <f>AC51*3+AD51</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL51" s="58">
         <f>AP51/AP54*1000+AQ51/AQ54*100+AT51/AT54*10+AR51/AR54</f>
-        <v>0</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="AM51" s="58">
         <f>VLOOKUP(AB51,db_fifarank,2,FALSE)/2000000</f>
@@ -37589,7 +37721,7 @@
       </c>
       <c r="AN51" s="59">
         <f>1000*AK51/AK54+100*AJ51+10*AF51/AF54+1*AL51/AL54+AM51</f>
-        <v>4.4200000000000001E-4</v>
+        <v>877.64775382795699</v>
       </c>
       <c r="AO51" s="60" t="str">
         <f>IF(SUM(AC50:AE53)=12,J52,INDEX(T,85,lang))</f>
@@ -37601,15 +37733,15 @@
       </c>
       <c r="AQ51" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB51&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB51&amp;"_draw")*($U$7:$U$54))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB51)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB51)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS51" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB51)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB51)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT51" s="62">
         <f>AR51-AS51</f>
@@ -37620,7 +37752,7 @@
       <c r="BA51" s="113"/>
       <c r="BB51" s="114"/>
     </row>
-    <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>46</v>
       </c>
@@ -37648,19 +37780,19 @@
       </c>
       <c r="J52" s="72" t="str">
         <f>VLOOKUP(2,AA50:AK53,2,FALSE)</f>
-        <v>Colombia</v>
+        <v>Japan</v>
       </c>
       <c r="K52" s="27">
         <f>L52+M52+N52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="27">
         <f>VLOOKUP(2,AA50:AK53,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="27">
         <f>VLOOKUP(2,AA50:AK53,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="27">
         <f>VLOOKUP(2,AA50:AK53,5,FALSE)</f>
@@ -37668,11 +37800,11 @@
       </c>
       <c r="O52" s="27" t="str">
         <f>VLOOKUP(2,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA50:AK53,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>4 - 3</v>
       </c>
       <c r="P52" s="73">
         <f>L52*3+M52</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R52" s="58">
         <f>DATE(2018,6,28)+TIME(7,0,0)+gmt_delta</f>
@@ -37708,7 +37840,7 @@
       </c>
       <c r="AA52" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN52))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB52" s="59" t="str">
         <f>VLOOKUP("Colombia",T,lang,FALSE)</f>
@@ -37724,23 +37856,23 @@
       </c>
       <c r="AE52" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB52 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52" s="58">
         <f>SUMIF($E$7:$E$54,$AB52,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB52,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" s="58">
         <f>SUMIF($E$7:$E$54,$AB52,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB52,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH52" s="58">
         <f>(AF52-AG52)*100+AK52*10000+AF52</f>
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="AI52" s="58">
         <f>AF52-AG52</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ52" s="58">
         <f>(AI52-AI55)/AI54</f>
@@ -37760,7 +37892,7 @@
       </c>
       <c r="AN52" s="59">
         <f>1000*AK52/AK54+100*AJ52+10*AF52/AF54+1*AL52/AL54+AM52</f>
-        <v>5.3899999999999998E-4</v>
+        <v>2.5005389999999998</v>
       </c>
       <c r="AP52" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB52&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB52&amp;"_win")*($U$7:$U$54))</f>
@@ -37787,7 +37919,7 @@
       <c r="BA52" s="116"/>
       <c r="BB52" s="117"/>
     </row>
-    <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>47</v>
       </c>
@@ -37815,11 +37947,11 @@
       </c>
       <c r="J53" s="72" t="str">
         <f>VLOOKUP(3,AA50:AK53,2,FALSE)</f>
-        <v>Senegal</v>
+        <v>Poland</v>
       </c>
       <c r="K53" s="27">
         <f>L53+M53+N53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="27">
         <f>VLOOKUP(3,AA50:AK53,3,FALSE)</f>
@@ -37831,11 +37963,11 @@
       </c>
       <c r="N53" s="27">
         <f>VLOOKUP(3,AA50:AK53,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="27" t="str">
         <f>VLOOKUP(3,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA50:AK53,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 2</v>
       </c>
       <c r="P53" s="73">
         <f>L53*3+M53</f>
@@ -37875,7 +38007,7 @@
       </c>
       <c r="AA53" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN53))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB53" s="59" t="str">
         <f>VLOOKUP("Japan",T,lang,FALSE)</f>
@@ -37883,11 +38015,11 @@
       </c>
       <c r="AC53" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB53 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB53 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB53 &amp; "_lose")</f>
@@ -37895,31 +38027,31 @@
       </c>
       <c r="AF53" s="58">
         <f>SUMIF($E$7:$E$54,$AB53,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB53,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG53" s="58">
         <f>SUMIF($E$7:$E$54,$AB53,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB53,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH53" s="58">
         <f>(AF53-AG53)*100+AK53*10000+AF53</f>
-        <v>0</v>
+        <v>40104</v>
       </c>
       <c r="AI53" s="58">
         <f>AF53-AG53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53" s="58">
         <f>(AI53-AI55)/AI54</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AK53" s="58">
         <f>AC53*3+AD53</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL53" s="58">
         <f>AP53/AP54*1000+AQ53/AQ54*100+AT53/AT54*10+AR53/AR54</f>
-        <v>0</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="AM53" s="58">
         <f>VLOOKUP(AB53,db_fifarank,2,FALSE)/2000000</f>
@@ -37927,7 +38059,7 @@
       </c>
       <c r="AN53" s="59">
         <f>1000*AK53/AK54+100*AJ53+10*AF53/AF54+1*AL53/AL54+AM53</f>
-        <v>2.9999999999999997E-4</v>
+        <v>877.64761182795701</v>
       </c>
       <c r="AP53" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB53&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB53&amp;"_win")*($U$7:$U$54))</f>
@@ -37935,22 +38067,22 @@
       </c>
       <c r="AQ53" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB53&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB53&amp;"_draw")*($U$7:$U$54))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR53" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB53)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB53)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS53" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB53)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB53)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT53" s="62">
         <f>AR53-AS53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44">
         <v>48</v>
       </c>
@@ -37978,11 +38110,11 @@
       </c>
       <c r="J54" s="74" t="str">
         <f>VLOOKUP(4,AA50:AK53,2,FALSE)</f>
-        <v>Japan</v>
+        <v>Colombia</v>
       </c>
       <c r="K54" s="75">
         <f>L54+M54+N54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="75">
         <f>VLOOKUP(4,AA50:AK53,3,FALSE)</f>
@@ -37994,11 +38126,11 @@
       </c>
       <c r="N54" s="75">
         <f>VLOOKUP(4,AA50:AK53,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="75" t="str">
         <f>VLOOKUP(4,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA50:AK53,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>1 - 2</v>
       </c>
       <c r="P54" s="76">
         <f>L54*3+M54</f>
@@ -38038,39 +38170,39 @@
       </c>
       <c r="AC54" s="58">
         <f t="shared" ref="AC54:AL54" si="17">MAX(AC50:AC53)-MIN(AC50:AC53)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD54" s="58">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE54" s="58">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF54" s="58">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG54" s="58">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH54" s="58">
         <f>MAX(AH50:AH53)-AH55+1</f>
-        <v>1</v>
+        <v>40204</v>
       </c>
       <c r="AI54" s="58">
         <f>MAX(AI50:AI53)-AI55+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK54" s="58">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL54" s="58">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="AP54" s="58">
         <f>MAX(AP50:AP53)-MIN(AP50:AP53)+1</f>
@@ -38078,22 +38210,22 @@
       </c>
       <c r="AQ54" s="58">
         <f>MAX(AQ50:AQ53)-MIN(AQ50:AQ53)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR54" s="58">
         <f>MAX(AR50:AR53)-MIN(AR50:AR53)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS54" s="58">
         <f>MAX(AS50:AS53)-MIN(AS50:AS53)+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT54" s="58">
         <f>MAX(AT50:AT53)-MIN(AT50:AT53)+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55" s="49"/>
       <c r="B55" s="50"/>
       <c r="C55" s="49"/>
@@ -38112,16 +38244,16 @@
       <c r="P55" s="49"/>
       <c r="AH55" s="58">
         <f>MIN(AH50:AH53)</f>
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="AI55" s="58">
         <f>MIN(AI50:AI53)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
       <c r="R58" s="58">
         <f>DATE(2018,6,30)+TIME(7,0,0)+gmt_delta</f>
         <v>43281.75</v>
@@ -38135,7 +38267,7 @@
         <v>W49</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R59" s="58">
         <f>DATE(2018,6,30)+TIME(3,0,0)+gmt_delta</f>
         <v>43281.583333333336</v>
@@ -38149,7 +38281,7 @@
         <v>W50</v>
       </c>
     </row>
-    <row r="60" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R60" s="58">
         <f>DATE(2018,7,1)+TIME(3,0,0)+gmt_delta</f>
         <v>43282.583333333336</v>
@@ -38163,7 +38295,7 @@
         <v>W51</v>
       </c>
     </row>
-    <row r="61" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R61" s="58">
         <f>DATE(2018,7,1)+TIME(7,0,0)+gmt_delta</f>
         <v>43282.75</v>
@@ -38177,7 +38309,7 @@
         <v>W52</v>
       </c>
     </row>
-    <row r="62" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R62" s="58">
         <f>DATE(2018,7,2)+TIME(3,0,0)+gmt_delta</f>
         <v>43283.583333333336</v>
@@ -38191,7 +38323,7 @@
         <v>W53</v>
       </c>
     </row>
-    <row r="63" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R63" s="58">
         <f>DATE(2018,7,2)+TIME(7,0,0)+gmt_delta</f>
         <v>43283.75</v>
@@ -38205,7 +38337,7 @@
         <v>W54</v>
       </c>
     </row>
-    <row r="64" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R64" s="58">
         <f>DATE(2018,7,3)+TIME(3,0,0)+gmt_delta</f>
         <v>43284.583333333336</v>
@@ -38219,7 +38351,7 @@
         <v>W55</v>
       </c>
     </row>
-    <row r="65" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R65" s="58">
         <f>DATE(2018,7,3)+TIME(7,0,0)+gmt_delta</f>
         <v>43284.75</v>
@@ -38233,10 +38365,10 @@
         <v>W56</v>
       </c>
     </row>
-    <row r="66" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R69" s="58">
         <f>DATE(2018,7,6)+TIME(3,0,0)+gmt_delta</f>
         <v>43287.583333333336</v>
@@ -38250,7 +38382,7 @@
         <v>W57</v>
       </c>
     </row>
-    <row r="70" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R70" s="58">
         <f>DATE(2018,7,6)+TIME(7,0,0)+gmt_delta</f>
         <v>43287.75</v>
@@ -38264,7 +38396,7 @@
         <v>W58</v>
       </c>
     </row>
-    <row r="71" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R71" s="58">
         <f>DATE(2018,7,7)+TIME(7,0,0)+gmt_delta</f>
         <v>43288.75</v>
@@ -38278,7 +38410,7 @@
         <v>W59</v>
       </c>
     </row>
-    <row r="72" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R72" s="58">
         <f>DATE(2018,7,7)+TIME(3,0,0)+gmt_delta</f>
         <v>43288.583333333336</v>
@@ -38292,10 +38424,10 @@
         <v>W60</v>
       </c>
     </row>
-    <row r="73" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R76" s="58">
         <f>DATE(2018,7,10)+TIME(7,0,0)+gmt_delta</f>
         <v>43291.75</v>
@@ -38317,7 +38449,7 @@
         <v>L61</v>
       </c>
     </row>
-    <row r="77" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R77" s="58">
         <f>DATE(2018,7,11)+TIME(7,0,0)+gmt_delta</f>
         <v>43292.75</v>
@@ -38339,9 +38471,9 @@
         <v>L62</v>
       </c>
     </row>
-    <row r="79" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R81" s="58">
         <f>DATE(2018,7,14)+TIME(3,0,0)+gmt_delta</f>
         <v>43295.583333333336</v>
@@ -38351,9 +38483,9 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R85" s="58">
         <f>DATE(2018,7,15)+TIME(4,0,0)+gmt_delta</f>
         <v>43296.625</v>
@@ -38367,10 +38499,10 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
@@ -38403,6 +38535,7 @@
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">
     <cfRule type="expression" dxfId="99" priority="16" stopIfTrue="1">
       <formula>IF(AND($F7&gt;$G7,ISNUMBER($F7),ISNUMBER($G7)),1,0)</formula>
@@ -38818,18 +38951,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB10:BB11 BB14:BB15 BB26:BB27 BB30:BB31 BB18:BB19 BB22:BB23 BB34:BB35 BB38:BB39 BH12:BH13 BH20:BH21 BH28:BH29 BH36:BH37 BN16:BN17 BN32:BN33 BT23:BT24 BT35:BT36" xr:uid="{5DC19248-CA97-4A65-901D-902A8CFD1871}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB10:BB11 BB14:BB15 BB26:BB27 BB30:BB31 BB18:BB19 BB22:BB23 BB34:BB35 BB38:BB39 BH12:BH13 BH20:BH21 BH28:BH29 BH36:BH37 BN16:BN17 BN32:BN33 BT23:BT24 BT35:BT36">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:G55 BA26:BA27 BA10:BA11 BA14:BA15 BA30:BA31 BA18:BA19 BA22:BA23 BA34:BA35 BA38:BA39 BG12:BG13 BG20:BG21 BG28:BG29 BG36:BG37 BM16:BM17 BM32:BM33 BS23:BS24 BS35:BS36" xr:uid="{C7F7E835-588F-4CFE-8B58-3E549F511EDD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:G55 BA26:BA27 BA10:BA11 BA14:BA15 BA30:BA31 BA18:BA19 BA22:BA23 BA34:BA35 BA38:BA39 BG12:BG13 BG20:BG21 BG28:BG29 BG36:BG37 BM16:BM17 BM32:BM33 BS23:BS24 BS35:BS36">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O3" location="Settings!C4" tooltip="Settings" display="Settings!C4" xr:uid="{B7D43826-7A10-4B1F-B7E9-9C5EA92B5AE3}"/>
-    <hyperlink ref="J5:P5" r:id="rId1" tooltip="Excel Schedule" display="Home Page: www.excely.com" xr:uid="{F1B16304-7A83-4C19-8499-62AB6ADF14F7}"/>
-    <hyperlink ref="J5:P6" r:id="rId2" tooltip="World Cup 2018 Schedule in Excel" display="Home Page: www.excely.com" xr:uid="{C5C0CB06-50F0-4DD5-AAB0-434A0F623240}"/>
-    <hyperlink ref="AY46:BB52" r:id="rId3" tooltip="FIFA World Cup Historical Data 1930 - 2014" display="http://www.excely.com/football/fifa-world-cup-statistics.shtml" xr:uid="{3D7E925C-71F7-4395-AF7F-647ABF98F356}"/>
+    <hyperlink ref="O3" location="Settings!C4" tooltip="Settings" display="Settings!C4"/>
+    <hyperlink ref="J5:P5" r:id="rId1" tooltip="Excel Schedule" display="Home Page: www.excely.com"/>
+    <hyperlink ref="J5:P6" r:id="rId2" tooltip="World Cup 2018 Schedule in Excel" display="Home Page: www.excely.com"/>
+    <hyperlink ref="AY46:BB52" r:id="rId3" tooltip="FIFA World Cup Historical Data 1930 - 2014" display="http://www.excely.com/football/fifa-world-cup-statistics.shtml"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -9316,90 +9316,6 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9478,6 +9394,90 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29896,8 +29896,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29952,25 +29952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="str">
+      <c r="A1" s="115" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30033,11 +30033,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="137" t="str">
+      <c r="O3" s="116" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="137"/>
+      <c r="P3" s="116"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30063,43 +30063,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="str">
+      <c r="A5" s="117" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="J5" s="144" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="J5" s="123" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="125"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="128"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30163,34 +30163,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="130" t="str">
+      <c r="AY6" s="109" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="132"/>
-      <c r="BE6" s="130" t="str">
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="111"/>
+      <c r="BE6" s="109" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="132"/>
-      <c r="BK6" s="130" t="str">
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="111"/>
+      <c r="BK6" s="109" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="131"/>
-      <c r="BM6" s="131"/>
-      <c r="BN6" s="132"/>
-      <c r="BQ6" s="130" t="str">
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="111"/>
+      <c r="BQ6" s="109" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="131"/>
-      <c r="BS6" s="131"/>
-      <c r="BT6" s="132"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="111"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30254,22 +30254,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="135"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="134"/>
-      <c r="BH7" s="135"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="134"/>
-      <c r="BM7" s="134"/>
-      <c r="BN7" s="135"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="134"/>
-      <c r="BS7" s="134"/>
-      <c r="BT7" s="135"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="114"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="114"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="113"/>
+      <c r="BM7" s="113"/>
+      <c r="BN7" s="114"/>
+      <c r="BQ7" s="112"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="114"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30815,7 +30815,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="118">
+      <c r="AY10" s="129">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31009,7 +31009,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="119"/>
+      <c r="AY11" s="130"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>2B</v>
@@ -31190,7 +31190,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="118">
+      <c r="BE12" s="129">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31298,7 +31298,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="119"/>
+      <c r="BE13" s="130"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>W50</v>
@@ -31488,7 +31488,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="118">
+      <c r="AY14" s="129">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31686,7 +31686,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="119"/>
+      <c r="AY15" s="130"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>2D</v>
@@ -31893,7 +31893,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="118">
+      <c r="BK16" s="129">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32090,7 +32090,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="119"/>
+      <c r="BK17" s="130"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32250,7 +32250,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="118">
+      <c r="AY18" s="129">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32355,7 +32355,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="119"/>
+      <c r="AY19" s="130"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>2F</v>
@@ -32560,7 +32560,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="118">
+      <c r="BE20" s="129">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32761,7 +32761,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="119"/>
+      <c r="BE21" s="130"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32947,7 +32947,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="118">
+      <c r="AY22" s="129">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33144,7 +33144,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="119"/>
+      <c r="AY23" s="130"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>2H</v>
@@ -33165,7 +33165,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="118">
+      <c r="BQ23" s="129">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33338,7 +33338,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="119"/>
+      <c r="BQ24" s="130"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33619,7 +33619,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="118">
+      <c r="AY26" s="129">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33817,7 +33817,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="119"/>
+      <c r="AY27" s="130"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>2A</v>
@@ -34018,7 +34018,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="118">
+      <c r="BE28" s="129">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34215,7 +34215,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="119"/>
+      <c r="BE29" s="130"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34381,7 +34381,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="118">
+      <c r="AY30" s="129">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34479,7 +34479,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="119"/>
+      <c r="AY31" s="130"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>2C</v>
@@ -34503,13 +34503,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="124" t="str">
+      <c r="BQ31" s="131" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="125"/>
-      <c r="BS31" s="125"/>
-      <c r="BT31" s="126"/>
+      <c r="BR31" s="132"/>
+      <c r="BS31" s="132"/>
+      <c r="BT31" s="133"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34693,7 +34693,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="118">
+      <c r="BK32" s="129">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34704,10 +34704,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="127"/>
-      <c r="BR32" s="128"/>
-      <c r="BS32" s="128"/>
-      <c r="BT32" s="129"/>
+      <c r="BQ32" s="134"/>
+      <c r="BR32" s="135"/>
+      <c r="BS32" s="135"/>
+      <c r="BT32" s="136"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34894,7 +34894,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="119"/>
+      <c r="BK33" s="130"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35074,7 +35074,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="118">
+      <c r="AY34" s="129">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35271,7 +35271,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="119"/>
+      <c r="AY35" s="130"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>2E</v>
@@ -35295,7 +35295,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="118">
+      <c r="BQ35" s="129">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35457,7 +35457,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="118">
+      <c r="BE36" s="129">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35474,7 +35474,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="119"/>
+      <c r="BQ36" s="130"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35502,8 +35502,12 @@
         <f>AB50</f>
         <v>Poland</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
+        <v>3</v>
+      </c>
       <c r="H37" s="67" t="str">
         <f>AB52</f>
         <v>Colombia</v>
@@ -35514,11 +35518,11 @@
       </c>
       <c r="S37" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Poland_lose</v>
       </c>
       <c r="T37" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Colombia_win</v>
       </c>
       <c r="U37" s="59">
         <f t="shared" si="4"/>
@@ -35536,9 +35540,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="58" t="str">
+      <c r="Y37" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AH37" s="58">
         <f>MIN(AH32:AH35)</f>
@@ -35557,7 +35561,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="119"/>
+      <c r="BE37" s="130"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35747,7 +35751,7 @@
         <f>AR38-AS38</f>
         <v>1</v>
       </c>
-      <c r="AY38" s="118">
+      <c r="AY38" s="129">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35937,7 +35941,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="119"/>
+      <c r="AY39" s="130"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>2G</v>
@@ -36282,23 +36286,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="120" t="str">
+      <c r="BJ41" s="146" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="120"/>
-      <c r="BL41" s="120"/>
-      <c r="BM41" s="120"/>
-      <c r="BN41" s="120"/>
-      <c r="BO41" s="122" t="str">
+      <c r="BK41" s="146"/>
+      <c r="BL41" s="146"/>
+      <c r="BM41" s="146"/>
+      <c r="BN41" s="146"/>
+      <c r="BO41" s="148" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="122"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="122"/>
-      <c r="BS41" s="122"/>
-      <c r="BT41" s="122"/>
+      <c r="BP41" s="148"/>
+      <c r="BQ41" s="148"/>
+      <c r="BR41" s="148"/>
+      <c r="BS41" s="148"/>
+      <c r="BT41" s="148"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36442,17 +36446,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>3</v>
       </c>
-      <c r="BJ42" s="121"/>
-      <c r="BK42" s="121"/>
-      <c r="BL42" s="121"/>
-      <c r="BM42" s="121"/>
-      <c r="BN42" s="121"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="123"/>
-      <c r="BT42" s="123"/>
+      <c r="BJ42" s="147"/>
+      <c r="BK42" s="147"/>
+      <c r="BL42" s="147"/>
+      <c r="BM42" s="147"/>
+      <c r="BN42" s="147"/>
+      <c r="BO42" s="149"/>
+      <c r="BP42" s="149"/>
+      <c r="BQ42" s="149"/>
+      <c r="BR42" s="149"/>
+      <c r="BS42" s="149"/>
+      <c r="BT42" s="149"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37018,12 +37022,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="109" t="s">
+      <c r="AY46" s="137" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="110"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="111"/>
+      <c r="AZ46" s="138"/>
+      <c r="BA46" s="138"/>
+      <c r="BB46" s="139"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37187,10 +37191,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="112"/>
-      <c r="AZ47" s="113"/>
-      <c r="BA47" s="113"/>
-      <c r="BB47" s="114"/>
+      <c r="AY47" s="140"/>
+      <c r="AZ47" s="141"/>
+      <c r="BA47" s="141"/>
+      <c r="BB47" s="142"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37334,10 +37338,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="112"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="114"/>
+      <c r="AY48" s="140"/>
+      <c r="AZ48" s="141"/>
+      <c r="BA48" s="141"/>
+      <c r="BB48" s="142"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37405,10 +37409,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-8</v>
       </c>
-      <c r="AY49" s="112"/>
-      <c r="AZ49" s="113"/>
-      <c r="BA49" s="113"/>
-      <c r="BB49" s="114"/>
+      <c r="AY49" s="140"/>
+      <c r="AZ49" s="141"/>
+      <c r="BA49" s="141"/>
+      <c r="BB49" s="142"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37498,7 +37502,7 @@
       </c>
       <c r="AA50" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN50))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB50" s="59" t="str">
         <f>VLOOKUP("Poland",T,lang,FALSE)</f>
@@ -37514,7 +37518,7 @@
       </c>
       <c r="AE50" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB50 &amp; "_lose")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF50" s="58">
         <f>SUMIF($E$7:$E$54,$AB50,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB50,$G$7:$G$54)</f>
@@ -37522,15 +37526,15 @@
       </c>
       <c r="AG50" s="58">
         <f>SUMIF($E$7:$E$54,$AB50,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB50,$F$7:$F$54)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH50" s="58">
         <f>(AF50-AG50)*100+AK50*10000+AF50</f>
-        <v>-99</v>
+        <v>-399</v>
       </c>
       <c r="AI50" s="58">
         <f>AF50-AG50</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="AJ50" s="58">
         <f>(AI50-AI55)/AI54</f>
@@ -37576,10 +37580,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="112"/>
-      <c r="AZ50" s="113"/>
-      <c r="BA50" s="113"/>
-      <c r="BB50" s="114"/>
+      <c r="AY50" s="140"/>
+      <c r="AZ50" s="141"/>
+      <c r="BA50" s="141"/>
+      <c r="BB50" s="142"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37705,7 +37709,7 @@
       </c>
       <c r="AJ51" s="58">
         <f>(AI51-AI55)/AI54</f>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AK51" s="58">
         <f>AC51*3+AD51</f>
@@ -37721,7 +37725,7 @@
       </c>
       <c r="AN51" s="59">
         <f>1000*AK51/AK54+100*AJ51+10*AF51/AF54+1*AL51/AL54+AM51</f>
-        <v>877.64775382795699</v>
+        <v>882.40965858986181</v>
       </c>
       <c r="AO51" s="60" t="str">
         <f>IF(SUM(AC50:AE53)=12,J52,INDEX(T,85,lang))</f>
@@ -37747,10 +37751,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="112"/>
-      <c r="AZ51" s="113"/>
-      <c r="BA51" s="113"/>
-      <c r="BB51" s="114"/>
+      <c r="AY51" s="140"/>
+      <c r="AZ51" s="141"/>
+      <c r="BA51" s="141"/>
+      <c r="BB51" s="142"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -37840,7 +37844,7 @@
       </c>
       <c r="AA52" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN52))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB52" s="59" t="str">
         <f>VLOOKUP("Colombia",T,lang,FALSE)</f>
@@ -37848,7 +37852,7 @@
       </c>
       <c r="AC52" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB52 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB52 &amp; "_draw")</f>
@@ -37860,7 +37864,7 @@
       </c>
       <c r="AF52" s="58">
         <f>SUMIF($E$7:$E$54,$AB52,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB52,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG52" s="58">
         <f>SUMIF($E$7:$E$54,$AB52,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB52,$F$7:$F$54)</f>
@@ -37868,19 +37872,19 @@
       </c>
       <c r="AH52" s="58">
         <f>(AF52-AG52)*100+AK52*10000+AF52</f>
-        <v>-99</v>
+        <v>30204</v>
       </c>
       <c r="AI52" s="58">
         <f>AF52-AG52</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ52" s="58">
         <f>(AI52-AI55)/AI54</f>
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AK52" s="58">
         <f>AC52*3+AD52</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL52" s="58">
         <f>AP52/AP54*1000+AQ52/AQ54*100+AT52/AT54*10+AR52/AR54</f>
@@ -37892,7 +37896,7 @@
       </c>
       <c r="AN52" s="59">
         <f>1000*AK52/AK54+100*AJ52+10*AF52/AF54+1*AL52/AL54+AM52</f>
-        <v>2.5005389999999998</v>
+        <v>695.71482471428567</v>
       </c>
       <c r="AP52" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB52&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB52&amp;"_win")*($U$7:$U$54))</f>
@@ -37914,10 +37918,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="115"/>
-      <c r="AZ52" s="116"/>
-      <c r="BA52" s="116"/>
-      <c r="BB52" s="117"/>
+      <c r="AY52" s="143"/>
+      <c r="AZ52" s="144"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="145"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -37947,15 +37951,15 @@
       </c>
       <c r="J53" s="72" t="str">
         <f>VLOOKUP(3,AA50:AK53,2,FALSE)</f>
-        <v>Poland</v>
+        <v>Colombia</v>
       </c>
       <c r="K53" s="27">
         <f>L53+M53+N53</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="27">
         <f>VLOOKUP(3,AA50:AK53,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="27">
         <f>VLOOKUP(3,AA50:AK53,4,FALSE)</f>
@@ -37967,11 +37971,11 @@
       </c>
       <c r="O53" s="27" t="str">
         <f>VLOOKUP(3,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA50:AK53,7,FALSE)</f>
-        <v>1 - 2</v>
+        <v>4 - 2</v>
       </c>
       <c r="P53" s="73">
         <f>L53*3+M53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R53" s="58">
         <f>DATE(2018,6,28)+TIME(3,0,0)+gmt_delta</f>
@@ -38043,7 +38047,7 @@
       </c>
       <c r="AJ53" s="58">
         <f>(AI53-AI55)/AI54</f>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AK53" s="58">
         <f>AC53*3+AD53</f>
@@ -38059,7 +38063,7 @@
       </c>
       <c r="AN53" s="59">
         <f>1000*AK53/AK54+100*AJ53+10*AF53/AF54+1*AL53/AL54+AM53</f>
-        <v>877.64761182795701</v>
+        <v>882.40951658986182</v>
       </c>
       <c r="AP53" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB53&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB53&amp;"_win")*($U$7:$U$54))</f>
@@ -38110,11 +38114,11 @@
       </c>
       <c r="J54" s="74" t="str">
         <f>VLOOKUP(4,AA50:AK53,2,FALSE)</f>
-        <v>Colombia</v>
+        <v>Poland</v>
       </c>
       <c r="K54" s="75">
         <f>L54+M54+N54</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="75">
         <f>VLOOKUP(4,AA50:AK53,3,FALSE)</f>
@@ -38126,11 +38130,11 @@
       </c>
       <c r="N54" s="75">
         <f>VLOOKUP(4,AA50:AK53,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O54" s="75" t="str">
         <f>VLOOKUP(4,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA50:AK53,7,FALSE)</f>
-        <v>1 - 2</v>
+        <v>1 - 5</v>
       </c>
       <c r="P54" s="76">
         <f>L54*3+M54</f>
@@ -38178,7 +38182,7 @@
       </c>
       <c r="AE54" s="58">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF54" s="58">
         <f t="shared" si="17"/>
@@ -38186,15 +38190,15 @@
       </c>
       <c r="AG54" s="58">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH54" s="58">
         <f>MAX(AH50:AH53)-AH55+1</f>
-        <v>40204</v>
+        <v>40504</v>
       </c>
       <c r="AI54" s="58">
         <f>MAX(AI50:AI53)-AI55+1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK54" s="58">
         <f t="shared" si="17"/>
@@ -38244,11 +38248,11 @@
       <c r="P55" s="49"/>
       <c r="AH55" s="58">
         <f>MIN(AH50:AH53)</f>
-        <v>-99</v>
+        <v>-399</v>
       </c>
       <c r="AI55" s="58">
         <f>MIN(AI50:AI53)</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="56" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38506,27 +38510,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38534,6 +38517,27 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -9316,6 +9316,90 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9394,90 +9478,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29896,8 +29896,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29952,25 +29952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="str">
+      <c r="A1" s="136" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30033,11 +30033,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="116" t="str">
+      <c r="O3" s="137" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="116"/>
+      <c r="P3" s="137"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30063,43 +30063,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="str">
+      <c r="A5" s="138" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="J5" s="123" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+      <c r="J5" s="144" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="125"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30163,34 +30163,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="109" t="str">
+      <c r="AY6" s="130" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="111"/>
-      <c r="BE6" s="109" t="str">
+      <c r="AZ6" s="131"/>
+      <c r="BA6" s="131"/>
+      <c r="BB6" s="132"/>
+      <c r="BE6" s="130" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="111"/>
-      <c r="BK6" s="109" t="str">
+      <c r="BF6" s="131"/>
+      <c r="BG6" s="131"/>
+      <c r="BH6" s="132"/>
+      <c r="BK6" s="130" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="110"/>
-      <c r="BM6" s="110"/>
-      <c r="BN6" s="111"/>
-      <c r="BQ6" s="109" t="str">
+      <c r="BL6" s="131"/>
+      <c r="BM6" s="131"/>
+      <c r="BN6" s="132"/>
+      <c r="BQ6" s="130" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="110"/>
-      <c r="BS6" s="110"/>
-      <c r="BT6" s="111"/>
+      <c r="BR6" s="131"/>
+      <c r="BS6" s="131"/>
+      <c r="BT6" s="132"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30254,22 +30254,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="114"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="113"/>
-      <c r="BG7" s="113"/>
-      <c r="BH7" s="114"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="113"/>
-      <c r="BM7" s="113"/>
-      <c r="BN7" s="114"/>
-      <c r="BQ7" s="112"/>
-      <c r="BR7" s="113"/>
-      <c r="BS7" s="113"/>
-      <c r="BT7" s="114"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="134"/>
+      <c r="BA7" s="134"/>
+      <c r="BB7" s="135"/>
+      <c r="BE7" s="133"/>
+      <c r="BF7" s="134"/>
+      <c r="BG7" s="134"/>
+      <c r="BH7" s="135"/>
+      <c r="BK7" s="133"/>
+      <c r="BL7" s="134"/>
+      <c r="BM7" s="134"/>
+      <c r="BN7" s="135"/>
+      <c r="BQ7" s="133"/>
+      <c r="BR7" s="134"/>
+      <c r="BS7" s="134"/>
+      <c r="BT7" s="135"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30363,7 +30363,7 @@
       </c>
       <c r="AA8" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN8))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="59" t="str">
         <f>VLOOKUP("Russia",T,lang,FALSE)</f>
@@ -30379,7 +30379,7 @@
       </c>
       <c r="AE8" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB8 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="58">
         <f>SUMIF($E$7:$E$54,$AB8,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB8,$G$7:$G$54)</f>
@@ -30387,19 +30387,19 @@
       </c>
       <c r="AG8" s="58">
         <f>SUMIF($E$7:$E$54,$AB8,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB8,$F$7:$F$54)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="58">
         <f>(AF8-AG8)+1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI8" s="58">
         <f>AF8-AG8</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ8" s="58">
         <f>(AI8-AI13)/AI12</f>
-        <v>0.9285714285714286</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AK8" s="58">
         <f>AC8*3+AD8</f>
@@ -30415,11 +30415,11 @@
       </c>
       <c r="AN8" s="59">
         <f>1000*AK8/AK12+100*AJ8+10*AF8/AF12+1*AL8/AL12+AM8</f>
-        <v>958.88915588888892</v>
+        <v>693.24702024675332</v>
       </c>
       <c r="AO8" s="60" t="str">
         <f>IF(SUM(AC8:AE11)=12,J9,INDEX(T,70,lang))</f>
-        <v>1A</v>
+        <v>Uruguay</v>
       </c>
       <c r="AP8" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB8&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB8&amp;"_win")*($U$7:$U$54))</f>
@@ -30485,15 +30485,15 @@
       </c>
       <c r="J9" s="69" t="str">
         <f>VLOOKUP(1,AA8:AK11,2,FALSE)</f>
-        <v>Russia</v>
+        <v>Uruguay</v>
       </c>
       <c r="K9" s="70">
         <f>L9+M9+N9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="70">
         <f>VLOOKUP(1,AA8:AK11,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="70">
         <f>VLOOKUP(1,AA8:AK11,4,FALSE)</f>
@@ -30505,11 +30505,11 @@
       </c>
       <c r="O9" s="70" t="str">
         <f>VLOOKUP(1,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA8:AK11,7,FALSE)</f>
-        <v>8 - 1</v>
+        <v>5 - 0</v>
       </c>
       <c r="P9" s="71">
         <f>L9*3+M9</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R9" s="58">
         <f>DATE(2018,6,15)+TIME(7,0,0)+gmt_delta</f>
@@ -30545,7 +30545,7 @@
       </c>
       <c r="AA9" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN9))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="59" t="str">
         <f>VLOOKUP("Saudi Arabia",T,lang,FALSE)</f>
@@ -30553,7 +30553,7 @@
       </c>
       <c r="AC9" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB9 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB9 &amp; "_draw")</f>
@@ -30565,19 +30565,19 @@
       </c>
       <c r="AF9" s="58">
         <f>SUMIF($E$7:$E$54,$AB9,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB9,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="58">
         <f>SUMIF($E$7:$E$54,$AB9,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB9,$F$7:$F$54)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH9" s="58">
         <f>(AF9-AG9)+1</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AI9" s="58">
         <f>AF9-AG9</f>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AJ9" s="58">
         <f>(AI9-AI13)/AI12</f>
@@ -30585,7 +30585,7 @@
       </c>
       <c r="AK9" s="58">
         <f>AC9*3+AD9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="58">
         <f>AP9/AP12*1000+AQ9/AQ12*100+AT9/AT12*10+AR9/AR12</f>
@@ -30597,11 +30597,11 @@
       </c>
       <c r="AN9" s="59">
         <f>1000*AK9/AK12+100*AJ9+10*AF9/AF12+1*AL9/AL12+AM9</f>
-        <v>2.7149999999999999E-4</v>
+        <v>302.85741435714283</v>
       </c>
       <c r="AO9" s="60" t="str">
         <f>IF(SUM(AC8:AE11)=12,J10,INDEX(T,71,lang))</f>
-        <v>2A</v>
+        <v>Russia</v>
       </c>
       <c r="AP9" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB9&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB9&amp;"_win")*($U$7:$U$54))</f>
@@ -30681,11 +30681,11 @@
       </c>
       <c r="J10" s="72" t="str">
         <f>VLOOKUP(2,AA8:AK11,2,FALSE)</f>
-        <v>Uruguay</v>
+        <v>Russia</v>
       </c>
       <c r="K10" s="27">
         <f>L10+M10+N10</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="27">
         <f>VLOOKUP(2,AA8:AK11,3,FALSE)</f>
@@ -30697,11 +30697,11 @@
       </c>
       <c r="N10" s="27">
         <f>VLOOKUP(2,AA8:AK11,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="27" t="str">
         <f>VLOOKUP(2,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA8:AK11,7,FALSE)</f>
-        <v>2 - 0</v>
+        <v>8 - 4</v>
       </c>
       <c r="P10" s="73">
         <f>L10*3+M10</f>
@@ -30741,7 +30741,7 @@
       </c>
       <c r="AA10" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN10))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="59" t="str">
         <f>VLOOKUP("Egypt",T,lang,FALSE)</f>
@@ -30757,27 +30757,27 @@
       </c>
       <c r="AE10" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB10 &amp; "_lose")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="58">
         <f>SUMIF($E$7:$E$54,$AB10,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB10,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG10" s="58">
         <f>SUMIF($E$7:$E$54,$AB10,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB10,$F$7:$F$54)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH10" s="58">
         <f>(AF10-AG10)+1</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AI10" s="58">
         <f>AF10-AG10</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AJ10" s="58">
         <f>(AI10-AI13)/AI12</f>
-        <v>0.21428571428571427</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="AK10" s="58">
         <f>AC10*3+AD10</f>
@@ -30793,7 +30793,7 @@
       </c>
       <c r="AN10" s="59">
         <f>1000*AK10/AK12+100*AJ10+10*AF10/AF12+1*AL10/AL12+AM10</f>
-        <v>22.540085039682538</v>
+        <v>11.948454448051949</v>
       </c>
       <c r="AP10" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB10&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB10&amp;"_win")*($U$7:$U$54))</f>
@@ -30815,12 +30815,12 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="129">
+      <c r="AY10" s="118">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
         <f>AO8</f>
-        <v>1A</v>
+        <v>Uruguay</v>
       </c>
       <c r="BA10" s="29"/>
       <c r="BB10" s="30"/>
@@ -30875,15 +30875,15 @@
       </c>
       <c r="J11" s="72" t="str">
         <f>VLOOKUP(3,AA8:AK11,2,FALSE)</f>
-        <v>Egypt</v>
+        <v>Saudi Arabia</v>
       </c>
       <c r="K11" s="27">
         <f>L11+M11+N11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="27">
         <f>VLOOKUP(3,AA8:AK11,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="27">
         <f>VLOOKUP(3,AA8:AK11,4,FALSE)</f>
@@ -30895,11 +30895,11 @@
       </c>
       <c r="O11" s="27" t="str">
         <f>VLOOKUP(3,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA8:AK11,7,FALSE)</f>
-        <v>1 - 4</v>
+        <v>2 - 7</v>
       </c>
       <c r="P11" s="73">
         <f>L11*3+M11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="58">
         <f>DATE(2018,6,15)+TIME(23,0,0)+gmt_delta</f>
@@ -30935,7 +30935,7 @@
       </c>
       <c r="AA11" s="58">
         <f>COUNTIF(AN8:AN11,CONCATENATE("&gt;=",AN11))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="59" t="str">
         <f>VLOOKUP("Uruguay",T,lang,FALSE)</f>
@@ -30943,7 +30943,7 @@
       </c>
       <c r="AC11" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB11 &amp; "_win")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB11 &amp; "_draw")</f>
@@ -30955,7 +30955,7 @@
       </c>
       <c r="AF11" s="58">
         <f>SUMIF($E$7:$E$54,$AB11,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB11,$G$7:$G$54)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG11" s="58">
         <f>SUMIF($E$7:$E$54,$AB11,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB11,$F$7:$F$54)</f>
@@ -30963,19 +30963,19 @@
       </c>
       <c r="AH11" s="58">
         <f>(AF11-AG11)+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI11" s="58">
         <f>AF11-AG11</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ11" s="58">
         <f>(AI11-AI13)/AI12</f>
-        <v>0.5714285714285714</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AK11" s="58">
         <f>AC11*3+AD11</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL11" s="58">
         <f>AP11/AP12*1000+AQ11/AQ12*100+AT11/AT12*10+AR11/AR12</f>
@@ -30987,7 +30987,7 @@
       </c>
       <c r="AN11" s="59">
         <f>1000*AK11/AK12+100*AJ11+10*AF11/AF12+1*AL11/AL12+AM11</f>
-        <v>916.50839850793636</v>
+        <v>998.05241005194796</v>
       </c>
       <c r="AP11" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB11&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB11&amp;"_win")*($U$7:$U$54))</f>
@@ -31009,7 +31009,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="130"/>
+      <c r="AY11" s="119"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>2B</v>
@@ -31070,11 +31070,11 @@
       </c>
       <c r="J12" s="74" t="str">
         <f>VLOOKUP(4,AA8:AK11,2,FALSE)</f>
-        <v>Saudi Arabia</v>
+        <v>Egypt</v>
       </c>
       <c r="K12" s="75">
         <f>L12+M12+N12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="75">
         <f>VLOOKUP(4,AA8:AK11,3,FALSE)</f>
@@ -31086,11 +31086,11 @@
       </c>
       <c r="N12" s="75">
         <f>VLOOKUP(4,AA8:AK11,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="75" t="str">
         <f>VLOOKUP(4,AA8:AK11,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA8:AK11,7,FALSE)</f>
-        <v>0 - 6</v>
+        <v>2 - 6</v>
       </c>
       <c r="P12" s="76">
         <f>L12*3+M12</f>
@@ -31130,7 +31130,7 @@
       </c>
       <c r="AC12" s="58">
         <f t="shared" ref="AC12:AL12" si="10">MAX(AC8:AC11)-MIN(AC8:AC11)+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="58">
         <f t="shared" si="10"/>
@@ -31138,27 +31138,27 @@
       </c>
       <c r="AE12" s="58">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF12" s="58">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG12" s="58">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" s="58">
         <f>MAX(AH8:AH11)-AH13+1</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI12" s="58">
         <f>MAX(AI8:AI11)-AI13+1</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK12" s="58">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL12" s="58">
         <f t="shared" si="10"/>
@@ -31190,7 +31190,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="129">
+      <c r="BE12" s="118">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31283,11 +31283,11 @@
       </c>
       <c r="AH13" s="58">
         <f>MIN(AH8:AH11)</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AI13" s="58">
         <f>MIN(AI8:AI11)</f>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AY13" s="25" t="str">
         <f>INDEX(T,24+MONTH(R59),lang) &amp; " " &amp; DAY(R59) &amp; ", " &amp; YEAR(R59) &amp; "   " &amp; (IF(HOUR(R59)&lt;10,0,"")&amp;HOUR(R59)) &amp; ":" &amp;  (IF(MINUTE(R59)&lt;10,0,"")&amp;MINUTE(R59))</f>
@@ -31298,7 +31298,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="130"/>
+      <c r="BE13" s="119"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>W50</v>
@@ -31488,7 +31488,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="129">
+      <c r="AY14" s="118">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31686,7 +31686,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="130"/>
+      <c r="AY15" s="119"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>2D</v>
@@ -31893,7 +31893,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="129">
+      <c r="BK16" s="118">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32090,7 +32090,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="130"/>
+      <c r="BK17" s="119"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32250,7 +32250,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="129">
+      <c r="AY18" s="118">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32355,7 +32355,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="130"/>
+      <c r="AY19" s="119"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>2F</v>
@@ -32560,7 +32560,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="129">
+      <c r="BE20" s="118">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32761,7 +32761,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="130"/>
+      <c r="BE21" s="119"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32947,7 +32947,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="129">
+      <c r="AY22" s="118">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33144,7 +33144,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="130"/>
+      <c r="AY23" s="119"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>2H</v>
@@ -33165,7 +33165,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="129">
+      <c r="BQ23" s="118">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33338,7 +33338,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="130"/>
+      <c r="BQ24" s="119"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33619,7 +33619,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="129">
+      <c r="AY26" s="118">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33817,10 +33817,10 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="130"/>
+      <c r="AY27" s="119"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
-        <v>2A</v>
+        <v>Russia</v>
       </c>
       <c r="BA27" s="32"/>
       <c r="BB27" s="33"/>
@@ -34018,7 +34018,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="129">
+      <c r="BE28" s="118">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34215,7 +34215,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="130"/>
+      <c r="BE29" s="119"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34381,7 +34381,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="129">
+      <c r="AY30" s="118">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34479,7 +34479,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="130"/>
+      <c r="AY31" s="119"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>2C</v>
@@ -34503,13 +34503,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="131" t="str">
+      <c r="BQ31" s="124" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="132"/>
-      <c r="BS31" s="132"/>
-      <c r="BT31" s="133"/>
+      <c r="BR31" s="125"/>
+      <c r="BS31" s="125"/>
+      <c r="BT31" s="126"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34693,7 +34693,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="129">
+      <c r="BK32" s="118">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34704,10 +34704,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="134"/>
-      <c r="BR32" s="135"/>
-      <c r="BS32" s="135"/>
-      <c r="BT32" s="136"/>
+      <c r="BQ32" s="127"/>
+      <c r="BR32" s="128"/>
+      <c r="BS32" s="128"/>
+      <c r="BT32" s="129"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34894,7 +34894,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="130"/>
+      <c r="BK33" s="119"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35074,7 +35074,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="129">
+      <c r="AY34" s="118">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35271,7 +35271,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="130"/>
+      <c r="AY35" s="119"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>2E</v>
@@ -35295,7 +35295,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="129">
+      <c r="BQ35" s="118">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35457,7 +35457,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="129">
+      <c r="BE36" s="118">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35474,7 +35474,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="130"/>
+      <c r="BQ36" s="119"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35561,7 +35561,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="130"/>
+      <c r="BE37" s="119"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35751,7 +35751,7 @@
         <f>AR38-AS38</f>
         <v>1</v>
       </c>
-      <c r="AY38" s="129">
+      <c r="AY38" s="118">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35795,8 +35795,12 @@
         <f>AB11</f>
         <v>Uruguay</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
+      <c r="F39" s="23">
+        <v>3</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0</v>
+      </c>
       <c r="H39" s="67" t="str">
         <f>AB8</f>
         <v>Russia</v>
@@ -35835,11 +35839,11 @@
       </c>
       <c r="S39" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Uruguay_win</v>
       </c>
       <c r="T39" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Russia_lose</v>
       </c>
       <c r="U39" s="59">
         <f t="shared" si="4"/>
@@ -35857,9 +35861,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="58" t="str">
+      <c r="Y39" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA39" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN39))</f>
@@ -35941,7 +35945,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="130"/>
+      <c r="AY39" s="119"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>2G</v>
@@ -35981,8 +35985,12 @@
         <f>AB9</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="F40" s="23">
+        <v>2</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1</v>
+      </c>
       <c r="H40" s="67" t="str">
         <f>AB10</f>
         <v>Egypt</v>
@@ -36021,11 +36029,11 @@
       </c>
       <c r="S40" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Saudi Arabia_win</v>
       </c>
       <c r="T40" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Egypt_lose</v>
       </c>
       <c r="U40" s="59">
         <f t="shared" si="4"/>
@@ -36043,9 +36051,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="58" t="str">
+      <c r="Y40" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA40" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN40))</f>
@@ -36286,23 +36294,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="146" t="str">
+      <c r="BJ41" s="120" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="146"/>
-      <c r="BL41" s="146"/>
-      <c r="BM41" s="146"/>
-      <c r="BN41" s="146"/>
-      <c r="BO41" s="148" t="str">
+      <c r="BK41" s="120"/>
+      <c r="BL41" s="120"/>
+      <c r="BM41" s="120"/>
+      <c r="BN41" s="120"/>
+      <c r="BO41" s="122" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="148"/>
-      <c r="BQ41" s="148"/>
-      <c r="BR41" s="148"/>
-      <c r="BS41" s="148"/>
-      <c r="BT41" s="148"/>
+      <c r="BP41" s="122"/>
+      <c r="BQ41" s="122"/>
+      <c r="BR41" s="122"/>
+      <c r="BS41" s="122"/>
+      <c r="BT41" s="122"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36446,17 +36454,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>3</v>
       </c>
-      <c r="BJ42" s="147"/>
-      <c r="BK42" s="147"/>
-      <c r="BL42" s="147"/>
-      <c r="BM42" s="147"/>
-      <c r="BN42" s="147"/>
-      <c r="BO42" s="149"/>
-      <c r="BP42" s="149"/>
-      <c r="BQ42" s="149"/>
-      <c r="BR42" s="149"/>
-      <c r="BS42" s="149"/>
-      <c r="BT42" s="149"/>
+      <c r="BJ42" s="121"/>
+      <c r="BK42" s="121"/>
+      <c r="BL42" s="121"/>
+      <c r="BM42" s="121"/>
+      <c r="BN42" s="121"/>
+      <c r="BO42" s="123"/>
+      <c r="BP42" s="123"/>
+      <c r="BQ42" s="123"/>
+      <c r="BR42" s="123"/>
+      <c r="BS42" s="123"/>
+      <c r="BT42" s="123"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37022,12 +37030,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="137" t="s">
+      <c r="AY46" s="109" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="138"/>
-      <c r="BA46" s="138"/>
-      <c r="BB46" s="139"/>
+      <c r="AZ46" s="110"/>
+      <c r="BA46" s="110"/>
+      <c r="BB46" s="111"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37191,10 +37199,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="140"/>
-      <c r="AZ47" s="141"/>
-      <c r="BA47" s="141"/>
-      <c r="BB47" s="142"/>
+      <c r="AY47" s="112"/>
+      <c r="AZ47" s="113"/>
+      <c r="BA47" s="113"/>
+      <c r="BB47" s="114"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37338,10 +37346,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="140"/>
-      <c r="AZ48" s="141"/>
-      <c r="BA48" s="141"/>
-      <c r="BB48" s="142"/>
+      <c r="AY48" s="112"/>
+      <c r="AZ48" s="113"/>
+      <c r="BA48" s="113"/>
+      <c r="BB48" s="114"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37409,10 +37417,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-8</v>
       </c>
-      <c r="AY49" s="140"/>
-      <c r="AZ49" s="141"/>
-      <c r="BA49" s="141"/>
-      <c r="BB49" s="142"/>
+      <c r="AY49" s="112"/>
+      <c r="AZ49" s="113"/>
+      <c r="BA49" s="113"/>
+      <c r="BB49" s="114"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37580,10 +37588,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="140"/>
-      <c r="AZ50" s="141"/>
-      <c r="BA50" s="141"/>
-      <c r="BB50" s="142"/>
+      <c r="AY50" s="112"/>
+      <c r="AZ50" s="113"/>
+      <c r="BA50" s="113"/>
+      <c r="BB50" s="114"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37751,10 +37759,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="140"/>
-      <c r="AZ51" s="141"/>
-      <c r="BA51" s="141"/>
-      <c r="BB51" s="142"/>
+      <c r="AY51" s="112"/>
+      <c r="AZ51" s="113"/>
+      <c r="BA51" s="113"/>
+      <c r="BB51" s="114"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -37918,10 +37926,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="143"/>
-      <c r="AZ52" s="144"/>
-      <c r="BA52" s="144"/>
-      <c r="BB52" s="145"/>
+      <c r="AY52" s="115"/>
+      <c r="AZ52" s="116"/>
+      <c r="BA52" s="116"/>
+      <c r="BB52" s="117"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38510,6 +38518,27 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38517,27 +38546,6 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -9316,90 +9316,6 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9478,6 +9394,90 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29897,7 +29897,7 @@
   <dimension ref="A1:BT97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29952,25 +29952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="str">
+      <c r="A1" s="115" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30033,11 +30033,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="137" t="str">
+      <c r="O3" s="116" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="137"/>
+      <c r="P3" s="116"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30063,43 +30063,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="str">
+      <c r="A5" s="117" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="J5" s="144" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="J5" s="123" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="125"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="128"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30163,34 +30163,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="130" t="str">
+      <c r="AY6" s="109" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="132"/>
-      <c r="BE6" s="130" t="str">
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="111"/>
+      <c r="BE6" s="109" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="132"/>
-      <c r="BK6" s="130" t="str">
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="111"/>
+      <c r="BK6" s="109" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="131"/>
-      <c r="BM6" s="131"/>
-      <c r="BN6" s="132"/>
-      <c r="BQ6" s="130" t="str">
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="111"/>
+      <c r="BQ6" s="109" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="131"/>
-      <c r="BS6" s="131"/>
-      <c r="BT6" s="132"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="111"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30254,22 +30254,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="135"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="134"/>
-      <c r="BH7" s="135"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="134"/>
-      <c r="BM7" s="134"/>
-      <c r="BN7" s="135"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="134"/>
-      <c r="BS7" s="134"/>
-      <c r="BT7" s="135"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="114"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="114"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="113"/>
+      <c r="BM7" s="113"/>
+      <c r="BN7" s="114"/>
+      <c r="BQ7" s="112"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="114"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30525,15 +30525,15 @@
       </c>
       <c r="U9" s="59">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="58">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="58">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="58">
         <f t="shared" si="7"/>
@@ -30815,7 +30815,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="118">
+      <c r="AY10" s="129">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31009,10 +31009,10 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="119"/>
+      <c r="AY11" s="130"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
-        <v>2B</v>
+        <v>Portugal</v>
       </c>
       <c r="BA11" s="32"/>
       <c r="BB11" s="33"/>
@@ -31190,7 +31190,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="118">
+      <c r="BE12" s="129">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31298,7 +31298,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="119"/>
+      <c r="BE13" s="130"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>W50</v>
@@ -31410,7 +31410,7 @@
       </c>
       <c r="AA14" s="58">
         <f>COUNTIF(AN14:AN17,CONCATENATE("&gt;=",AN14))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB14" s="59" t="str">
         <f>VLOOKUP("Portugal",T,lang,FALSE)</f>
@@ -31422,7 +31422,7 @@
       </c>
       <c r="AD14" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB14 &amp; "_draw")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB14 &amp; "_lose")</f>
@@ -31430,15 +31430,15 @@
       </c>
       <c r="AF14" s="58">
         <f>SUMIF($E$7:$E$54,$AB14,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB14,$G$7:$G$54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" s="58">
         <f>SUMIF($E$7:$E$54,$AB14,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB14,$F$7:$F$54)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="58">
         <f>(AF14-AG14)*100+AK14*10000+AF14</f>
-        <v>40104</v>
+        <v>50105</v>
       </c>
       <c r="AI14" s="58">
         <f>AF14-AG14</f>
@@ -31450,11 +31450,11 @@
       </c>
       <c r="AK14" s="58">
         <f>AC14*3+AD14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="58">
         <f>AP14/AP18*1000+AQ14/AQ18*100+AT14/AT18*10+AR14/AR18</f>
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="58">
         <f>VLOOKUP(AB14,db_fifarank,2,FALSE)/2000000</f>
@@ -31462,11 +31462,11 @@
       </c>
       <c r="AN14" s="59">
         <f>1000*AK14/AK18+100*AJ14+10*AF14/AF18+1*AL14/AL18+AM14</f>
-        <v>883.98135532850245</v>
+        <v>1085.000679</v>
       </c>
       <c r="AO14" s="60" t="str">
         <f>IF(SUM(AC14:AE17)=12,J15,INDEX(T,72,lang))</f>
-        <v>1B</v>
+        <v>Spain</v>
       </c>
       <c r="AP14" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB14&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB14&amp;"_win")*($U$7:$U$54))</f>
@@ -31474,21 +31474,21 @@
       </c>
       <c r="AQ14" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB14&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB14&amp;"_draw")*($U$7:$U$54))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB14)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB14)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB14)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB14)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="62">
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="118">
+      <c r="AY14" s="129">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31548,11 +31548,11 @@
       </c>
       <c r="J15" s="69" t="str">
         <f>VLOOKUP(1,AA14:AK17,2,FALSE)</f>
-        <v>Portugal</v>
+        <v>Spain</v>
       </c>
       <c r="K15" s="70">
         <f>L15+M15+N15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="70">
         <f>VLOOKUP(1,AA14:AK17,3,FALSE)</f>
@@ -31560,7 +31560,7 @@
       </c>
       <c r="M15" s="70">
         <f>VLOOKUP(1,AA14:AK17,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="70">
         <f>VLOOKUP(1,AA14:AK17,5,FALSE)</f>
@@ -31568,11 +31568,11 @@
       </c>
       <c r="O15" s="70" t="str">
         <f>VLOOKUP(1,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA14:AK17,7,FALSE)</f>
-        <v>4 - 3</v>
+        <v>6 - 5</v>
       </c>
       <c r="P15" s="71">
         <f>L15*3+M15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" s="58">
         <f>DATE(2018,6,17)+TIME(7,0,0)+gmt_delta</f>
@@ -31608,7 +31608,7 @@
       </c>
       <c r="AA15" s="58">
         <f>COUNTIF(AN14:AN17,CONCATENATE("&gt;=",AN15))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="59" t="str">
         <f>VLOOKUP("Spain",T,lang,FALSE)</f>
@@ -31620,7 +31620,7 @@
       </c>
       <c r="AD15" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB15 &amp; "_draw")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB15 &amp; "_lose")</f>
@@ -31628,15 +31628,15 @@
       </c>
       <c r="AF15" s="58">
         <f>SUMIF($E$7:$E$54,$AB15,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB15,$G$7:$G$54)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG15" s="58">
         <f>SUMIF($E$7:$E$54,$AB15,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB15,$F$7:$F$54)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="58">
         <f>(AF15-AG15)*100+AK15*10000+AF15</f>
-        <v>40104</v>
+        <v>50106</v>
       </c>
       <c r="AI15" s="58">
         <f>AF15-AG15</f>
@@ -31648,11 +31648,11 @@
       </c>
       <c r="AK15" s="58">
         <f>AC15*3+AD15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="58">
         <f>AP15/AP18*1000+AQ15/AQ18*100+AT15/AT18*10+AR15/AR18</f>
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="58">
         <f>VLOOKUP(AB15,db_fifarank,2,FALSE)/2000000</f>
@@ -31660,11 +31660,11 @@
       </c>
       <c r="AN15" s="59">
         <f>1000*AK15/AK18+100*AJ15+10*AF15/AF18+1*AL15/AL18+AM15</f>
-        <v>883.98129182850244</v>
+        <v>1087.0006155000001</v>
       </c>
       <c r="AO15" s="60" t="str">
         <f>IF(SUM(AC14:AE17)=12,J16,INDEX(T,73,lang))</f>
-        <v>2B</v>
+        <v>Portugal</v>
       </c>
       <c r="AP15" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB15&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB15&amp;"_win")*($U$7:$U$54))</f>
@@ -31672,21 +31672,21 @@
       </c>
       <c r="AQ15" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB15&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB15&amp;"_draw")*($U$7:$U$54))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB15)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB15)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB15)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB15)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="62">
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="119"/>
+      <c r="AY15" s="130"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>2D</v>
@@ -31747,11 +31747,11 @@
       </c>
       <c r="J16" s="72" t="str">
         <f>VLOOKUP(2,AA14:AK17,2,FALSE)</f>
-        <v>Spain</v>
+        <v>Portugal</v>
       </c>
       <c r="K16" s="27">
         <f>L16+M16+N16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="27">
         <f>VLOOKUP(2,AA14:AK17,3,FALSE)</f>
@@ -31759,7 +31759,7 @@
       </c>
       <c r="M16" s="27">
         <f>VLOOKUP(2,AA14:AK17,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="27">
         <f>VLOOKUP(2,AA14:AK17,5,FALSE)</f>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O16" s="27" t="str">
         <f>VLOOKUP(2,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA14:AK17,7,FALSE)</f>
-        <v>4 - 3</v>
+        <v>5 - 4</v>
       </c>
       <c r="P16" s="73">
         <f>L16*3+M16</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" s="58">
         <f>DATE(2018,6,17)+TIME(1,0,0)+gmt_delta</f>
@@ -31819,7 +31819,7 @@
       </c>
       <c r="AD16" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB16 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB16 &amp; "_lose")</f>
@@ -31827,15 +31827,15 @@
       </c>
       <c r="AF16" s="58">
         <f>SUMIF($E$7:$E$54,$AB16,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB16,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG16" s="58">
         <f>SUMIF($E$7:$E$54,$AB16,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB16,$F$7:$F$54)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="58">
         <f>(AF16-AG16)*100+AK16*10000+AF16</f>
-        <v>-200</v>
+        <v>9802</v>
       </c>
       <c r="AI16" s="58">
         <f>AF16-AG16</f>
@@ -31847,7 +31847,7 @@
       </c>
       <c r="AK16" s="58">
         <f>AC16*3+AD16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="58">
         <f>AP16/AP18*1000+AQ16/AQ18*100+AT16/AT18*10+AR16/AR18</f>
@@ -31859,7 +31859,7 @@
       </c>
       <c r="AN16" s="59">
         <f>1000*AK16/AK18+100*AJ16+10*AF16/AF18+1*AL16/AL18+AM16</f>
-        <v>3.6900000000000002E-4</v>
+        <v>204.00036900000001</v>
       </c>
       <c r="AP16" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB16&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB16&amp;"_win")*($U$7:$U$54))</f>
@@ -31893,7 +31893,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="118">
+      <c r="BK16" s="129">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -31945,7 +31945,7 @@
       </c>
       <c r="K17" s="27">
         <f>L17+M17+N17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="27">
         <f>VLOOKUP(3,AA14:AK17,3,FALSE)</f>
@@ -31953,7 +31953,7 @@
       </c>
       <c r="M17" s="27">
         <f>VLOOKUP(3,AA14:AK17,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="27">
         <f>VLOOKUP(3,AA14:AK17,5,FALSE)</f>
@@ -31961,11 +31961,11 @@
       </c>
       <c r="O17" s="27" t="str">
         <f>VLOOKUP(3,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA14:AK17,7,FALSE)</f>
-        <v>1 - 1</v>
+        <v>2 - 2</v>
       </c>
       <c r="P17" s="73">
         <f>L17*3+M17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" s="58">
         <f>DATE(2018,6,17)+TIME(4,0,0)+gmt_delta</f>
@@ -32013,7 +32013,7 @@
       </c>
       <c r="AD17" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB17 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB17 &amp; "_lose")</f>
@@ -32021,15 +32021,15 @@
       </c>
       <c r="AF17" s="58">
         <f>SUMIF($E$7:$E$54,$AB17,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB17,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17" s="58">
         <f>SUMIF($E$7:$E$54,$AB17,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB17,$F$7:$F$54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="58">
         <f>(AF17-AG17)*100+AK17*10000+AF17</f>
-        <v>30001</v>
+        <v>40002</v>
       </c>
       <c r="AI17" s="58">
         <f>AF17-AG17</f>
@@ -32041,7 +32041,7 @@
       </c>
       <c r="AK17" s="58">
         <f>AC17*3+AD17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL17" s="58">
         <f>AP17/AP18*1000+AQ17/AQ18*100+AT17/AT18*10+AR17/AR18</f>
@@ -32053,7 +32053,7 @@
       </c>
       <c r="AN17" s="59">
         <f>1000*AK17/AK18+100*AJ17+10*AF17/AF18+1*AL17/AL18+AM17</f>
-        <v>652.00039900000002</v>
+        <v>854.00039900000002</v>
       </c>
       <c r="AP17" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB17&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB17&amp;"_win")*($U$7:$U$54))</f>
@@ -32090,7 +32090,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="119"/>
+      <c r="BK17" s="130"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32140,7 +32140,7 @@
       </c>
       <c r="K18" s="75">
         <f>L18+M18+N18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="75">
         <f>VLOOKUP(4,AA14:AK17,3,FALSE)</f>
@@ -32148,7 +32148,7 @@
       </c>
       <c r="M18" s="75">
         <f>VLOOKUP(4,AA14:AK17,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="75">
         <f>VLOOKUP(4,AA14:AK17,5,FALSE)</f>
@@ -32156,11 +32156,11 @@
       </c>
       <c r="O18" s="75" t="str">
         <f>VLOOKUP(4,AA14:AK17,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA14:AK17,7,FALSE)</f>
-        <v>0 - 2</v>
+        <v>2 - 4</v>
       </c>
       <c r="P18" s="76">
         <f>L18*3+M18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="58">
         <f>DATE(2018,6,18)+TIME(1,0,0)+gmt_delta</f>
@@ -32212,7 +32212,7 @@
       </c>
       <c r="AG18" s="58">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH18" s="58">
         <f>MAX(AH14:AH17)-AH19+1</f>
@@ -32228,7 +32228,7 @@
       </c>
       <c r="AL18" s="58">
         <f t="shared" si="11"/>
-        <v>51.75</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="58">
         <f>MAX(AP14:AP17)-MIN(AP14:AP17)+1</f>
@@ -32236,21 +32236,21 @@
       </c>
       <c r="AQ18" s="58">
         <f>MAX(AQ14:AQ17)-MIN(AQ14:AQ17)+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="58">
         <f>MAX(AR14:AR17)-MIN(AR14:AR17)+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS18" s="58">
         <f>MAX(AS14:AS17)-MIN(AS14:AS17)+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="58">
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="118">
+      <c r="AY18" s="129">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32349,13 +32349,13 @@
       </c>
       <c r="AH19" s="58">
         <f>MIN(AH14:AH17)</f>
-        <v>-200</v>
+        <v>9802</v>
       </c>
       <c r="AI19" s="58">
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="119"/>
+      <c r="AY19" s="130"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>2F</v>
@@ -32560,7 +32560,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="118">
+      <c r="BE20" s="129">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32761,7 +32761,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="119"/>
+      <c r="BE21" s="130"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32947,7 +32947,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="118">
+      <c r="AY22" s="129">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33144,7 +33144,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="119"/>
+      <c r="AY23" s="130"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>2H</v>
@@ -33165,7 +33165,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="118">
+      <c r="BQ23" s="129">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33338,7 +33338,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="119"/>
+      <c r="BQ24" s="130"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33619,12 +33619,12 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="118">
+      <c r="AY26" s="129">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
         <f>AO14</f>
-        <v>1B</v>
+        <v>Spain</v>
       </c>
       <c r="BA26" s="29"/>
       <c r="BB26" s="30"/>
@@ -33817,7 +33817,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="119"/>
+      <c r="AY27" s="130"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -34018,7 +34018,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="118">
+      <c r="BE28" s="129">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34215,7 +34215,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="119"/>
+      <c r="BE29" s="130"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34381,7 +34381,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="118">
+      <c r="AY30" s="129">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34479,7 +34479,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="119"/>
+      <c r="AY31" s="130"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>2C</v>
@@ -34503,13 +34503,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="124" t="str">
+      <c r="BQ31" s="131" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="125"/>
-      <c r="BS31" s="125"/>
-      <c r="BT31" s="126"/>
+      <c r="BR31" s="132"/>
+      <c r="BS31" s="132"/>
+      <c r="BT31" s="133"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34693,7 +34693,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="118">
+      <c r="BK32" s="129">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34704,10 +34704,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="127"/>
-      <c r="BR32" s="128"/>
-      <c r="BS32" s="128"/>
-      <c r="BT32" s="129"/>
+      <c r="BQ32" s="134"/>
+      <c r="BR32" s="135"/>
+      <c r="BS32" s="135"/>
+      <c r="BT32" s="136"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34894,7 +34894,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="119"/>
+      <c r="BK33" s="130"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35074,7 +35074,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="118">
+      <c r="AY34" s="129">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35271,7 +35271,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="119"/>
+      <c r="AY35" s="130"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>2E</v>
@@ -35295,7 +35295,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="118">
+      <c r="BQ35" s="129">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35457,7 +35457,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="118">
+      <c r="BE36" s="129">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35474,7 +35474,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="119"/>
+      <c r="BQ36" s="130"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35561,7 +35561,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="119"/>
+      <c r="BE37" s="130"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35751,7 +35751,7 @@
         <f>AR38-AS38</f>
         <v>1</v>
       </c>
-      <c r="AY38" s="118">
+      <c r="AY38" s="129">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35945,7 +35945,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="119"/>
+      <c r="AY39" s="130"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>2G</v>
@@ -36152,8 +36152,12 @@
         <f>AB17</f>
         <v>Iran</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="F41" s="23">
+        <v>1</v>
+      </c>
+      <c r="G41" s="24">
+        <v>1</v>
+      </c>
       <c r="H41" s="67" t="str">
         <f>AB14</f>
         <v>Portugal</v>
@@ -36192,11 +36196,11 @@
       </c>
       <c r="S41" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Iran_draw</v>
       </c>
       <c r="T41" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Portugal_draw</v>
       </c>
       <c r="U41" s="59">
         <f t="shared" si="4"/>
@@ -36214,9 +36218,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="58" t="str">
+      <c r="Y41" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA41" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN41))</f>
@@ -36294,23 +36298,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="120" t="str">
+      <c r="BJ41" s="146" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="120"/>
-      <c r="BL41" s="120"/>
-      <c r="BM41" s="120"/>
-      <c r="BN41" s="120"/>
-      <c r="BO41" s="122" t="str">
+      <c r="BK41" s="146"/>
+      <c r="BL41" s="146"/>
+      <c r="BM41" s="146"/>
+      <c r="BN41" s="146"/>
+      <c r="BO41" s="148" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="122"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="122"/>
-      <c r="BS41" s="122"/>
-      <c r="BT41" s="122"/>
+      <c r="BP41" s="148"/>
+      <c r="BQ41" s="148"/>
+      <c r="BR41" s="148"/>
+      <c r="BS41" s="148"/>
+      <c r="BT41" s="148"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36332,8 +36336,12 @@
         <f>AB15</f>
         <v>Spain</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
+      <c r="F42" s="23">
+        <v>2</v>
+      </c>
+      <c r="G42" s="24">
+        <v>2</v>
+      </c>
       <c r="H42" s="67" t="str">
         <f>AB16</f>
         <v>Morocco</v>
@@ -36372,11 +36380,11 @@
       </c>
       <c r="S42" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Spain_draw</v>
       </c>
       <c r="T42" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Morocco_draw</v>
       </c>
       <c r="U42" s="59">
         <f t="shared" si="4"/>
@@ -36394,9 +36402,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="58" t="str">
+      <c r="Y42" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AC42" s="58">
         <f t="shared" ref="AC42:AL42" si="15">MAX(AC38:AC41)-MIN(AC38:AC41)+1</f>
@@ -36454,17 +36462,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>3</v>
       </c>
-      <c r="BJ42" s="121"/>
-      <c r="BK42" s="121"/>
-      <c r="BL42" s="121"/>
-      <c r="BM42" s="121"/>
-      <c r="BN42" s="121"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="123"/>
-      <c r="BT42" s="123"/>
+      <c r="BJ42" s="147"/>
+      <c r="BK42" s="147"/>
+      <c r="BL42" s="147"/>
+      <c r="BM42" s="147"/>
+      <c r="BN42" s="147"/>
+      <c r="BO42" s="149"/>
+      <c r="BP42" s="149"/>
+      <c r="BQ42" s="149"/>
+      <c r="BR42" s="149"/>
+      <c r="BS42" s="149"/>
+      <c r="BT42" s="149"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37030,12 +37038,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="109" t="s">
+      <c r="AY46" s="137" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="110"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="111"/>
+      <c r="AZ46" s="138"/>
+      <c r="BA46" s="138"/>
+      <c r="BB46" s="139"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37199,10 +37207,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="112"/>
-      <c r="AZ47" s="113"/>
-      <c r="BA47" s="113"/>
-      <c r="BB47" s="114"/>
+      <c r="AY47" s="140"/>
+      <c r="AZ47" s="141"/>
+      <c r="BA47" s="141"/>
+      <c r="BB47" s="142"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37346,10 +37354,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="112"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="114"/>
+      <c r="AY48" s="140"/>
+      <c r="AZ48" s="141"/>
+      <c r="BA48" s="141"/>
+      <c r="BB48" s="142"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37417,10 +37425,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-8</v>
       </c>
-      <c r="AY49" s="112"/>
-      <c r="AZ49" s="113"/>
-      <c r="BA49" s="113"/>
-      <c r="BB49" s="114"/>
+      <c r="AY49" s="140"/>
+      <c r="AZ49" s="141"/>
+      <c r="BA49" s="141"/>
+      <c r="BB49" s="142"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37588,10 +37596,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="112"/>
-      <c r="AZ50" s="113"/>
-      <c r="BA50" s="113"/>
-      <c r="BB50" s="114"/>
+      <c r="AY50" s="140"/>
+      <c r="AZ50" s="141"/>
+      <c r="BA50" s="141"/>
+      <c r="BB50" s="142"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37759,10 +37767,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="112"/>
-      <c r="AZ51" s="113"/>
-      <c r="BA51" s="113"/>
-      <c r="BB51" s="114"/>
+      <c r="AY51" s="140"/>
+      <c r="AZ51" s="141"/>
+      <c r="BA51" s="141"/>
+      <c r="BB51" s="142"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -37926,10 +37934,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="115"/>
-      <c r="AZ52" s="116"/>
-      <c r="BA52" s="116"/>
-      <c r="BB52" s="117"/>
+      <c r="AY52" s="143"/>
+      <c r="AZ52" s="144"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="145"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38518,27 +38526,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38546,6 +38533,27 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -9316,6 +9316,90 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9394,90 +9478,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29897,7 +29897,7 @@
   <dimension ref="A1:BT97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29952,25 +29952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="str">
+      <c r="A1" s="136" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30033,11 +30033,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="116" t="str">
+      <c r="O3" s="137" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="116"/>
+      <c r="P3" s="137"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30063,43 +30063,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="str">
+      <c r="A5" s="138" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="J5" s="123" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+      <c r="J5" s="144" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="125"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30163,34 +30163,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="109" t="str">
+      <c r="AY6" s="130" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="111"/>
-      <c r="BE6" s="109" t="str">
+      <c r="AZ6" s="131"/>
+      <c r="BA6" s="131"/>
+      <c r="BB6" s="132"/>
+      <c r="BE6" s="130" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="111"/>
-      <c r="BK6" s="109" t="str">
+      <c r="BF6" s="131"/>
+      <c r="BG6" s="131"/>
+      <c r="BH6" s="132"/>
+      <c r="BK6" s="130" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="110"/>
-      <c r="BM6" s="110"/>
-      <c r="BN6" s="111"/>
-      <c r="BQ6" s="109" t="str">
+      <c r="BL6" s="131"/>
+      <c r="BM6" s="131"/>
+      <c r="BN6" s="132"/>
+      <c r="BQ6" s="130" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="110"/>
-      <c r="BS6" s="110"/>
-      <c r="BT6" s="111"/>
+      <c r="BR6" s="131"/>
+      <c r="BS6" s="131"/>
+      <c r="BT6" s="132"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30254,22 +30254,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="114"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="113"/>
-      <c r="BG7" s="113"/>
-      <c r="BH7" s="114"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="113"/>
-      <c r="BM7" s="113"/>
-      <c r="BN7" s="114"/>
-      <c r="BQ7" s="112"/>
-      <c r="BR7" s="113"/>
-      <c r="BS7" s="113"/>
-      <c r="BT7" s="114"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="134"/>
+      <c r="BA7" s="134"/>
+      <c r="BB7" s="135"/>
+      <c r="BE7" s="133"/>
+      <c r="BF7" s="134"/>
+      <c r="BG7" s="134"/>
+      <c r="BH7" s="135"/>
+      <c r="BK7" s="133"/>
+      <c r="BL7" s="134"/>
+      <c r="BM7" s="134"/>
+      <c r="BN7" s="135"/>
+      <c r="BQ7" s="133"/>
+      <c r="BR7" s="134"/>
+      <c r="BS7" s="134"/>
+      <c r="BT7" s="135"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30815,7 +30815,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="129">
+      <c r="AY10" s="118">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31009,7 +31009,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="130"/>
+      <c r="AY11" s="119"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
@@ -31190,7 +31190,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="129">
+      <c r="BE12" s="118">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31298,7 +31298,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="130"/>
+      <c r="BE13" s="119"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>W50</v>
@@ -31488,12 +31488,12 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="129">
+      <c r="AY14" s="118">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
         <f>AO20</f>
-        <v>1C</v>
+        <v>France</v>
       </c>
       <c r="BA14" s="29"/>
       <c r="BB14" s="30"/>
@@ -31686,7 +31686,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="130"/>
+      <c r="AY15" s="119"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>2D</v>
@@ -31893,7 +31893,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="129">
+      <c r="BK16" s="118">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32090,7 +32090,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="130"/>
+      <c r="BK17" s="119"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32250,7 +32250,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="129">
+      <c r="AY18" s="118">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32355,7 +32355,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="130"/>
+      <c r="AY19" s="119"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>2F</v>
@@ -32488,7 +32488,7 @@
       </c>
       <c r="AD20" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB20 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB20 &amp; "_lose")</f>
@@ -32504,7 +32504,7 @@
       </c>
       <c r="AH20" s="58">
         <f>(AF20-AG20)*100+AK20*10000+AF20</f>
-        <v>60203</v>
+        <v>70203</v>
       </c>
       <c r="AI20" s="58">
         <f>AF20-AG20</f>
@@ -32512,11 +32512,11 @@
       </c>
       <c r="AJ20" s="58">
         <f>(AI20-AI25)/AI24</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AK20" s="58">
         <f>AC20*3+AD20</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL20" s="58">
         <f>AP20/AP24*1000+AQ20/AQ24*100+AT20/AT24*10+AR20/AR24</f>
@@ -32528,11 +32528,11 @@
       </c>
       <c r="AN20" s="59">
         <f>1000*AK20/AK24+100*AJ20+10*AF20/AF24+1*AL20/AL24+AM20</f>
-        <v>944.64344864285715</v>
+        <v>1098.3339248333332</v>
       </c>
       <c r="AO20" s="60" t="str">
         <f>IF(SUM(AC20:AE23)=12,J21,INDEX(T,74,lang))</f>
-        <v>1C</v>
+        <v>France</v>
       </c>
       <c r="AP20" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB20&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB20&amp;"_win")*($U$7:$U$54))</f>
@@ -32560,7 +32560,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="129">
+      <c r="BE20" s="118">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32618,7 +32618,7 @@
       </c>
       <c r="K21" s="70">
         <f>L21+M21+N21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="70">
         <f>VLOOKUP(1,AA20:AK23,3,FALSE)</f>
@@ -32626,7 +32626,7 @@
       </c>
       <c r="M21" s="70">
         <f>VLOOKUP(1,AA20:AK23,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="70">
         <f>VLOOKUP(1,AA20:AK23,5,FALSE)</f>
@@ -32638,7 +32638,7 @@
       </c>
       <c r="P21" s="71">
         <f>L21*3+M21</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R21" s="58">
         <f>DATE(2018,6,19)+TIME(4,0,0)+gmt_delta</f>
@@ -32674,7 +32674,7 @@
       </c>
       <c r="AA21" s="58">
         <f>COUNTIF(AN20:AN23,CONCATENATE("&gt;=",AN21))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="59" t="str">
         <f>VLOOKUP("Australia",T,lang,FALSE)</f>
@@ -32690,7 +32690,7 @@
       </c>
       <c r="AE21" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB21 &amp; "_lose")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF21" s="58">
         <f>SUMIF($E$7:$E$54,$AB21,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB21,$G$7:$G$54)</f>
@@ -32698,19 +32698,19 @@
       </c>
       <c r="AG21" s="58">
         <f>SUMIF($E$7:$E$54,$AB21,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB21,$F$7:$F$54)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="58">
         <f>(AF21-AG21)*100+AK21*10000+AF21</f>
-        <v>9902</v>
+        <v>9702</v>
       </c>
       <c r="AI21" s="58">
         <f>AF21-AG21</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ21" s="58">
         <f>(AI21-AI25)/AI24</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="58">
         <f>AC21*3+AD21</f>
@@ -32726,11 +32726,11 @@
       </c>
       <c r="AN21" s="59">
         <f>1000*AK21/AK24+100*AJ21+10*AF21/AF24+1*AL21/AL24+AM21</f>
-        <v>167.85751635714286</v>
+        <v>152.85751635714286</v>
       </c>
       <c r="AO21" s="60" t="str">
         <f>IF(SUM(AC20:AE23)=12,J22,INDEX(T,75,lang))</f>
-        <v>2C</v>
+        <v>Denmark</v>
       </c>
       <c r="AP21" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB21&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB21&amp;"_win")*($U$7:$U$54))</f>
@@ -32761,7 +32761,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="130"/>
+      <c r="BE21" s="119"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32817,7 +32817,7 @@
       </c>
       <c r="K22" s="27">
         <f>L22+M22+N22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="27">
         <f>VLOOKUP(2,AA20:AK23,3,FALSE)</f>
@@ -32825,7 +32825,7 @@
       </c>
       <c r="M22" s="27">
         <f>VLOOKUP(2,AA20:AK23,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="27">
         <f>VLOOKUP(2,AA20:AK23,5,FALSE)</f>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="P22" s="73">
         <f>L22*3+M22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" s="58">
         <f>DATE(2018,6,19)+TIME(1,0,0)+gmt_delta</f>
@@ -32873,7 +32873,7 @@
       </c>
       <c r="AA22" s="58">
         <f>COUNTIF(AN20:AN23,CONCATENATE("&gt;=",AN22))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="59" t="str">
         <f>VLOOKUP("Peru",T,lang,FALSE)</f>
@@ -32881,7 +32881,7 @@
       </c>
       <c r="AC22" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB22 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB22 &amp; "_draw")</f>
@@ -32893,7 +32893,7 @@
       </c>
       <c r="AF22" s="58">
         <f>SUMIF($E$7:$E$54,$AB22,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB22,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22" s="58">
         <f>SUMIF($E$7:$E$54,$AB22,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB22,$F$7:$F$54)</f>
@@ -32901,19 +32901,19 @@
       </c>
       <c r="AH22" s="58">
         <f>(AF22-AG22)*100+AK22*10000+AF22</f>
-        <v>-200</v>
+        <v>30002</v>
       </c>
       <c r="AI22" s="58">
         <f>AF22-AG22</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="58">
         <f>(AI22-AI25)/AI24</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK22" s="58">
         <f>AC22*3+AD22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL22" s="58">
         <f>AP22/AP24*1000+AQ22/AQ24*100+AT22/AT24*10+AR22/AR24</f>
@@ -32925,7 +32925,7 @@
       </c>
       <c r="AN22" s="59">
         <f>1000*AK22/AK24+100*AJ22+10*AF22/AF24+1*AL22/AL24+AM22</f>
-        <v>5.6400000000000005E-4</v>
+        <v>488.57199257142855</v>
       </c>
       <c r="AP22" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB22&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB22&amp;"_win")*($U$7:$U$54))</f>
@@ -32947,7 +32947,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="129">
+      <c r="AY22" s="118">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33010,31 +33010,31 @@
       </c>
       <c r="J23" s="72" t="str">
         <f>VLOOKUP(3,AA20:AK23,2,FALSE)</f>
-        <v>Australia</v>
+        <v>Peru</v>
       </c>
       <c r="K23" s="27">
         <f>L23+M23+N23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" s="27">
         <f>VLOOKUP(3,AA20:AK23,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="27">
         <f>VLOOKUP(3,AA20:AK23,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="27">
         <f>VLOOKUP(3,AA20:AK23,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="27" t="str">
         <f>VLOOKUP(3,AA20:AK23,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA20:AK23,7,FALSE)</f>
-        <v>2 - 3</v>
+        <v>2 - 2</v>
       </c>
       <c r="P23" s="73">
         <f>L23*3+M23</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R23" s="58">
         <f>DATE(2018,6,19)+TIME(7,0,0)+gmt_delta</f>
@@ -33082,7 +33082,7 @@
       </c>
       <c r="AD23" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB23 &amp; "_draw")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB23 &amp; "_lose")</f>
@@ -33098,7 +33098,7 @@
       </c>
       <c r="AH23" s="58">
         <f>(AF23-AG23)*100+AK23*10000+AF23</f>
-        <v>40102</v>
+        <v>50102</v>
       </c>
       <c r="AI23" s="58">
         <f>AF23-AG23</f>
@@ -33106,11 +33106,11 @@
       </c>
       <c r="AJ23" s="58">
         <f>(AI23-AI25)/AI24</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AK23" s="58">
         <f>AC23*3+AD23</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="58">
         <f>AP23/AP24*1000+AQ23/AQ24*100+AT23/AT24*10+AR23/AR24</f>
@@ -33122,7 +33122,7 @@
       </c>
       <c r="AN23" s="59">
         <f>1000*AK23/AK24+100*AJ23+10*AF23/AF24+1*AL23/AL24+AM23</f>
-        <v>636.42912092857148</v>
+        <v>790.952930452381</v>
       </c>
       <c r="AP23" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB23&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB23&amp;"_win")*($U$7:$U$54))</f>
@@ -33144,7 +33144,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="130"/>
+      <c r="AY23" s="119"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>2H</v>
@@ -33165,7 +33165,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="129">
+      <c r="BQ23" s="118">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33207,11 +33207,11 @@
       </c>
       <c r="J24" s="74" t="str">
         <f>VLOOKUP(4,AA20:AK23,2,FALSE)</f>
-        <v>Peru</v>
+        <v>Australia</v>
       </c>
       <c r="K24" s="75">
         <f>L24+M24+N24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="75">
         <f>VLOOKUP(4,AA20:AK23,3,FALSE)</f>
@@ -33219,7 +33219,7 @@
       </c>
       <c r="M24" s="75">
         <f>VLOOKUP(4,AA20:AK23,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="75">
         <f>VLOOKUP(4,AA20:AK23,5,FALSE)</f>
@@ -33227,11 +33227,11 @@
       </c>
       <c r="O24" s="75" t="str">
         <f>VLOOKUP(4,AA20:AK23,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA20:AK23,7,FALSE)</f>
-        <v>0 - 2</v>
+        <v>2 - 5</v>
       </c>
       <c r="P24" s="76">
         <f>L24*3+M24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="58">
         <f>DATE(2018,6,20)+TIME(4,0,0)+gmt_delta</f>
@@ -33271,7 +33271,7 @@
       </c>
       <c r="AD24" s="58">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE24" s="58">
         <f t="shared" si="12"/>
@@ -33279,19 +33279,19 @@
       </c>
       <c r="AF24" s="58">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG24" s="58">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="58">
         <f>MAX(AH20:AH23)-AH25+1</f>
-        <v>60404</v>
+        <v>60502</v>
       </c>
       <c r="AI24" s="58">
         <f>MAX(AI20:AI23)-AI25+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" s="58">
         <f t="shared" si="12"/>
@@ -33338,7 +33338,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="130"/>
+      <c r="BQ24" s="119"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33417,11 +33417,11 @@
       </c>
       <c r="AH25" s="58">
         <f>MIN(AH20:AH23)</f>
-        <v>-200</v>
+        <v>9702</v>
       </c>
       <c r="AI25" s="58">
         <f>MIN(AI20:AI23)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AY25" s="25" t="str">
         <f>INDEX(T,24+MONTH(R60),lang) &amp; " " &amp; DAY(R60) &amp; ", " &amp; YEAR(R60) &amp; "   " &amp; (IF(HOUR(R60)&lt;10,0,"")&amp;HOUR(R60)) &amp; ":" &amp;  (IF(MINUTE(R60)&lt;10,0,"")&amp;MINUTE(R60))</f>
@@ -33619,7 +33619,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="129">
+      <c r="AY26" s="118">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33817,7 +33817,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="130"/>
+      <c r="AY27" s="119"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -34018,7 +34018,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="129">
+      <c r="BE28" s="118">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34215,7 +34215,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="130"/>
+      <c r="BE29" s="119"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34381,7 +34381,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="129">
+      <c r="AY30" s="118">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34479,10 +34479,10 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="130"/>
+      <c r="AY31" s="119"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
-        <v>2C</v>
+        <v>Denmark</v>
       </c>
       <c r="BA31" s="32"/>
       <c r="BB31" s="33"/>
@@ -34503,13 +34503,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="131" t="str">
+      <c r="BQ31" s="124" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="132"/>
-      <c r="BS31" s="132"/>
-      <c r="BT31" s="133"/>
+      <c r="BR31" s="125"/>
+      <c r="BS31" s="125"/>
+      <c r="BT31" s="126"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34693,7 +34693,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="129">
+      <c r="BK32" s="118">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34704,10 +34704,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="134"/>
-      <c r="BR32" s="135"/>
-      <c r="BS32" s="135"/>
-      <c r="BT32" s="136"/>
+      <c r="BQ32" s="127"/>
+      <c r="BR32" s="128"/>
+      <c r="BS32" s="128"/>
+      <c r="BT32" s="129"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34894,7 +34894,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="130"/>
+      <c r="BK33" s="119"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35074,7 +35074,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="129">
+      <c r="AY34" s="118">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35271,7 +35271,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="130"/>
+      <c r="AY35" s="119"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>2E</v>
@@ -35295,7 +35295,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="129">
+      <c r="BQ35" s="118">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35457,7 +35457,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="129">
+      <c r="BE36" s="118">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35474,7 +35474,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="130"/>
+      <c r="BQ36" s="119"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35561,7 +35561,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="130"/>
+      <c r="BE37" s="119"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35751,7 +35751,7 @@
         <f>AR38-AS38</f>
         <v>1</v>
       </c>
-      <c r="AY38" s="129">
+      <c r="AY38" s="118">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35945,7 +35945,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="130"/>
+      <c r="AY39" s="119"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>2G</v>
@@ -36298,23 +36298,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="146" t="str">
+      <c r="BJ41" s="120" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="146"/>
-      <c r="BL41" s="146"/>
-      <c r="BM41" s="146"/>
-      <c r="BN41" s="146"/>
-      <c r="BO41" s="148" t="str">
+      <c r="BK41" s="120"/>
+      <c r="BL41" s="120"/>
+      <c r="BM41" s="120"/>
+      <c r="BN41" s="120"/>
+      <c r="BO41" s="122" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="148"/>
-      <c r="BQ41" s="148"/>
-      <c r="BR41" s="148"/>
-      <c r="BS41" s="148"/>
-      <c r="BT41" s="148"/>
+      <c r="BP41" s="122"/>
+      <c r="BQ41" s="122"/>
+      <c r="BR41" s="122"/>
+      <c r="BS41" s="122"/>
+      <c r="BT41" s="122"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36462,17 +36462,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>3</v>
       </c>
-      <c r="BJ42" s="147"/>
-      <c r="BK42" s="147"/>
-      <c r="BL42" s="147"/>
-      <c r="BM42" s="147"/>
-      <c r="BN42" s="147"/>
-      <c r="BO42" s="149"/>
-      <c r="BP42" s="149"/>
-      <c r="BQ42" s="149"/>
-      <c r="BR42" s="149"/>
-      <c r="BS42" s="149"/>
-      <c r="BT42" s="149"/>
+      <c r="BJ42" s="121"/>
+      <c r="BK42" s="121"/>
+      <c r="BL42" s="121"/>
+      <c r="BM42" s="121"/>
+      <c r="BN42" s="121"/>
+      <c r="BO42" s="123"/>
+      <c r="BP42" s="123"/>
+      <c r="BQ42" s="123"/>
+      <c r="BR42" s="123"/>
+      <c r="BS42" s="123"/>
+      <c r="BT42" s="123"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -36494,8 +36494,12 @@
         <f>AB23</f>
         <v>Denmark</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
+      <c r="F43" s="23">
+        <v>0</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0</v>
+      </c>
       <c r="H43" s="67" t="str">
         <f>AB20</f>
         <v>France</v>
@@ -36506,11 +36510,11 @@
       </c>
       <c r="S43" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Denmark_draw</v>
       </c>
       <c r="T43" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>France_draw</v>
       </c>
       <c r="U43" s="59">
         <f t="shared" si="4"/>
@@ -36528,9 +36532,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="58" t="str">
+      <c r="Y43" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AH43" s="58">
         <f>MIN(AH38:AH41)</f>
@@ -36562,8 +36566,12 @@
         <f>AB21</f>
         <v>Australia</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="24">
+        <v>2</v>
+      </c>
       <c r="H44" s="67" t="str">
         <f>AB22</f>
         <v>Peru</v>
@@ -36602,11 +36610,11 @@
       </c>
       <c r="S44" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Australia_lose</v>
       </c>
       <c r="T44" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Peru_win</v>
       </c>
       <c r="U44" s="59">
         <f t="shared" si="4"/>
@@ -36624,9 +36632,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="58" t="str">
+      <c r="Y44" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA44" s="58">
         <f>COUNTIF(AN44:AN47,CONCATENATE("&gt;=",AN44))</f>
@@ -37038,12 +37046,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="137" t="s">
+      <c r="AY46" s="109" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="138"/>
-      <c r="BA46" s="138"/>
-      <c r="BB46" s="139"/>
+      <c r="AZ46" s="110"/>
+      <c r="BA46" s="110"/>
+      <c r="BB46" s="111"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37207,10 +37215,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="140"/>
-      <c r="AZ47" s="141"/>
-      <c r="BA47" s="141"/>
-      <c r="BB47" s="142"/>
+      <c r="AY47" s="112"/>
+      <c r="AZ47" s="113"/>
+      <c r="BA47" s="113"/>
+      <c r="BB47" s="114"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37354,10 +37362,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="140"/>
-      <c r="AZ48" s="141"/>
-      <c r="BA48" s="141"/>
-      <c r="BB48" s="142"/>
+      <c r="AY48" s="112"/>
+      <c r="AZ48" s="113"/>
+      <c r="BA48" s="113"/>
+      <c r="BB48" s="114"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37425,10 +37433,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-8</v>
       </c>
-      <c r="AY49" s="140"/>
-      <c r="AZ49" s="141"/>
-      <c r="BA49" s="141"/>
-      <c r="BB49" s="142"/>
+      <c r="AY49" s="112"/>
+      <c r="AZ49" s="113"/>
+      <c r="BA49" s="113"/>
+      <c r="BB49" s="114"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37596,10 +37604,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="140"/>
-      <c r="AZ50" s="141"/>
-      <c r="BA50" s="141"/>
-      <c r="BB50" s="142"/>
+      <c r="AY50" s="112"/>
+      <c r="AZ50" s="113"/>
+      <c r="BA50" s="113"/>
+      <c r="BB50" s="114"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37767,10 +37775,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="140"/>
-      <c r="AZ51" s="141"/>
-      <c r="BA51" s="141"/>
-      <c r="BB51" s="142"/>
+      <c r="AY51" s="112"/>
+      <c r="AZ51" s="113"/>
+      <c r="BA51" s="113"/>
+      <c r="BB51" s="114"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -37934,10 +37942,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="143"/>
-      <c r="AZ52" s="144"/>
-      <c r="BA52" s="144"/>
-      <c r="BB52" s="145"/>
+      <c r="AY52" s="115"/>
+      <c r="AZ52" s="116"/>
+      <c r="BA52" s="116"/>
+      <c r="BB52" s="117"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38526,6 +38534,27 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38533,27 +38562,6 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -9316,90 +9316,6 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9478,6 +9394,90 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29896,8 +29896,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29952,25 +29952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="str">
+      <c r="A1" s="115" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30033,11 +30033,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="137" t="str">
+      <c r="O3" s="116" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="137"/>
+      <c r="P3" s="116"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30063,43 +30063,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="str">
+      <c r="A5" s="117" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="J5" s="144" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="J5" s="123" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="125"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="128"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30163,34 +30163,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="130" t="str">
+      <c r="AY6" s="109" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="132"/>
-      <c r="BE6" s="130" t="str">
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="111"/>
+      <c r="BE6" s="109" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="132"/>
-      <c r="BK6" s="130" t="str">
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="111"/>
+      <c r="BK6" s="109" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="131"/>
-      <c r="BM6" s="131"/>
-      <c r="BN6" s="132"/>
-      <c r="BQ6" s="130" t="str">
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="111"/>
+      <c r="BQ6" s="109" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="131"/>
-      <c r="BS6" s="131"/>
-      <c r="BT6" s="132"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="111"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30254,22 +30254,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="135"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="134"/>
-      <c r="BH7" s="135"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="134"/>
-      <c r="BM7" s="134"/>
-      <c r="BN7" s="135"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="134"/>
-      <c r="BS7" s="134"/>
-      <c r="BT7" s="135"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="114"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="114"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="113"/>
+      <c r="BM7" s="113"/>
+      <c r="BN7" s="114"/>
+      <c r="BQ7" s="112"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="114"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30815,7 +30815,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="118">
+      <c r="AY10" s="129">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31009,7 +31009,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="119"/>
+      <c r="AY11" s="130"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
@@ -31190,7 +31190,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="118">
+      <c r="BE12" s="129">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31298,7 +31298,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="119"/>
+      <c r="BE13" s="130"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>W50</v>
@@ -31488,7 +31488,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="118">
+      <c r="AY14" s="129">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31686,10 +31686,10 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="119"/>
+      <c r="AY15" s="130"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
-        <v>2D</v>
+        <v>Argentina</v>
       </c>
       <c r="BA15" s="32"/>
       <c r="BB15" s="33"/>
@@ -31893,7 +31893,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="118">
+      <c r="BK16" s="129">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32090,7 +32090,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="119"/>
+      <c r="BK17" s="130"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32250,7 +32250,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="118">
+      <c r="AY18" s="129">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32355,7 +32355,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="119"/>
+      <c r="AY19" s="130"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>2F</v>
@@ -32560,7 +32560,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="118">
+      <c r="BE20" s="129">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32761,7 +32761,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="119"/>
+      <c r="BE21" s="130"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32947,7 +32947,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="118">
+      <c r="AY22" s="129">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33144,7 +33144,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="119"/>
+      <c r="AY23" s="130"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>2H</v>
@@ -33165,7 +33165,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="118">
+      <c r="BQ23" s="129">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33338,7 +33338,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="119"/>
+      <c r="BQ24" s="130"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33541,7 +33541,7 @@
       </c>
       <c r="AA26" s="58">
         <f>COUNTIF(AN26:AN29,CONCATENATE("&gt;=",AN26))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="59" t="str">
         <f>VLOOKUP("Argentina",T,lang,FALSE)</f>
@@ -33549,7 +33549,7 @@
       </c>
       <c r="AC26" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB26 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB26 &amp; "_draw")</f>
@@ -33561,27 +33561,27 @@
       </c>
       <c r="AF26" s="58">
         <f>SUMIF($E$7:$E$54,$AB26,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB26,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG26" s="58">
         <f>SUMIF($E$7:$E$54,$AB26,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB26,$F$7:$F$54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="58">
         <f>(AF26-AG26)*100+AK26*10000+AF26</f>
-        <v>9701</v>
+        <v>39803</v>
       </c>
       <c r="AI26" s="58">
         <f>AF26-AG26</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AJ26" s="58">
         <f>(AI26-AI31)/AI30</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AK26" s="58">
         <f>AC26*3+AD26</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL26" s="58">
         <f>AP26/AP30*1000+AQ26/AQ30*100+AT26/AT30*10+AR26/AR30</f>
@@ -33593,11 +33593,11 @@
       </c>
       <c r="AN26" s="59">
         <f>1000*AK26/AK30+100*AJ26+10*AF26/AF30+1*AL26/AL30+AM26</f>
-        <v>168.66734066666666</v>
+        <v>459.44511844444446</v>
       </c>
       <c r="AO26" s="60" t="str">
         <f>IF(SUM(AC26:AE29)=12,J27,INDEX(T,76,lang))</f>
-        <v>1D</v>
+        <v>Croatia</v>
       </c>
       <c r="AP26" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB26&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB26&amp;"_win")*($U$7:$U$54))</f>
@@ -33619,7 +33619,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="118">
+      <c r="AY26" s="129">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33683,11 +33683,11 @@
       </c>
       <c r="K27" s="70">
         <f>L27+M27+N27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="70">
         <f>VLOOKUP(1,AA26:AK29,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="70">
         <f>VLOOKUP(1,AA26:AK29,4,FALSE)</f>
@@ -33699,11 +33699,11 @@
       </c>
       <c r="O27" s="70" t="str">
         <f>VLOOKUP(1,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA26:AK29,7,FALSE)</f>
-        <v>5 - 0</v>
+        <v>7 - 1</v>
       </c>
       <c r="P27" s="71">
         <f>L27*3+M27</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R27" s="58">
         <f>DATE(2018,6,21)+TIME(4,0,0)+gmt_delta</f>
@@ -33739,7 +33739,7 @@
       </c>
       <c r="AA27" s="58">
         <f>COUNTIF(AN26:AN29,CONCATENATE("&gt;=",AN27))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB27" s="59" t="str">
         <f>VLOOKUP("Iceland",T,lang,FALSE)</f>
@@ -33755,27 +33755,27 @@
       </c>
       <c r="AE27" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB27 &amp; "_lose")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF27" s="58">
         <f>SUMIF($E$7:$E$54,$AB27,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB27,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="58">
         <f>SUMIF($E$7:$E$54,$AB27,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB27,$F$7:$F$54)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH27" s="58">
         <f>(AF27-AG27)*100+AK27*10000+AF27</f>
-        <v>9801</v>
+        <v>9702</v>
       </c>
       <c r="AI27" s="58">
         <f>AF27-AG27</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ27" s="58">
         <f>(AI27-AI31)/AI30</f>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="58">
         <f>AC27*3+AD27</f>
@@ -33791,11 +33791,11 @@
       </c>
       <c r="AN27" s="59">
         <f>1000*AK27/AK30+100*AJ27+10*AF27/AF30+1*AL27/AL30+AM27</f>
-        <v>179.77823277777776</v>
+        <v>114.44489944444445</v>
       </c>
       <c r="AO27" s="60" t="str">
         <f>IF(SUM(AC26:AE29)=12,J28,INDEX(T,77,lang))</f>
-        <v>2D</v>
+        <v>Argentina</v>
       </c>
       <c r="AP27" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB27&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB27&amp;"_win")*($U$7:$U$54))</f>
@@ -33817,7 +33817,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="119"/>
+      <c r="AY27" s="130"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -33878,11 +33878,11 @@
       </c>
       <c r="J28" s="72" t="str">
         <f>VLOOKUP(2,AA26:AK29,2,FALSE)</f>
-        <v>Nigeria</v>
+        <v>Argentina</v>
       </c>
       <c r="K28" s="27">
         <f>L28+M28+N28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="27">
         <f>VLOOKUP(2,AA26:AK29,3,FALSE)</f>
@@ -33890,7 +33890,7 @@
       </c>
       <c r="M28" s="27">
         <f>VLOOKUP(2,AA26:AK29,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="27">
         <f>VLOOKUP(2,AA26:AK29,5,FALSE)</f>
@@ -33898,11 +33898,11 @@
       </c>
       <c r="O28" s="27" t="str">
         <f>VLOOKUP(2,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA26:AK29,7,FALSE)</f>
-        <v>2 - 2</v>
+        <v>3 - 5</v>
       </c>
       <c r="P28" s="73">
         <f>L28*3+M28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R28" s="58">
         <f>DATE(2018,6,21)+TIME(1,0,0)+gmt_delta</f>
@@ -33946,7 +33946,7 @@
       </c>
       <c r="AC28" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB28 &amp; "_win")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD28" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB28 &amp; "_draw")</f>
@@ -33958,27 +33958,27 @@
       </c>
       <c r="AF28" s="58">
         <f>SUMIF($E$7:$E$54,$AB28,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB28,$G$7:$G$54)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG28" s="58">
         <f>SUMIF($E$7:$E$54,$AB28,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB28,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="58">
         <f>(AF28-AG28)*100+AK28*10000+AF28</f>
-        <v>60505</v>
+        <v>90607</v>
       </c>
       <c r="AI28" s="58">
         <f>AF28-AG28</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" s="58">
         <f>(AI28-AI31)/AI30</f>
-        <v>0.88888888888888884</v>
+        <v>0.9</v>
       </c>
       <c r="AK28" s="58">
         <f>AC28*3+AD28</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL28" s="58">
         <f>AP28/AP30*1000+AQ28/AQ30*100+AT28/AT30*10+AR28/AR30</f>
@@ -33990,7 +33990,7 @@
       </c>
       <c r="AN28" s="59">
         <f>1000*AK28/AK30+100*AJ28+10*AF28/AF30+1*AL28/AL30+AM28</f>
-        <v>1098.8893978888889</v>
+        <v>1101.6671756666667</v>
       </c>
       <c r="AP28" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB28&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB28&amp;"_win")*($U$7:$U$54))</f>
@@ -34018,7 +34018,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="118">
+      <c r="BE28" s="129">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34072,31 +34072,31 @@
       </c>
       <c r="J29" s="72" t="str">
         <f>VLOOKUP(3,AA26:AK29,2,FALSE)</f>
-        <v>Iceland</v>
+        <v>Nigeria</v>
       </c>
       <c r="K29" s="27">
         <f>L29+M29+N29</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" s="27">
         <f>VLOOKUP(3,AA26:AK29,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="27">
         <f>VLOOKUP(3,AA26:AK29,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="27">
         <f>VLOOKUP(3,AA26:AK29,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="27" t="str">
         <f>VLOOKUP(3,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA26:AK29,7,FALSE)</f>
-        <v>1 - 3</v>
+        <v>3 - 4</v>
       </c>
       <c r="P29" s="73">
         <f>L29*3+M29</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" s="58">
         <f>DATE(2018,6,21)+TIME(7,0,0)+gmt_delta</f>
@@ -34132,7 +34132,7 @@
       </c>
       <c r="AA29" s="58">
         <f>COUNTIF(AN26:AN29,CONCATENATE("&gt;=",AN29))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB29" s="59" t="str">
         <f>VLOOKUP("Nigeria",T,lang,FALSE)</f>
@@ -34148,27 +34148,27 @@
       </c>
       <c r="AE29" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB29 &amp; "_lose")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF29" s="58">
         <f>SUMIF($E$7:$E$54,$AB29,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB29,$G$7:$G$54)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="58">
         <f>SUMIF($E$7:$E$54,$AB29,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB29,$F$7:$F$54)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH29" s="58">
         <f>(AF29-AG29)*100+AK29*10000+AF29</f>
-        <v>30002</v>
+        <v>29903</v>
       </c>
       <c r="AI29" s="58">
         <f>AF29-AG29</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ29" s="58">
         <f>(AI29-AI31)/AI30</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="AK29" s="58">
         <f>AC29*3+AD29</f>
@@ -34184,7 +34184,7 @@
       </c>
       <c r="AN29" s="59">
         <f>1000*AK29/AK30+100*AJ29+10*AF29/AF30+1*AL29/AL30+AM29</f>
-        <v>537.33365333333336</v>
+        <v>358.3336533333333</v>
       </c>
       <c r="AP29" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB29&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB29&amp;"_win")*($U$7:$U$54))</f>
@@ -34215,7 +34215,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="119"/>
+      <c r="BE29" s="130"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34267,11 +34267,11 @@
       </c>
       <c r="J30" s="74" t="str">
         <f>VLOOKUP(4,AA26:AK29,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Iceland</v>
       </c>
       <c r="K30" s="75">
         <f>L30+M30+N30</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30" s="75">
         <f>VLOOKUP(4,AA26:AK29,3,FALSE)</f>
@@ -34283,11 +34283,11 @@
       </c>
       <c r="N30" s="75">
         <f>VLOOKUP(4,AA26:AK29,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" s="75" t="str">
         <f>VLOOKUP(4,AA26:AK29,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA26:AK29,7,FALSE)</f>
-        <v>1 - 4</v>
+        <v>2 - 5</v>
       </c>
       <c r="P30" s="76">
         <f>L30*3+M30</f>
@@ -34327,7 +34327,7 @@
       </c>
       <c r="AC30" s="58">
         <f t="shared" ref="AC30:AL30" si="13">MAX(AC26:AC29)-MIN(AC26:AC29)+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD30" s="58">
         <f t="shared" si="13"/>
@@ -34335,11 +34335,11 @@
       </c>
       <c r="AE30" s="58">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF30" s="58">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" s="58">
         <f t="shared" si="13"/>
@@ -34347,15 +34347,15 @@
       </c>
       <c r="AH30" s="58">
         <f>MAX(AH26:AH29)-AH31+1</f>
-        <v>50805</v>
+        <v>80906</v>
       </c>
       <c r="AI30" s="58">
         <f>MAX(AI26:AI29)-AI31+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK30" s="58">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL30" s="58">
         <f t="shared" si="13"/>
@@ -34381,12 +34381,12 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="118">
+      <c r="AY30" s="129">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
         <f>AO26</f>
-        <v>1D</v>
+        <v>Croatia</v>
       </c>
       <c r="BA30" s="29"/>
       <c r="BB30" s="30"/>
@@ -34473,13 +34473,13 @@
       </c>
       <c r="AH31" s="58">
         <f>MIN(AH26:AH29)</f>
-        <v>9701</v>
+        <v>9702</v>
       </c>
       <c r="AI31" s="58">
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="119"/>
+      <c r="AY31" s="130"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>Denmark</v>
@@ -34503,13 +34503,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="124" t="str">
+      <c r="BQ31" s="131" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="125"/>
-      <c r="BS31" s="125"/>
-      <c r="BT31" s="126"/>
+      <c r="BR31" s="132"/>
+      <c r="BS31" s="132"/>
+      <c r="BT31" s="133"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34693,7 +34693,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="118">
+      <c r="BK32" s="129">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34704,10 +34704,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="127"/>
-      <c r="BR32" s="128"/>
-      <c r="BS32" s="128"/>
-      <c r="BT32" s="129"/>
+      <c r="BQ32" s="134"/>
+      <c r="BR32" s="135"/>
+      <c r="BS32" s="135"/>
+      <c r="BT32" s="136"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34894,7 +34894,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="119"/>
+      <c r="BK33" s="130"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35074,7 +35074,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="118">
+      <c r="AY34" s="129">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35271,7 +35271,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="119"/>
+      <c r="AY35" s="130"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>2E</v>
@@ -35295,7 +35295,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="118">
+      <c r="BQ35" s="129">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35457,7 +35457,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="118">
+      <c r="BE36" s="129">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35474,7 +35474,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="119"/>
+      <c r="BQ36" s="130"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35561,7 +35561,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="119"/>
+      <c r="BE37" s="130"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35751,7 +35751,7 @@
         <f>AR38-AS38</f>
         <v>1</v>
       </c>
-      <c r="AY38" s="118">
+      <c r="AY38" s="129">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35945,7 +35945,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="119"/>
+      <c r="AY39" s="130"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>2G</v>
@@ -36298,23 +36298,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="120" t="str">
+      <c r="BJ41" s="146" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="120"/>
-      <c r="BL41" s="120"/>
-      <c r="BM41" s="120"/>
-      <c r="BN41" s="120"/>
-      <c r="BO41" s="122" t="str">
+      <c r="BK41" s="146"/>
+      <c r="BL41" s="146"/>
+      <c r="BM41" s="146"/>
+      <c r="BN41" s="146"/>
+      <c r="BO41" s="148" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="122"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="122"/>
-      <c r="BS41" s="122"/>
-      <c r="BT41" s="122"/>
+      <c r="BP41" s="148"/>
+      <c r="BQ41" s="148"/>
+      <c r="BR41" s="148"/>
+      <c r="BS41" s="148"/>
+      <c r="BT41" s="148"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36462,17 +36462,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>3</v>
       </c>
-      <c r="BJ42" s="121"/>
-      <c r="BK42" s="121"/>
-      <c r="BL42" s="121"/>
-      <c r="BM42" s="121"/>
-      <c r="BN42" s="121"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="123"/>
-      <c r="BT42" s="123"/>
+      <c r="BJ42" s="147"/>
+      <c r="BK42" s="147"/>
+      <c r="BL42" s="147"/>
+      <c r="BM42" s="147"/>
+      <c r="BN42" s="147"/>
+      <c r="BO42" s="149"/>
+      <c r="BP42" s="149"/>
+      <c r="BQ42" s="149"/>
+      <c r="BR42" s="149"/>
+      <c r="BS42" s="149"/>
+      <c r="BT42" s="149"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -36737,8 +36737,12 @@
         <f>AB29</f>
         <v>Nigeria</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
+      <c r="F45" s="23">
+        <v>1</v>
+      </c>
+      <c r="G45" s="24">
+        <v>2</v>
+      </c>
       <c r="H45" s="67" t="str">
         <f>AB26</f>
         <v>Argentina</v>
@@ -36777,11 +36781,11 @@
       </c>
       <c r="S45" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Nigeria_lose</v>
       </c>
       <c r="T45" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Argentina_win</v>
       </c>
       <c r="U45" s="59">
         <f t="shared" si="4"/>
@@ -36799,9 +36803,9 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y45" s="58" t="str">
+      <c r="Y45" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA45" s="58">
         <f>COUNTIF(AN44:AN47,CONCATENATE("&gt;=",AN45))</f>
@@ -36904,8 +36908,12 @@
         <f>AB27</f>
         <v>Iceland</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
+      <c r="F46" s="23">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24">
+        <v>2</v>
+      </c>
       <c r="H46" s="67" t="str">
         <f>AB28</f>
         <v>Croatia</v>
@@ -36944,11 +36952,11 @@
       </c>
       <c r="S46" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Iceland_lose</v>
       </c>
       <c r="T46" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Croatia_win</v>
       </c>
       <c r="U46" s="59">
         <f t="shared" si="4"/>
@@ -36966,9 +36974,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="58" t="str">
+      <c r="Y46" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA46" s="58">
         <f>COUNTIF(AN44:AN47,CONCATENATE("&gt;=",AN46))</f>
@@ -37046,12 +37054,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="109" t="s">
+      <c r="AY46" s="137" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="110"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="111"/>
+      <c r="AZ46" s="138"/>
+      <c r="BA46" s="138"/>
+      <c r="BB46" s="139"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37215,10 +37223,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="112"/>
-      <c r="AZ47" s="113"/>
-      <c r="BA47" s="113"/>
-      <c r="BB47" s="114"/>
+      <c r="AY47" s="140"/>
+      <c r="AZ47" s="141"/>
+      <c r="BA47" s="141"/>
+      <c r="BB47" s="142"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37362,10 +37370,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="112"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="114"/>
+      <c r="AY48" s="140"/>
+      <c r="AZ48" s="141"/>
+      <c r="BA48" s="141"/>
+      <c r="BB48" s="142"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37433,10 +37441,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-8</v>
       </c>
-      <c r="AY49" s="112"/>
-      <c r="AZ49" s="113"/>
-      <c r="BA49" s="113"/>
-      <c r="BB49" s="114"/>
+      <c r="AY49" s="140"/>
+      <c r="AZ49" s="141"/>
+      <c r="BA49" s="141"/>
+      <c r="BB49" s="142"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37604,10 +37612,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="112"/>
-      <c r="AZ50" s="113"/>
-      <c r="BA50" s="113"/>
-      <c r="BB50" s="114"/>
+      <c r="AY50" s="140"/>
+      <c r="AZ50" s="141"/>
+      <c r="BA50" s="141"/>
+      <c r="BB50" s="142"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37775,10 +37783,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="112"/>
-      <c r="AZ51" s="113"/>
-      <c r="BA51" s="113"/>
-      <c r="BB51" s="114"/>
+      <c r="AY51" s="140"/>
+      <c r="AZ51" s="141"/>
+      <c r="BA51" s="141"/>
+      <c r="BB51" s="142"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -37942,10 +37950,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="115"/>
-      <c r="AZ52" s="116"/>
-      <c r="BA52" s="116"/>
-      <c r="BB52" s="117"/>
+      <c r="AY52" s="143"/>
+      <c r="AZ52" s="144"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="145"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38534,27 +38542,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38562,6 +38549,27 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -29896,8 +29896,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32255,7 +32255,7 @@
       </c>
       <c r="AZ18" s="28" t="str">
         <f>AO32</f>
-        <v>1E</v>
+        <v>Brazil</v>
       </c>
       <c r="BA18" s="29"/>
       <c r="BB18" s="30"/>
@@ -32358,7 +32358,7 @@
       <c r="AY19" s="130"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
-        <v>2F</v>
+        <v>Mexico</v>
       </c>
       <c r="BA19" s="32"/>
       <c r="BB19" s="33"/>
@@ -34611,7 +34611,7 @@
       </c>
       <c r="AC32" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB32 &amp; "_win")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD32" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB32 &amp; "_draw")</f>
@@ -34623,7 +34623,7 @@
       </c>
       <c r="AF32" s="58">
         <f>SUMIF($E$7:$E$54,$AB32,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB32,$G$7:$G$54)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG32" s="58">
         <f>SUMIF($E$7:$E$54,$AB32,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB32,$F$7:$F$54)</f>
@@ -34631,19 +34631,19 @@
       </c>
       <c r="AH32" s="58">
         <f>(AF32-AG32)*100+AK32*10000+AF32</f>
-        <v>40203</v>
+        <v>70405</v>
       </c>
       <c r="AI32" s="58">
         <f>AF32-AG32</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ32" s="58">
         <f>(AI32-AI37)/AI36</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="AK32" s="58">
         <f>AC32*3+AD32</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL32" s="58">
         <f>AP32/AP36*1000+AQ32/AQ36*100+AT32/AT36*10+AR32/AR36</f>
@@ -34655,11 +34655,11 @@
       </c>
       <c r="AN32" s="59">
         <f>1000*AK32/AK36+100*AJ32+10*AF32/AF36+1*AL32/AL36+AM32</f>
-        <v>890.83407483333337</v>
+        <v>1100.0007415</v>
       </c>
       <c r="AO32" s="60" t="str">
         <f>IF(SUM(AC32:AE35)=12,J33,INDEX(T,78,lang))</f>
-        <v>1E</v>
+        <v>Brazil</v>
       </c>
       <c r="AP32" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB32&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB32&amp;"_win")*($U$7:$U$54))</f>
@@ -34745,11 +34745,11 @@
       </c>
       <c r="K33" s="70">
         <f>L33+M33+N33</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" s="70">
         <f>VLOOKUP(1,AA32:AK35,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="70">
         <f>VLOOKUP(1,AA32:AK35,4,FALSE)</f>
@@ -34761,11 +34761,11 @@
       </c>
       <c r="O33" s="70" t="str">
         <f>VLOOKUP(1,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA32:AK35,7,FALSE)</f>
-        <v>3 - 1</v>
+        <v>5 - 1</v>
       </c>
       <c r="P33" s="71">
         <f>L33*3+M33</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R33" s="58">
         <f>DATE(2018,6,23)+TIME(7,0,0)+gmt_delta</f>
@@ -34781,15 +34781,15 @@
       </c>
       <c r="U33" s="59">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="58">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33" s="58">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="58">
         <f t="shared" si="7"/>
@@ -34813,7 +34813,7 @@
       </c>
       <c r="AD33" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB33 &amp; "_draw")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB33 &amp; "_lose")</f>
@@ -34821,15 +34821,15 @@
       </c>
       <c r="AF33" s="58">
         <f>SUMIF($E$7:$E$54,$AB33,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB33,$G$7:$G$54)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG33" s="58">
         <f>SUMIF($E$7:$E$54,$AB33,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB33,$F$7:$F$54)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="58">
         <f>(AF33-AG33)*100+AK33*10000+AF33</f>
-        <v>40103</v>
+        <v>50105</v>
       </c>
       <c r="AI33" s="58">
         <f>AF33-AG33</f>
@@ -34837,11 +34837,11 @@
       </c>
       <c r="AJ33" s="58">
         <f>(AI33-AI37)/AI36</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AK33" s="58">
         <f>AC33*3+AD33</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL33" s="58">
         <f>AP33/AP36*1000+AQ33/AQ36*100+AT33/AT36*10+AR33/AR36</f>
@@ -34853,11 +34853,11 @@
       </c>
       <c r="AN33" s="59">
         <f>1000*AK33/AK36+100*AJ33+10*AF33/AF36+1*AL33/AL36+AM33</f>
-        <v>874.1672616666666</v>
+        <v>776.78630928571431</v>
       </c>
       <c r="AO33" s="60" t="str">
         <f>IF(SUM(AC32:AE35)=12,J34,INDEX(T,79,lang))</f>
-        <v>2E</v>
+        <v>Switzerland</v>
       </c>
       <c r="AP33" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB33&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB33&amp;"_win")*($U$7:$U$54))</f>
@@ -34944,7 +34944,7 @@
       </c>
       <c r="K34" s="27">
         <f>L34+M34+N34</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" s="27">
         <f>VLOOKUP(2,AA32:AK35,3,FALSE)</f>
@@ -34952,7 +34952,7 @@
       </c>
       <c r="M34" s="27">
         <f>VLOOKUP(2,AA32:AK35,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="27">
         <f>VLOOKUP(2,AA32:AK35,5,FALSE)</f>
@@ -34960,11 +34960,11 @@
       </c>
       <c r="O34" s="27" t="str">
         <f>VLOOKUP(2,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA32:AK35,7,FALSE)</f>
-        <v>3 - 2</v>
+        <v>5 - 4</v>
       </c>
       <c r="P34" s="73">
         <f>L34*3+M34</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R34" s="58">
         <f>DATE(2018,6,23)+TIME(4,0,0)+gmt_delta</f>
@@ -35012,7 +35012,7 @@
       </c>
       <c r="AD34" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB34 &amp; "_draw")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB34 &amp; "_lose")</f>
@@ -35020,15 +35020,15 @@
       </c>
       <c r="AF34" s="58">
         <f>SUMIF($E$7:$E$54,$AB34,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB34,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG34" s="58">
         <f>SUMIF($E$7:$E$54,$AB34,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB34,$F$7:$F$54)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH34" s="58">
         <f>(AF34-AG34)*100+AK34*10000+AF34</f>
-        <v>-300</v>
+        <v>9702</v>
       </c>
       <c r="AI34" s="58">
         <f>AF34-AG34</f>
@@ -35040,7 +35040,7 @@
       </c>
       <c r="AK34" s="58">
         <f>AC34*3+AD34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="58">
         <f>AP34/AP36*1000+AQ34/AQ36*100+AT34/AT36*10+AR34/AR36</f>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="AN34" s="59">
         <f>1000*AK34/AK36+100*AJ34+10*AF34/AF36+1*AL34/AL36+AM34</f>
-        <v>4.2499999999999998E-4</v>
+        <v>147.85756785714287</v>
       </c>
       <c r="AP34" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB34&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB34&amp;"_win")*($U$7:$U$54))</f>
@@ -35079,7 +35079,7 @@
       </c>
       <c r="AZ34" s="28" t="str">
         <f>AO38</f>
-        <v>1F</v>
+        <v>Sweden</v>
       </c>
       <c r="BA34" s="29"/>
       <c r="BB34" s="30"/>
@@ -35141,7 +35141,7 @@
       </c>
       <c r="K35" s="27">
         <f>L35+M35+N35</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35" s="27">
         <f>VLOOKUP(3,AA32:AK35,3,FALSE)</f>
@@ -35153,11 +35153,11 @@
       </c>
       <c r="N35" s="27">
         <f>VLOOKUP(3,AA32:AK35,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" s="27" t="str">
         <f>VLOOKUP(3,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA32:AK35,7,FALSE)</f>
-        <v>2 - 2</v>
+        <v>2 - 4</v>
       </c>
       <c r="P35" s="73">
         <f>L35*3+M35</f>
@@ -35213,7 +35213,7 @@
       </c>
       <c r="AE35" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB35 &amp; "_lose")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF35" s="58">
         <f>SUMIF($E$7:$E$54,$AB35,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB35,$G$7:$G$54)</f>
@@ -35221,19 +35221,19 @@
       </c>
       <c r="AG35" s="58">
         <f>SUMIF($E$7:$E$54,$AB35,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB35,$F$7:$F$54)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH35" s="58">
         <f>(AF35-AG35)*100+AK35*10000+AF35</f>
-        <v>30002</v>
+        <v>29802</v>
       </c>
       <c r="AI35" s="58">
         <f>AF35-AG35</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ35" s="58">
         <f>(AI35-AI37)/AI36</f>
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="AK35" s="58">
         <f>AC35*3+AD35</f>
@@ -35249,7 +35249,7 @@
       </c>
       <c r="AN35" s="59">
         <f>1000*AK35/AK36+100*AJ35+10*AF35/AF36+1*AL35/AL36+AM35</f>
-        <v>655.00037799999996</v>
+        <v>446.07180657142857</v>
       </c>
       <c r="AP35" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB35&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB35&amp;"_win")*($U$7:$U$54))</f>
@@ -35274,7 +35274,7 @@
       <c r="AY35" s="130"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
-        <v>2E</v>
+        <v>Switzerland</v>
       </c>
       <c r="BA35" s="32"/>
       <c r="BB35" s="33"/>
@@ -35341,7 +35341,7 @@
       </c>
       <c r="K36" s="75">
         <f>L36+M36+N36</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" s="75">
         <f>VLOOKUP(4,AA32:AK35,3,FALSE)</f>
@@ -35349,7 +35349,7 @@
       </c>
       <c r="M36" s="75">
         <f>VLOOKUP(4,AA32:AK35,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="75">
         <f>VLOOKUP(4,AA32:AK35,5,FALSE)</f>
@@ -35357,11 +35357,11 @@
       </c>
       <c r="O36" s="75" t="str">
         <f>VLOOKUP(4,AA32:AK35,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA32:AK35,7,FALSE)</f>
-        <v>0 - 3</v>
+        <v>2 - 5</v>
       </c>
       <c r="P36" s="76">
         <f>L36*3+M36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="58">
         <f>DATE(2018,6,24)+TIME(1,0,0)+gmt_delta</f>
@@ -35397,11 +35397,11 @@
       </c>
       <c r="AC36" s="58">
         <f t="shared" ref="AC36:AL36" si="14">MAX(AC32:AC35)-MIN(AC32:AC35)+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD36" s="58">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE36" s="58">
         <f t="shared" si="14"/>
@@ -35413,19 +35413,19 @@
       </c>
       <c r="AG36" s="58">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH36" s="58">
         <f>MAX(AH32:AH35)-AH37+1</f>
-        <v>40504</v>
+        <v>60704</v>
       </c>
       <c r="AI36" s="58">
         <f>MAX(AI32:AI35)-AI37+1</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK36" s="58">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL36" s="58">
         <f t="shared" si="14"/>
@@ -35546,7 +35546,7 @@
       </c>
       <c r="AH37" s="58">
         <f>MIN(AH32:AH35)</f>
-        <v>-300</v>
+        <v>9702</v>
       </c>
       <c r="AI37" s="58">
         <f>MIN(AI32:AI35)</f>
@@ -35673,7 +35673,7 @@
       </c>
       <c r="AA38" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN38))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB38" s="59" t="str">
         <f>VLOOKUP("Germany",T,lang,FALSE)</f>
@@ -35689,7 +35689,7 @@
       </c>
       <c r="AE38" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB38 &amp; "_lose")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF38" s="58">
         <f>SUMIF($E$7:$E$54,$AB38,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB38,$G$7:$G$54)</f>
@@ -35697,19 +35697,19 @@
       </c>
       <c r="AG38" s="58">
         <f>SUMIF($E$7:$E$54,$AB38,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB38,$F$7:$F$54)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH38" s="58">
         <f>(AF38-AG38)*100+AK38*10000+AF38</f>
-        <v>30002</v>
+        <v>29802</v>
       </c>
       <c r="AI38" s="58">
         <f>AF38-AG38</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ38" s="58">
         <f>(AI38-AI43)/AI42</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="58">
         <f>AC38*3+AD38</f>
@@ -35717,7 +35717,7 @@
       </c>
       <c r="AL38" s="58">
         <f>AP38/AP42*1000+AQ38/AQ42*100+AT38/AT42*10+AR38/AR42</f>
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="58">
         <f>VLOOKUP(AB38,db_fifarank,2,FALSE)/2000000</f>
@@ -35725,15 +35725,15 @@
       </c>
       <c r="AN38" s="59">
         <f>1000*AK38/AK42+100*AJ38+10*AF38/AF42+1*AL38/AL42+AM38</f>
-        <v>476.23102222234724</v>
+        <v>755.00080100000002</v>
       </c>
       <c r="AO38" s="60" t="str">
         <f>IF(SUM(AC38:AE41)=12,J39,INDEX(T,80,lang))</f>
-        <v>1F</v>
+        <v>Sweden</v>
       </c>
       <c r="AP38" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB38&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB38&amp;"_win")*($U$7:$U$54))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="62">
         <f>SUMPRODUCT(($S$7:$S$54=AB38&amp;"_draw")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB38&amp;"_draw")*($U$7:$U$54))</f>
@@ -35741,15 +35741,15 @@
       </c>
       <c r="AR38" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB38)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB38)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB38)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB38)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="62">
         <f>AR38-AS38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="129">
         <v>56</v>
@@ -35807,11 +35807,11 @@
       </c>
       <c r="J39" s="69" t="str">
         <f>VLOOKUP(1,AA38:AK41,2,FALSE)</f>
-        <v>Mexico</v>
+        <v>Sweden</v>
       </c>
       <c r="K39" s="70">
         <f>L39+M39+N39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" s="70">
         <f>VLOOKUP(1,AA38:AK41,3,FALSE)</f>
@@ -35823,11 +35823,11 @@
       </c>
       <c r="N39" s="70">
         <f>VLOOKUP(1,AA38:AK41,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="70" t="str">
         <f>VLOOKUP(1,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA38:AK41,7,FALSE)</f>
-        <v>3 - 1</v>
+        <v>5 - 2</v>
       </c>
       <c r="P39" s="71">
         <f>L39*3+M39</f>
@@ -35867,7 +35867,7 @@
       </c>
       <c r="AA39" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN39))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="59" t="str">
         <f>VLOOKUP("Mexico",T,lang,FALSE)</f>
@@ -35883,7 +35883,7 @@
       </c>
       <c r="AE39" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB39 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="58">
         <f>SUMIF($E$7:$E$54,$AB39,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB39,$G$7:$G$54)</f>
@@ -35891,19 +35891,19 @@
       </c>
       <c r="AG39" s="58">
         <f>SUMIF($E$7:$E$54,$AB39,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB39,$F$7:$F$54)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH39" s="58">
         <f>(AF39-AG39)*100+AK39*10000+AF39</f>
-        <v>60203</v>
+        <v>59903</v>
       </c>
       <c r="AI39" s="58">
         <f>AF39-AG39</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ39" s="58">
         <f>(AI39-AI43)/AI42</f>
-        <v>0.8</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AK39" s="58">
         <f>AC39*3+AD39</f>
@@ -35919,11 +35919,11 @@
       </c>
       <c r="AN39" s="59">
         <f>1000*AK39/AK42+100*AJ39+10*AF39/AF42+1*AL39/AL42+AM39</f>
-        <v>947.14337314285706</v>
+        <v>1524.1671826666668</v>
       </c>
       <c r="AO39" s="60" t="str">
         <f>IF(SUM(AC38:AE41)=12,J40,INDEX(T,81,lang))</f>
-        <v>2F</v>
+        <v>Mexico</v>
       </c>
       <c r="AP39" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB39&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB39&amp;"_win")*($U$7:$U$54))</f>
@@ -35997,15 +35997,15 @@
       </c>
       <c r="J40" s="72" t="str">
         <f>VLOOKUP(2,AA38:AK41,2,FALSE)</f>
-        <v>Germany</v>
+        <v>Mexico</v>
       </c>
       <c r="K40" s="27">
         <f>L40+M40+N40</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="27">
         <f>VLOOKUP(2,AA38:AK41,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="27">
         <f>VLOOKUP(2,AA38:AK41,4,FALSE)</f>
@@ -36017,11 +36017,11 @@
       </c>
       <c r="O40" s="27" t="str">
         <f>VLOOKUP(2,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA38:AK41,7,FALSE)</f>
-        <v>2 - 2</v>
+        <v>3 - 4</v>
       </c>
       <c r="P40" s="73">
         <f>L40*3+M40</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R40" s="58">
         <f>DATE(2018,6,25)+TIME(3,0,0)+gmt_delta</f>
@@ -36057,7 +36057,7 @@
       </c>
       <c r="AA40" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN40))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB40" s="59" t="str">
         <f>VLOOKUP("Sweden",T,lang,FALSE)</f>
@@ -36065,7 +36065,7 @@
       </c>
       <c r="AC40" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB40 &amp; "_win")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD40" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB40 &amp; "_draw")</f>
@@ -36077,7 +36077,7 @@
       </c>
       <c r="AF40" s="58">
         <f>SUMIF($E$7:$E$54,$AB40,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB40,$G$7:$G$54)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG40" s="58">
         <f>SUMIF($E$7:$E$54,$AB40,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB40,$F$7:$F$54)</f>
@@ -36085,23 +36085,23 @@
       </c>
       <c r="AH40" s="58">
         <f>(AF40-AG40)*100+AK40*10000+AF40</f>
-        <v>30002</v>
+        <v>60305</v>
       </c>
       <c r="AI40" s="58">
         <f>AF40-AG40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ40" s="58">
         <f>(AI40-AI43)/AI42</f>
-        <v>0.4</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AK40" s="58">
         <f>AC40*3+AD40</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL40" s="58">
         <f>AP40/AP42*1000+AQ40/AQ42*100+AT40/AT42*10+AR40/AR42</f>
-        <v>-2.9999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="58">
         <f>VLOOKUP(AB40,db_fifarank,2,FALSE)/2000000</f>
@@ -36109,7 +36109,7 @@
       </c>
       <c r="AN40" s="59">
         <f>1000*AK40/AK42+100*AJ40+10*AF40/AF42+1*AL40/AL42+AM40</f>
-        <v>475.23268872628421</v>
+        <v>1595.8338323333332</v>
       </c>
       <c r="AP40" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB40&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB40&amp;"_win")*($U$7:$U$54))</f>
@@ -36121,15 +36121,15 @@
       </c>
       <c r="AR40" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB40)*($U$7:$U$54)*($F$7:$F$54))+SUMPRODUCT(($H$7:$H$54=AB40)*($U$7:$U$54)*($G$7:$G$54))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="62">
         <f>SUMPRODUCT(($E$7:$E$54=AB40)*($U$7:$U$54)*($G$7:$G$54))+SUMPRODUCT(($H$7:$H$54=AB40)*($U$7:$U$54)*($F$7:$F$54))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="62">
         <f>AR40-AS40</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36164,11 +36164,11 @@
       </c>
       <c r="J41" s="72" t="str">
         <f>VLOOKUP(3,AA38:AK41,2,FALSE)</f>
-        <v>Sweden</v>
+        <v>Korea Republic</v>
       </c>
       <c r="K41" s="27">
         <f>L41+M41+N41</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" s="27">
         <f>VLOOKUP(3,AA38:AK41,3,FALSE)</f>
@@ -36180,11 +36180,11 @@
       </c>
       <c r="N41" s="27">
         <f>VLOOKUP(3,AA38:AK41,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="27" t="str">
         <f>VLOOKUP(3,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA38:AK41,7,FALSE)</f>
-        <v>2 - 2</v>
+        <v>3 - 3</v>
       </c>
       <c r="P41" s="73">
         <f>L41*3+M41</f>
@@ -36224,7 +36224,7 @@
       </c>
       <c r="AA41" s="58">
         <f>COUNTIF(AN38:AN41,CONCATENATE("&gt;=",AN41))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="59" t="str">
         <f>VLOOKUP("Korea Republic",T,lang,FALSE)</f>
@@ -36232,7 +36232,7 @@
       </c>
       <c r="AC41" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB41 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB41 &amp; "_draw")</f>
@@ -36244,7 +36244,7 @@
       </c>
       <c r="AF41" s="58">
         <f>SUMIF($E$7:$E$54,$AB41,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB41,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG41" s="58">
         <f>SUMIF($E$7:$E$54,$AB41,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB41,$F$7:$F$54)</f>
@@ -36252,19 +36252,19 @@
       </c>
       <c r="AH41" s="58">
         <f>(AF41-AG41)*100+AK41*10000+AF41</f>
-        <v>-199</v>
+        <v>30003</v>
       </c>
       <c r="AI41" s="58">
         <f>AF41-AG41</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="58">
         <f>(AI41-AI43)/AI42</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AK41" s="58">
         <f>AC41*3+AD41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL41" s="58">
         <f>AP41/AP42*1000+AQ41/AQ42*100+AT41/AT42*10+AR41/AR42</f>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="AN41" s="59">
         <f>1000*AK41/AK42+100*AJ41+10*AF41/AF42+1*AL41/AL42+AM41</f>
-        <v>3.3336183333333334</v>
+        <v>790.83361833333333</v>
       </c>
       <c r="AP41" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB41&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB41&amp;"_win")*($U$7:$U$54))</f>
@@ -36348,15 +36348,15 @@
       </c>
       <c r="J42" s="74" t="str">
         <f>VLOOKUP(4,AA38:AK41,2,FALSE)</f>
-        <v>Korea Republic</v>
+        <v>Germany</v>
       </c>
       <c r="K42" s="75">
         <f>L42+M42+N42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="75">
         <f>VLOOKUP(4,AA38:AK41,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="75">
         <f>VLOOKUP(4,AA38:AK41,4,FALSE)</f>
@@ -36368,11 +36368,11 @@
       </c>
       <c r="O42" s="75" t="str">
         <f>VLOOKUP(4,AA38:AK41,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA38:AK41,7,FALSE)</f>
-        <v>1 - 3</v>
+        <v>2 - 4</v>
       </c>
       <c r="P42" s="76">
         <f>L42*3+M42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R42" s="58">
         <f>DATE(2018,6,25)+TIME(7,0,0)+gmt_delta</f>
@@ -36408,7 +36408,7 @@
       </c>
       <c r="AC42" s="58">
         <f t="shared" ref="AC42:AL42" si="15">MAX(AC38:AC41)-MIN(AC38:AC41)+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD42" s="58">
         <f t="shared" si="15"/>
@@ -36416,11 +36416,11 @@
       </c>
       <c r="AE42" s="58">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF42" s="58">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG42" s="58">
         <f t="shared" si="15"/>
@@ -36428,23 +36428,23 @@
       </c>
       <c r="AH42" s="58">
         <f>MAX(AH38:AH41)-AH43+1</f>
-        <v>60403</v>
+        <v>30504</v>
       </c>
       <c r="AI42" s="58">
         <f>MAX(AI38:AI41)-AI43+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK42" s="58">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL42" s="58">
         <f t="shared" si="15"/>
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="AP42" s="58">
         <f>MAX(AP38:AP41)-MIN(AP38:AP41)+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="58">
         <f>MAX(AQ38:AQ41)-MIN(AQ38:AQ41)+1</f>
@@ -36452,15 +36452,15 @@
       </c>
       <c r="AR42" s="58">
         <f>MAX(AR38:AR41)-MIN(AR38:AR41)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="58">
         <f>MAX(AS38:AS41)-MIN(AS38:AS41)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="58">
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ42" s="147"/>
       <c r="BK42" s="147"/>
@@ -36538,7 +36538,7 @@
       </c>
       <c r="AH43" s="58">
         <f>MIN(AH38:AH41)</f>
-        <v>-199</v>
+        <v>29802</v>
       </c>
       <c r="AI43" s="58">
         <f>MIN(AI38:AI41)</f>
@@ -37081,8 +37081,12 @@
         <f>AB35</f>
         <v>Serbia</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
+      <c r="F47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="24">
+        <v>2</v>
+      </c>
       <c r="H47" s="67" t="str">
         <f>AB32</f>
         <v>Brazil</v>
@@ -37121,11 +37125,11 @@
       </c>
       <c r="S47" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Serbia_lose</v>
       </c>
       <c r="T47" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Brazil_win</v>
       </c>
       <c r="U47" s="59">
         <f t="shared" si="4"/>
@@ -37143,9 +37147,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="58" t="str">
+      <c r="Y47" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA47" s="58">
         <f>COUNTIF(AN44:AN47,CONCATENATE("&gt;=",AN47))</f>
@@ -37248,8 +37252,12 @@
         <f>AB33</f>
         <v>Switzerland</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="F48" s="23">
+        <v>2</v>
+      </c>
+      <c r="G48" s="24">
+        <v>2</v>
+      </c>
       <c r="H48" s="67" t="str">
         <f>AB34</f>
         <v>Costa Rica</v>
@@ -37288,11 +37296,11 @@
       </c>
       <c r="S48" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Switzerland_draw</v>
       </c>
       <c r="T48" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Costa Rica_draw</v>
       </c>
       <c r="U48" s="59">
         <f t="shared" si="4"/>
@@ -37310,9 +37318,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="58" t="str">
+      <c r="Y48" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AC48" s="58">
         <f t="shared" ref="AC48:AL48" si="16">MAX(AC44:AC47)-MIN(AC44:AC47)+1</f>
@@ -37395,8 +37403,12 @@
         <f>AB41</f>
         <v>Korea Republic</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
+      <c r="F49" s="23">
+        <v>2</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
       <c r="H49" s="67" t="str">
         <f>AB38</f>
         <v>Germany</v>
@@ -37407,11 +37419,11 @@
       </c>
       <c r="S49" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Korea Republic_win</v>
       </c>
       <c r="T49" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Germany_lose</v>
       </c>
       <c r="U49" s="59">
         <f t="shared" si="4"/>
@@ -37429,9 +37441,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="58" t="str">
+      <c r="Y49" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AH49" s="58">
         <f>MIN(AH44:AH47)</f>
@@ -37466,8 +37478,12 @@
         <f>AB39</f>
         <v>Mexico</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="24">
+        <v>3</v>
+      </c>
       <c r="H50" s="67" t="str">
         <f>AB40</f>
         <v>Sweden</v>
@@ -37506,11 +37522,11 @@
       </c>
       <c r="S50" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mexico_lose</v>
       </c>
       <c r="T50" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Sweden_win</v>
       </c>
       <c r="U50" s="59">
         <f t="shared" si="4"/>
@@ -37528,9 +37544,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="58" t="str">
+      <c r="Y50" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA50" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN50))</f>

--- a/input/world_cup_2018_final.xlsx
+++ b/input/world_cup_2018_final.xlsx
@@ -29896,8 +29896,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32952,7 +32952,7 @@
       </c>
       <c r="AZ22" s="28" t="str">
         <f>AO44</f>
-        <v>1G</v>
+        <v>Belgium</v>
       </c>
       <c r="BA22" s="29"/>
       <c r="BB22" s="30"/>
@@ -33147,7 +33147,7 @@
       <c r="AY23" s="130"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
-        <v>2H</v>
+        <v>Senegal</v>
       </c>
       <c r="BA23" s="32"/>
       <c r="BB23" s="33"/>
@@ -35756,7 +35756,7 @@
       </c>
       <c r="AZ38" s="28" t="str">
         <f>AO50</f>
-        <v>1H</v>
+        <v>Colombia</v>
       </c>
       <c r="BA38" s="29"/>
       <c r="BB38" s="30"/>
@@ -35948,7 +35948,7 @@
       <c r="AY39" s="130"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
-        <v>2G</v>
+        <v>England</v>
       </c>
       <c r="BA39" s="32"/>
       <c r="BB39" s="33"/>
@@ -36646,7 +36646,7 @@
       </c>
       <c r="AC44" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB44 &amp; "_win")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD44" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB44 &amp; "_draw")</f>
@@ -36658,7 +36658,7 @@
       </c>
       <c r="AF44" s="58">
         <f>SUMIF($E$7:$E$54,$AB44,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB44,$G$7:$G$54)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG44" s="58">
         <f>SUMIF($E$7:$E$54,$AB44,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB44,$F$7:$F$54)</f>
@@ -36666,19 +36666,19 @@
       </c>
       <c r="AH44" s="58">
         <f>(AF44-AG44)*100+AK44*10000+AF44</f>
-        <v>60608</v>
+        <v>90709</v>
       </c>
       <c r="AI44" s="58">
         <f>AF44-AG44</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ44" s="58">
         <f>(AI44-AI49)/AI48</f>
-        <v>0.93333333333333335</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AK44" s="58">
         <f>AC44*3+AD44</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL44" s="58">
         <f>AP44/AP48*1000+AQ44/AQ48*100+AT44/AT48*10+AR44/AR48</f>
@@ -36690,11 +36690,11 @@
       </c>
       <c r="AN44" s="59">
         <f>1000*AK44/AK48+100*AJ44+10*AF44/AF48+1*AL44/AL48+AM44</f>
-        <v>960.47685297619046</v>
+        <v>1005.3683095588235</v>
       </c>
       <c r="AO44" s="60" t="str">
         <f>IF(SUM(AC44:AE47)=12,J45,INDEX(T,82,lang))</f>
-        <v>1G</v>
+        <v>Belgium</v>
       </c>
       <c r="AP44" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB44&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB44&amp;"_win")*($U$7:$U$54))</f>
@@ -36753,11 +36753,11 @@
       </c>
       <c r="K45" s="70">
         <f>L45+M45+N45</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="70">
         <f>VLOOKUP(1,AA44:AK47,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" s="70">
         <f>VLOOKUP(1,AA44:AK47,4,FALSE)</f>
@@ -36769,11 +36769,11 @@
       </c>
       <c r="O45" s="70" t="str">
         <f>VLOOKUP(1,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA44:AK47,7,FALSE)</f>
-        <v>8 - 2</v>
+        <v>9 - 2</v>
       </c>
       <c r="P45" s="71">
         <f>L45*3+M45</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R45" s="58">
         <f>DATE(2018,6,26)+TIME(7,0,0)+gmt_delta</f>
@@ -36825,23 +36825,23 @@
       </c>
       <c r="AE45" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB45 &amp; "_lose")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF45" s="58">
         <f>SUMIF($E$7:$E$54,$AB45,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB45,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG45" s="58">
         <f>SUMIF($E$7:$E$54,$AB45,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB45,$F$7:$F$54)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH45" s="58">
         <f>(AF45-AG45)*100+AK45*10000+AF45</f>
-        <v>-799</v>
+        <v>-898</v>
       </c>
       <c r="AI45" s="58">
         <f>AF45-AG45</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AJ45" s="58">
         <f>(AI45-AI49)/AI48</f>
@@ -36861,11 +36861,11 @@
       </c>
       <c r="AN45" s="59">
         <f>1000*AK45/AK48+100*AJ45+10*AF45/AF48+1*AL45/AL48+AM45</f>
-        <v>1.2503105000000001</v>
+        <v>2.5003104999999999</v>
       </c>
       <c r="AO45" s="60" t="str">
         <f>IF(SUM(AC44:AE47)=12,J46,INDEX(T,83,lang))</f>
-        <v>2G</v>
+        <v>England</v>
       </c>
       <c r="AP45" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB45&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB45&amp;"_win")*($U$7:$U$54))</f>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="K46" s="27">
         <f>L46+M46+N46</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L46" s="27">
         <f>VLOOKUP(2,AA44:AK47,3,FALSE)</f>
@@ -36936,11 +36936,11 @@
       </c>
       <c r="N46" s="27">
         <f>VLOOKUP(2,AA44:AK47,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="27" t="str">
         <f>VLOOKUP(2,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA44:AK47,7,FALSE)</f>
-        <v>8 - 2</v>
+        <v>8 - 3</v>
       </c>
       <c r="P46" s="73">
         <f>L46*3+M46</f>
@@ -36988,7 +36988,7 @@
       </c>
       <c r="AC46" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB46 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB46 &amp; "_draw")</f>
@@ -37000,27 +37000,27 @@
       </c>
       <c r="AF46" s="58">
         <f>SUMIF($E$7:$E$54,$AB46,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB46,$G$7:$G$54)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG46" s="58">
         <f>SUMIF($E$7:$E$54,$AB46,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB46,$F$7:$F$54)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH46" s="58">
         <f>(AF46-AG46)*100+AK46*10000+AF46</f>
-        <v>-397</v>
+        <v>29705</v>
       </c>
       <c r="AI46" s="58">
         <f>AF46-AG46</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AJ46" s="58">
         <f>(AI46-AI49)/AI48</f>
-        <v>0.26666666666666666</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="AK46" s="58">
         <f>AC46*3+AD46</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL46" s="58">
         <f>AP46/AP48*1000+AQ46/AQ48*100+AT46/AT48*10+AR46/AR48</f>
@@ -37032,7 +37032,7 @@
       </c>
       <c r="AN46" s="59">
         <f>1000*AK46/AK48+100*AJ46+10*AF46/AF48+1*AL46/AL48+AM46</f>
-        <v>30.417085666666669</v>
+        <v>341.54453664705886</v>
       </c>
       <c r="AP46" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB46&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB46&amp;"_win")*($U$7:$U$54))</f>
@@ -37097,11 +37097,11 @@
       </c>
       <c r="K47" s="27">
         <f>L47+M47+N47</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47" s="27">
         <f>VLOOKUP(3,AA44:AK47,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="27">
         <f>VLOOKUP(3,AA44:AK47,4,FALSE)</f>
@@ -37113,11 +37113,11 @@
       </c>
       <c r="O47" s="27" t="str">
         <f>VLOOKUP(3,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA44:AK47,7,FALSE)</f>
-        <v>3 - 7</v>
+        <v>5 - 8</v>
       </c>
       <c r="P47" s="73">
         <f>L47*3+M47</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R47" s="58">
         <f>DATE(2018,6,27)+TIME(7,0,0)+gmt_delta</f>
@@ -37169,7 +37169,7 @@
       </c>
       <c r="AE47" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB47 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" s="58">
         <f>SUMIF($E$7:$E$54,$AB47,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB47,$G$7:$G$54)</f>
@@ -37177,19 +37177,19 @@
       </c>
       <c r="AG47" s="58">
         <f>SUMIF($E$7:$E$54,$AB47,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB47,$F$7:$F$54)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH47" s="58">
         <f>(AF47-AG47)*100+AK47*10000+AF47</f>
-        <v>60608</v>
+        <v>60508</v>
       </c>
       <c r="AI47" s="58">
         <f>AF47-AG47</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ47" s="58">
         <f>(AI47-AI49)/AI48</f>
-        <v>0.93333333333333335</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AK47" s="58">
         <f>AC47*3+AD47</f>
@@ -37205,7 +37205,7 @@
       </c>
       <c r="AN47" s="59">
         <f>1000*AK47/AK48+100*AJ47+10*AF47/AF48+1*AL47/AL48+AM47</f>
-        <v>960.47671397619047</v>
+        <v>692.35346467647059</v>
       </c>
       <c r="AP47" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB47&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB47&amp;"_win")*($U$7:$U$54))</f>
@@ -37268,7 +37268,7 @@
       </c>
       <c r="K48" s="75">
         <f>L48+M48+N48</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48" s="75">
         <f>VLOOKUP(4,AA44:AK47,3,FALSE)</f>
@@ -37280,11 +37280,11 @@
       </c>
       <c r="N48" s="75">
         <f>VLOOKUP(4,AA44:AK47,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O48" s="75" t="str">
         <f>VLOOKUP(4,AA44:AK47,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA44:AK47,7,FALSE)</f>
-        <v>1 - 9</v>
+        <v>2 - 11</v>
       </c>
       <c r="P48" s="76">
         <f>L48*3+M48</f>
@@ -37324,7 +37324,7 @@
       </c>
       <c r="AC48" s="58">
         <f t="shared" ref="AC48:AL48" si="16">MAX(AC44:AC47)-MIN(AC44:AC47)+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD48" s="58">
         <f t="shared" si="16"/>
@@ -37332,7 +37332,7 @@
       </c>
       <c r="AE48" s="58">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF48" s="58">
         <f t="shared" si="16"/>
@@ -37340,19 +37340,19 @@
       </c>
       <c r="AG48" s="58">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH48" s="58">
         <f>MAX(AH44:AH47)-AH49+1</f>
-        <v>61408</v>
+        <v>91608</v>
       </c>
       <c r="AI48" s="58">
         <f>MAX(AI44:AI47)-AI49+1</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK48" s="58">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL48" s="58">
         <f t="shared" si="16"/>
@@ -37447,11 +37447,11 @@
       </c>
       <c r="AH49" s="58">
         <f>MIN(AH44:AH47)</f>
-        <v>-799</v>
+        <v>-898</v>
       </c>
       <c r="AI49" s="58">
         <f>MIN(AI44:AI47)</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AY49" s="140"/>
       <c r="AZ49" s="141"/>
@@ -37558,7 +37558,7 @@
       </c>
       <c r="AC50" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB50 &amp; "_win")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB50 &amp; "_draw")</f>
@@ -37570,7 +37570,7 @@
       </c>
       <c r="AF50" s="58">
         <f>SUMIF($E$7:$E$54,$AB50,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB50,$G$7:$G$54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG50" s="58">
         <f>SUMIF($E$7:$E$54,$AB50,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB50,$F$7:$F$54)</f>
@@ -37578,11 +37578,11 @@
       </c>
       <c r="AH50" s="58">
         <f>(AF50-AG50)*100+AK50*10000+AF50</f>
-        <v>-399</v>
+        <v>29702</v>
       </c>
       <c r="AI50" s="58">
         <f>AF50-AG50</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AJ50" s="58">
         <f>(AI50-AI55)/AI54</f>
@@ -37590,7 +37590,7 @@
       </c>
       <c r="AK50" s="58">
         <f>AC50*3+AD50</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL50" s="58">
         <f>AP50/AP54*1000+AQ50/AQ54*100+AT50/AT54*10+AR50/AR54</f>
@@ -37602,11 +37602,11 @@
       </c>
       <c r="AN50" s="59">
         <f>1000*AK50/AK54+100*AJ50+10*AF50/AF54+1*AL50/AL54+AM50</f>
-        <v>2.5006045000000001</v>
+        <v>755.00060450000001</v>
       </c>
       <c r="AO50" s="60" t="str">
         <f>IF(SUM(AC50:AE53)=12,J51,INDEX(T,84,lang))</f>
-        <v>1H</v>
+        <v>Colombia</v>
       </c>
       <c r="AP50" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB50&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB50&amp;"_win")*($U$7:$U$54))</f>
@@ -37653,39 +37653,43 @@
         <f>AB47</f>
         <v>England</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="24">
+        <v>1</v>
+      </c>
       <c r="H51" s="67" t="str">
         <f>AB44</f>
         <v>Belgium</v>
       </c>
       <c r="J51" s="69" t="str">
         <f>VLOOKUP(1,AA50:AK53,2,FALSE)</f>
-        <v>Senegal</v>
+        <v>Colombia</v>
       </c>
       <c r="K51" s="70">
         <f>L51+M51+N51</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" s="70">
         <f>VLOOKUP(1,AA50:AK53,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" s="70">
         <f>VLOOKUP(1,AA50:AK53,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="70">
         <f>VLOOKUP(1,AA50:AK53,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="70" t="str">
         <f>VLOOKUP(1,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA50:AK53,7,FALSE)</f>
-        <v>4 - 3</v>
+        <v>5 - 2</v>
       </c>
       <c r="P51" s="71">
         <f>L51*3+M51</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R51" s="58">
         <f>DATE(2018,6,28)+TIME(7,0,0)+gmt_delta</f>
@@ -37693,11 +37697,11 @@
       </c>
       <c r="S51" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>England_lose</v>
       </c>
       <c r="T51" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Belgium_win</v>
       </c>
       <c r="U51" s="59">
         <f t="shared" si="4"/>
@@ -37715,13 +37719,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="58" t="str">
+      <c r="Y51" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA51" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN51))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="59" t="str">
         <f>VLOOKUP("Senegal",T,lang,FALSE)</f>
@@ -37737,7 +37741,7 @@
       </c>
       <c r="AE51" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB51 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51" s="58">
         <f>SUMIF($E$7:$E$54,$AB51,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB51,$G$7:$G$54)</f>
@@ -37745,19 +37749,19 @@
       </c>
       <c r="AG51" s="58">
         <f>SUMIF($E$7:$E$54,$AB51,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB51,$F$7:$F$54)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH51" s="58">
         <f>(AF51-AG51)*100+AK51*10000+AF51</f>
-        <v>40104</v>
+        <v>40004</v>
       </c>
       <c r="AI51" s="58">
         <f>AF51-AG51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="58">
         <f>(AI51-AI55)/AI54</f>
-        <v>0.7142857142857143</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AK51" s="58">
         <f>AC51*3+AD51</f>
@@ -37773,11 +37777,11 @@
       </c>
       <c r="AN51" s="59">
         <f>1000*AK51/AK54+100*AJ51+10*AF51/AF54+1*AL51/AL54+AM51</f>
-        <v>882.40965858986181</v>
+        <v>1053.8382300184333</v>
       </c>
       <c r="AO51" s="60" t="str">
         <f>IF(SUM(AC50:AE53)=12,J52,INDEX(T,85,lang))</f>
-        <v>2H</v>
+        <v>Senegal</v>
       </c>
       <c r="AP51" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB51&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB51&amp;"_win")*($U$7:$U$54))</f>
@@ -37824,19 +37828,23 @@
         <f>AB45</f>
         <v>Panama</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
+      <c r="F52" s="23">
+        <v>1</v>
+      </c>
+      <c r="G52" s="24">
+        <v>2</v>
+      </c>
       <c r="H52" s="67" t="str">
         <f>AB46</f>
         <v>Tunisia</v>
       </c>
       <c r="J52" s="72" t="str">
         <f>VLOOKUP(2,AA50:AK53,2,FALSE)</f>
-        <v>Japan</v>
+        <v>Senegal</v>
       </c>
       <c r="K52" s="27">
         <f>L52+M52+N52</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" s="27">
         <f>VLOOKUP(2,AA50:AK53,3,FALSE)</f>
@@ -37848,11 +37856,11 @@
       </c>
       <c r="N52" s="27">
         <f>VLOOKUP(2,AA50:AK53,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="27" t="str">
         <f>VLOOKUP(2,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(2,AA50:AK53,7,FALSE)</f>
-        <v>4 - 3</v>
+        <v>4 - 4</v>
       </c>
       <c r="P52" s="73">
         <f>L52*3+M52</f>
@@ -37864,11 +37872,11 @@
       </c>
       <c r="S52" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Panama_lose</v>
       </c>
       <c r="T52" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Tunisia_win</v>
       </c>
       <c r="U52" s="59">
         <f t="shared" si="4"/>
@@ -37886,13 +37894,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="58" t="str">
+      <c r="Y52" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA52" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN52))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB52" s="59" t="str">
         <f>VLOOKUP("Colombia",T,lang,FALSE)</f>
@@ -37900,7 +37908,7 @@
       </c>
       <c r="AC52" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB52 &amp; "_win")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD52" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB52 &amp; "_draw")</f>
@@ -37912,7 +37920,7 @@
       </c>
       <c r="AF52" s="58">
         <f>SUMIF($E$7:$E$54,$AB52,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB52,$G$7:$G$54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG52" s="58">
         <f>SUMIF($E$7:$E$54,$AB52,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB52,$F$7:$F$54)</f>
@@ -37920,11 +37928,11 @@
       </c>
       <c r="AH52" s="58">
         <f>(AF52-AG52)*100+AK52*10000+AF52</f>
-        <v>30204</v>
+        <v>60305</v>
       </c>
       <c r="AI52" s="58">
         <f>AF52-AG52</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ52" s="58">
         <f>(AI52-AI55)/AI54</f>
@@ -37932,7 +37940,7 @@
       </c>
       <c r="AK52" s="58">
         <f>AC52*3+AD52</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL52" s="58">
         <f>AP52/AP54*1000+AQ52/AQ54*100+AT52/AT54*10+AR52/AR54</f>
@@ -37944,7 +37952,7 @@
       </c>
       <c r="AN52" s="59">
         <f>1000*AK52/AK54+100*AJ52+10*AF52/AF54+1*AL52/AL54+AM52</f>
-        <v>695.71482471428567</v>
+        <v>1598.2148247142857</v>
       </c>
       <c r="AP52" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB52&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB52&amp;"_win")*($U$7:$U$54))</f>
@@ -37991,19 +37999,23 @@
         <f>AB53</f>
         <v>Japan</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
+      <c r="F53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1</v>
+      </c>
       <c r="H53" s="67" t="str">
         <f>AB50</f>
         <v>Poland</v>
       </c>
       <c r="J53" s="72" t="str">
         <f>VLOOKUP(3,AA50:AK53,2,FALSE)</f>
-        <v>Colombia</v>
+        <v>Japan</v>
       </c>
       <c r="K53" s="27">
         <f>L53+M53+N53</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L53" s="27">
         <f>VLOOKUP(3,AA50:AK53,3,FALSE)</f>
@@ -38011,7 +38023,7 @@
       </c>
       <c r="M53" s="27">
         <f>VLOOKUP(3,AA50:AK53,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="27">
         <f>VLOOKUP(3,AA50:AK53,5,FALSE)</f>
@@ -38019,11 +38031,11 @@
       </c>
       <c r="O53" s="27" t="str">
         <f>VLOOKUP(3,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(3,AA50:AK53,7,FALSE)</f>
-        <v>4 - 2</v>
+        <v>4 - 4</v>
       </c>
       <c r="P53" s="73">
         <f>L53*3+M53</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R53" s="58">
         <f>DATE(2018,6,28)+TIME(3,0,0)+gmt_delta</f>
@@ -38031,11 +38043,11 @@
       </c>
       <c r="S53" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Japan_lose</v>
       </c>
       <c r="T53" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Poland_win</v>
       </c>
       <c r="U53" s="59">
         <f t="shared" si="4"/>
@@ -38053,13 +38065,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="58" t="str">
+      <c r="Y53" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AA53" s="58">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN53))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB53" s="59" t="str">
         <f>VLOOKUP("Japan",T,lang,FALSE)</f>
@@ -38075,7 +38087,7 @@
       </c>
       <c r="AE53" s="58">
         <f>COUNTIF($S$7:$T$54,"=" &amp; AB53 &amp; "_lose")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF53" s="58">
         <f>SUMIF($E$7:$E$54,$AB53,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB53,$G$7:$G$54)</f>
@@ -38083,19 +38095,19 @@
       </c>
       <c r="AG53" s="58">
         <f>SUMIF($E$7:$E$54,$AB53,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB53,$F$7:$F$54)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH53" s="58">
         <f>(AF53-AG53)*100+AK53*10000+AF53</f>
-        <v>40104</v>
+        <v>40004</v>
       </c>
       <c r="AI53" s="58">
         <f>AF53-AG53</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="58">
         <f>(AI53-AI55)/AI54</f>
-        <v>0.7142857142857143</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AK53" s="58">
         <f>AC53*3+AD53</f>
@@ -38111,7 +38123,7 @@
       </c>
       <c r="AN53" s="59">
         <f>1000*AK53/AK54+100*AJ53+10*AF53/AF54+1*AL53/AL54+AM53</f>
-        <v>882.40951658986182</v>
+        <v>1053.8380880184332</v>
       </c>
       <c r="AP53" s="61">
         <f>SUMPRODUCT(($S$7:$S$54=AB53&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB53&amp;"_win")*($U$7:$U$54))</f>
@@ -38154,8 +38166,12 @@
         <f>AB51</f>
         <v>Senegal</v>
       </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
+      <c r="F54" s="32">
+        <v>0</v>
+      </c>
+      <c r="G54" s="33">
+        <v>1</v>
+      </c>
       <c r="H54" s="68" t="str">
         <f>AB52</f>
         <v>Colombia</v>
@@ -38166,11 +38182,11 @@
       </c>
       <c r="K54" s="75">
         <f>L54+M54+N54</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" s="75">
         <f>VLOOKUP(4,AA50:AK53,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="75">
         <f>VLOOKUP(4,AA50:AK53,4,FALSE)</f>
@@ -38182,11 +38198,11 @@
       </c>
       <c r="O54" s="75" t="str">
         <f>VLOOKUP(4,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA50:AK53,7,FALSE)</f>
-        <v>1 - 5</v>
+        <v>2 - 5</v>
       </c>
       <c r="P54" s="76">
         <f>L54*3+M54</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R54" s="58">
         <f>DATE(2018,6,28)+TIME(3,0,0)+gmt_delta</f>
@@ -38194,11 +38210,11 @@
       </c>
       <c r="S54" s="65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Senegal_lose</v>
       </c>
       <c r="T54" s="65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Colombia_win</v>
       </c>
       <c r="U54" s="59">
         <f t="shared" si="4"/>
@@ -38216,9 +38232,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="58" t="str">
+      <c r="Y54" s="58">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AC54" s="58">
         <f t="shared" ref="AC54:AL54" si="17">MAX(AC50:AC53)-MIN(AC50:AC53)+1</f>
@@ -38230,7 +38246,7 @@
       </c>
       <c r="AE54" s="58">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF54" s="58">
         <f t="shared" si="17"/>
@@ -38242,7 +38258,7 @@
       </c>
       <c r="AH54" s="58">
         <f>MAX(AH50:AH53)-AH55+1</f>
-        <v>40504</v>
+        <v>30604</v>
       </c>
       <c r="AI54" s="58">
         <f>MAX(AI50:AI53)-AI55+1</f>
@@ -38250,7 +38266,7 @@
       </c>
       <c r="AK54" s="58">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL54" s="58">
         <f t="shared" si="17"/>
@@ -38296,11 +38312,11 @@
       <c r="P55" s="49"/>
       <c r="AH55" s="58">
         <f>MIN(AH50:AH53)</f>
-        <v>-399</v>
+        <v>29702</v>
       </c>
       <c r="AI55" s="58">
         <f>MIN(AI50:AI53)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="56" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
